--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B972FF4-05F0-4C39-99CF-65EA1CA58837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C725E2-3BAE-42A5-A706-C716105BE8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,12 +104,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,31 +137,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="31">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -167,11 +195,41 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -189,11 +247,71 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -202,13 +320,47 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -334,78 +486,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -420,21 +500,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J101" headerRowDxfId="18" dataDxfId="7">
   <autoFilter ref="A1:J101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="組織単位ID"/>
-    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="組織単位名" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="ロボットID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボット名" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="マシンID" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="マシン名" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロボットグループ" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ホスティングの種類" totalsRowLabel="Total"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ロボット種類" totalsRowFunction="count" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="ユーザー名" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="組織単位ID" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="組織単位名" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="ロボットID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボット名" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="マシンID" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="マシン名" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロボットグループ" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ホスティングの種類" totalsRowLabel="Total" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ロボット種類" totalsRowFunction="count" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="ユーザー名" dataDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -442,34 +522,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I93" totalsRowShown="0">
   <autoFilter ref="A1:I93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="ホスティングの種類" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="ホスティングの種類" dataDxfId="30"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ロボット名"/>
-    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="マシン名" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="マシン名" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ロボットの種類"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H101" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H101" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="組織単位名"/>
     <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="ロボットID"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="ロボットの種類" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ユーザー名" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="結果"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="ロボットの種類" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ユーザー名" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="結果" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -477,13 +557,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E101" totalsRowShown="0">
   <autoFilter ref="A1:E101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="組織単位ID" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="組織単位名" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="組織単位ID" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="組織単位名" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ロボット名" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -759,12 +839,12 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.453125" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
@@ -778,645 +858,1236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E46" s="1"/>
-      <c r="F46" s="2"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E50" s="1"/>
-      <c r="F50" s="2"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E51" s="1"/>
-      <c r="F51" s="2"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E52" s="1"/>
-      <c r="F52" s="2"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E53" s="1"/>
-      <c r="F53" s="2"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E54" s="1"/>
-      <c r="F54" s="2"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E55" s="1"/>
-      <c r="F55" s="2"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E57" s="1"/>
-      <c r="F57" s="2"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E59" s="1"/>
-      <c r="F59" s="2"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E60" s="1"/>
-      <c r="F60" s="2"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E61" s="1"/>
-      <c r="F61" s="2"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E62" s="1"/>
-      <c r="F62" s="2"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E63" s="1"/>
-      <c r="F63" s="2"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E64" s="1"/>
-      <c r="F64" s="2"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E65" s="1"/>
-      <c r="F65" s="2"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E66" s="1"/>
-      <c r="F66" s="2"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E67" s="1"/>
-      <c r="F67" s="2"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E68" s="1"/>
-      <c r="F68" s="2"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E69" s="1"/>
-      <c r="F69" s="2"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E70" s="1"/>
-      <c r="F70" s="2"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E71" s="1"/>
-      <c r="F71" s="2"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E73" s="1"/>
-      <c r="F73" s="2"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E75" s="1"/>
-      <c r="F75" s="2"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E76" s="1"/>
-      <c r="F76" s="2"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E77" s="1"/>
-      <c r="F77" s="2"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E78" s="1"/>
-      <c r="F78" s="2"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E79" s="1"/>
-      <c r="F79" s="2"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E80" s="1"/>
-      <c r="F80" s="2"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E81" s="1"/>
-      <c r="F81" s="2"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E82" s="1"/>
-      <c r="F82" s="2"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E83" s="1"/>
-      <c r="F83" s="2"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E84" s="1"/>
-      <c r="F84" s="2"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E85" s="1"/>
-      <c r="F85" s="2"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E86" s="1"/>
-      <c r="F86" s="2"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E87" s="1"/>
-      <c r="F87" s="2"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E88" s="1"/>
-      <c r="F88" s="2"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E89" s="1"/>
-      <c r="F89" s="2"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E90" s="1"/>
-      <c r="F90" s="2"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E91" s="1"/>
-      <c r="F91" s="2"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E92" s="1"/>
-      <c r="F92" s="2"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E93" s="1"/>
-      <c r="F93" s="2"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E94" s="1"/>
-      <c r="F94" s="2"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E95" s="1"/>
-      <c r="F95" s="2"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E96" s="1"/>
-      <c r="F96" s="2"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E97" s="1"/>
-      <c r="F97" s="2"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E98" s="1"/>
-      <c r="F98" s="2"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E99" s="1"/>
-      <c r="F99" s="2"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E100" s="1"/>
-      <c r="F100" s="2"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E101" s="1"/>
-      <c r="F101" s="2"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="3"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="12"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="12"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="12"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="12"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="12"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="12"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="12"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="12"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="12"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="12"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="12"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="9"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="12"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="9"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="12"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="12"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="12"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="9"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="9"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="12"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="9"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="12"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="9"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="12"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="9"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="12"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="12"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="9"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="12"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="12"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="9"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="12"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="9"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="12"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96" s="9"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="12"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="9"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="12"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="9"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="12"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="12"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="12"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1446,7 +2117,7 @@
     <col min="1" max="1" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.08984375" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
@@ -1475,718 +2146,718 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2248,531 +2919,631 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H69" s="9"/>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H73" s="9"/>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H83" s="9"/>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H84" s="9"/>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H85" s="9"/>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H87" s="9"/>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H89" s="9"/>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H92" s="9"/>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H95" s="9"/>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H96" s="9"/>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H97" s="9"/>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H98" s="9"/>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H99" s="9"/>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="H100" s="9"/>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="2"/>
+      <c r="H101" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2816,640 +3587,640 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2"/>
-      <c r="B2" s="4"/>
+      <c r="B2" s="3"/>
       <c r="C2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="C5"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="12"/>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="E96" s="12"/>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="12"/>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="E98" s="12"/>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="E99" s="12"/>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="12"/>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01540629-3033-41FA-9198-F2D056F76E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC353C7A-47C9-4A0B-AC93-76053EBF1E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>ホスティングの種類</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>ユーザー名</t>
-  </si>
-  <si>
-    <t>ロボット種類</t>
   </si>
   <si>
     <t>ロボットグループ</t>
@@ -1422,7 +1419,7 @@
     <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="マシン名" dataDxfId="27"/>
     <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロボットグループ" dataDxfId="26"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ホスティングの種類" totalsRowLabel="Total" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ロボット種類" totalsRowFunction="count" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ロボットの種類" totalsRowFunction="count" dataDxfId="24"/>
     <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="ユーザー名" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1757,7 +1754,7 @@
     <col min="6" max="6" width="18.08984375" style="3" customWidth="1"/>
     <col min="7" max="7" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.81640625" customWidth="1"/>
@@ -1770,13 +1767,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -1788,13 +1785,13 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>4</v>
@@ -4246,22 +4243,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="32" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -6504,10 +6501,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>1</v>
@@ -6516,16 +6513,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -8559,19 +8556,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>9</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC353C7A-47C9-4A0B-AC93-76053EBF1E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF0D08F-B5C8-46B3-8BA1-5DBAE2C52C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4198,8 +4198,20 @@
       <c r="J201" s="24"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J102:J1048576 H2:H201" xr:uid="{315666C5-0397-470F-A633-C919BAAA5B0E}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J102:J1048576" xr:uid="{315666C5-0397-470F-A633-C919BAAA5B0E}">
+      <formula1>"Standard,Floating"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な組織単位ID" error="組織単位IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{A1476F8F-87E2-48D8-8860-CF438DF64B86}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットID" error="ロボットIDは0より大きい整数である必要があります。" sqref="C2:C1048576" xr:uid="{65B771DF-4E95-47C7-BDE1-E13D2675DE78}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なマシンID" error="マシンIDは0より大きい整数である必要があります。" sqref="E2:E1048576" xr:uid="{82BD638D-E656-4D47-9895-8C85D9938FE3}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なホスティングの種類" error="サポートされているホスティングの種類を選択してください。" sqref="H2:H1048576" xr:uid="{087D1462-8A2E-4870-B1FA-F3868E9A29EF}">
       <formula1>"Standard,Floating"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6463,12 +6475,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94:B1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19:A1048576 A8:A9 A2:A3" xr:uid="{3B11C794-A5DC-485E-88B4-884B1F78DCF8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なホスティングの種類" error="サポートされているホスティングの種類を選択してください。" sqref="A2:A1048576" xr:uid="{E3619614-7534-4D5F-979C-97EE39014C39}">
       <formula1>"Standard,Floating"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットID" error="ロボットIDは0より大きい整数である必要があります。" sqref="H2:H1048576" xr:uid="{621A17E7-1DFD-4B40-8043-F0257897F21C}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8526,9 +8541,12 @@
       <c r="H201" s="12"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C1048576" xr:uid="{63D27801-1665-4DF8-9454-ACFF98F813D0}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットID" error="ロボットIDは0より大きい整数である必要があります。" sqref="B2:B1048576" xr:uid="{511177B0-9A3B-410F-A4AF-3B2CF15FFA86}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9973,6 +9991,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な組織単位ID" error="組織単位IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{3FA2D0BB-0647-474A-A1DD-EF5D303471BC}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットID" error="ロボットIDは0より大きい整数である必要があります。" sqref="C2:C1048576" xr:uid="{D3FBFFAA-62F2-4D74-AB75-69802689CE5E}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\UsingFolders\JA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120B9517-B0E7-4AB1-828E-64336D96FFBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C169372-872C-46A1-BFB0-F60BEAD97E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,10 +68,10 @@
     <t>結果</t>
   </si>
   <si>
-    <t>フォルダーID</t>
+    <t>クラシックフォルダーID</t>
   </si>
   <si>
-    <t>フォルダー名</t>
+    <t>クラシックフォルダー名</t>
   </si>
 </sst>
 </file>
@@ -1411,8 +1411,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="37" dataDxfId="35" totalsRowDxfId="33" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="フォルダーID" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="フォルダー名" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="クラシックフォルダーID" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="クラシックフォルダー名" dataDxfId="31"/>
     <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="ロボットID" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボット名" dataDxfId="29"/>
     <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="マシンID" dataDxfId="28"/>
@@ -1436,7 +1436,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ロボットの種類" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="18"/>
     <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="フォルダー名" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="クラシックフォルダー名" dataDxfId="16"/>
     <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="14"/>
   </tableColumns>
@@ -1448,7 +1448,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="フォルダー名" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="クラシックフォルダー名" dataDxfId="12"/>
     <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="ロボットID" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="10"/>
     <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="9"/>
@@ -1465,8 +1465,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="フォルダーID" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="フォルダー名" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="クラシックフォルダーID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="クラシックフォルダー名" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ロボット名" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="0"/>
@@ -1746,8 +1746,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.453125" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -4202,7 +4202,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J102:J1048576" xr:uid="{315666C5-0397-470F-A633-C919BAAA5B0E}">
       <formula1>"Standard,Floating"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なフォルダーID" error="フォルダーIDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{A1476F8F-87E2-48D8-8860-CF438DF64B86}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なクラシックフォルダーID" error="クラシックフォルダーIDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{A1476F8F-87E2-48D8-8860-CF438DF64B86}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットID" error="ロボットIDは0より大きい整数である必要があります。" sqref="C2:C1048576" xr:uid="{65B771DF-4E95-47C7-BDE1-E13D2675DE78}">
@@ -4239,7 +4239,7 @@
     <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.08984375" customWidth="1"/>
+    <col min="7" max="7" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.81640625" customWidth="1"/>
   </cols>
@@ -6504,7 +6504,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
@@ -8567,8 +8567,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9992,7 +9993,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なフォルダーID" error="フォルダーIDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{3FA2D0BB-0647-474A-A1DD-EF5D303471BC}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なクラシックフォルダーID" error="クラシックフォルダーIDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{3FA2D0BB-0647-474A-A1DD-EF5D303471BC}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットID" error="ロボットIDは0より大きい整数である必要があります。" sqref="C2:C1048576" xr:uid="{D3FBFFAA-62F2-4D74-AB75-69802689CE5E}">

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C169372-872C-46A1-BFB0-F60BEAD97E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF87C26-22D5-40A4-BBE7-5BE8A9EA1D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -341,36 +341,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -378,7 +378,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="43">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -387,8 +393,8 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -401,12 +407,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -418,8 +418,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -432,12 +432,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -449,8 +443,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -463,12 +457,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -480,8 +468,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -494,12 +482,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -511,8 +493,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -525,13 +507,21 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -541,7 +531,8 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -554,12 +545,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -571,7 +556,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -584,12 +569,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -601,8 +580,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -615,12 +594,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -632,8 +605,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -646,12 +619,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -663,8 +630,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -677,12 +644,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -694,8 +655,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -708,17 +669,12 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -731,16 +687,11 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -753,24 +704,13 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -780,8 +720,8 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -794,12 +734,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -811,8 +745,8 @@
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -825,12 +759,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -842,8 +770,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -856,12 +784,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -874,7 +796,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -887,18 +809,12 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -911,16 +827,11 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -933,12 +844,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -949,8 +854,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -963,17 +868,12 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -986,12 +886,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1002,8 +896,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -1016,12 +910,6 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="5"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="5"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1408,68 +1296,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="37" dataDxfId="35" totalsRowDxfId="33" headerRowBorderDxfId="36" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="42" dataDxfId="40" totalsRowDxfId="38" headerRowBorderDxfId="41" tableBorderDxfId="39">
   <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="クラシックフォルダーID" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="クラシックフォルダー名" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="ロボットID" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボット名" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="マシンID" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="マシン名" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロボットグループ" dataDxfId="26"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ホスティングの種類" totalsRowLabel="Total" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ロボットの種類" totalsRowFunction="count" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="ユーザー名" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="クラシックフォルダーID" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="クラシックフォルダー名" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="ロボットID" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボット名" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="マシンID" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="マシン名" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロボットグループ" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ホスティングの種類" totalsRowLabel="Total" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ロボットの種類" totalsRowFunction="count" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="ユーザー名" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="ホスティングの種類" dataDxfId="22"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ロボット名" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="マシン名" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ロボットの種類" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="クラシックフォルダー名" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="ホスティングの種類" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ロボット名" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="マシン名" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ロボットの種類" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="クラシックフォルダー名" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="クラシックフォルダー名" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="ロボットID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="ロボットの種類" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ユーザー名" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="結果" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="クラシックフォルダー名" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="ロボットID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="ロボットの種類" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ユーザー名" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="結果" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="クラシックフォルダーID" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="クラシックフォルダー名" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ロボット名" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="クラシックフォルダーID" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="クラシックフォルダー名" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ロボット名" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3006,7 +2894,7 @@
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
       <c r="H102" s="12"/>
-      <c r="I102" s="33"/>
+      <c r="I102" s="29"/>
       <c r="J102" s="16"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
@@ -3018,7 +2906,7 @@
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
       <c r="H103" s="12"/>
-      <c r="I103" s="33"/>
+      <c r="I103" s="29"/>
       <c r="J103" s="16"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
@@ -3030,7 +2918,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
       <c r="H104" s="12"/>
-      <c r="I104" s="33"/>
+      <c r="I104" s="29"/>
       <c r="J104" s="16"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
@@ -3042,7 +2930,7 @@
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
       <c r="H105" s="12"/>
-      <c r="I105" s="33"/>
+      <c r="I105" s="29"/>
       <c r="J105" s="16"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
@@ -3054,7 +2942,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
       <c r="H106" s="12"/>
-      <c r="I106" s="33"/>
+      <c r="I106" s="29"/>
       <c r="J106" s="16"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
@@ -3066,7 +2954,7 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
       <c r="H107" s="12"/>
-      <c r="I107" s="33"/>
+      <c r="I107" s="29"/>
       <c r="J107" s="16"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
@@ -3078,7 +2966,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
       <c r="H108" s="12"/>
-      <c r="I108" s="33"/>
+      <c r="I108" s="29"/>
       <c r="J108" s="16"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
@@ -3090,7 +2978,7 @@
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
       <c r="H109" s="12"/>
-      <c r="I109" s="33"/>
+      <c r="I109" s="29"/>
       <c r="J109" s="16"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
@@ -3102,7 +2990,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
       <c r="H110" s="12"/>
-      <c r="I110" s="33"/>
+      <c r="I110" s="29"/>
       <c r="J110" s="16"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
@@ -3114,7 +3002,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
       <c r="H111" s="12"/>
-      <c r="I111" s="33"/>
+      <c r="I111" s="29"/>
       <c r="J111" s="16"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
@@ -3126,7 +3014,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
       <c r="H112" s="12"/>
-      <c r="I112" s="33"/>
+      <c r="I112" s="29"/>
       <c r="J112" s="16"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
@@ -3138,7 +3026,7 @@
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
       <c r="H113" s="12"/>
-      <c r="I113" s="33"/>
+      <c r="I113" s="29"/>
       <c r="J113" s="16"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
@@ -3150,7 +3038,7 @@
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
       <c r="H114" s="12"/>
-      <c r="I114" s="33"/>
+      <c r="I114" s="29"/>
       <c r="J114" s="16"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
@@ -3162,7 +3050,7 @@
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
       <c r="H115" s="12"/>
-      <c r="I115" s="33"/>
+      <c r="I115" s="29"/>
       <c r="J115" s="16"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
@@ -3174,7 +3062,7 @@
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
       <c r="H116" s="12"/>
-      <c r="I116" s="33"/>
+      <c r="I116" s="29"/>
       <c r="J116" s="16"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
@@ -3186,7 +3074,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
       <c r="H117" s="12"/>
-      <c r="I117" s="33"/>
+      <c r="I117" s="29"/>
       <c r="J117" s="16"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
@@ -3198,7 +3086,7 @@
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
       <c r="H118" s="12"/>
-      <c r="I118" s="33"/>
+      <c r="I118" s="29"/>
       <c r="J118" s="16"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
@@ -3210,7 +3098,7 @@
       <c r="F119" s="13"/>
       <c r="G119" s="13"/>
       <c r="H119" s="12"/>
-      <c r="I119" s="33"/>
+      <c r="I119" s="29"/>
       <c r="J119" s="16"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
@@ -3222,7 +3110,7 @@
       <c r="F120" s="13"/>
       <c r="G120" s="13"/>
       <c r="H120" s="12"/>
-      <c r="I120" s="33"/>
+      <c r="I120" s="29"/>
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
@@ -3234,7 +3122,7 @@
       <c r="F121" s="13"/>
       <c r="G121" s="13"/>
       <c r="H121" s="12"/>
-      <c r="I121" s="33"/>
+      <c r="I121" s="29"/>
       <c r="J121" s="16"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
@@ -3246,7 +3134,7 @@
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="33"/>
+      <c r="I122" s="29"/>
       <c r="J122" s="16"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
@@ -3258,7 +3146,7 @@
       <c r="F123" s="13"/>
       <c r="G123" s="13"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="33"/>
+      <c r="I123" s="29"/>
       <c r="J123" s="16"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
@@ -3270,7 +3158,7 @@
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="33"/>
+      <c r="I124" s="29"/>
       <c r="J124" s="16"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
@@ -3282,7 +3170,7 @@
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="33"/>
+      <c r="I125" s="29"/>
       <c r="J125" s="16"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
@@ -3294,7 +3182,7 @@
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="33"/>
+      <c r="I126" s="29"/>
       <c r="J126" s="16"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
@@ -3306,7 +3194,7 @@
       <c r="F127" s="13"/>
       <c r="G127" s="13"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="33"/>
+      <c r="I127" s="29"/>
       <c r="J127" s="16"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
@@ -3318,7 +3206,7 @@
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
       <c r="H128" s="12"/>
-      <c r="I128" s="33"/>
+      <c r="I128" s="29"/>
       <c r="J128" s="16"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
@@ -3330,7 +3218,7 @@
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
       <c r="H129" s="12"/>
-      <c r="I129" s="33"/>
+      <c r="I129" s="29"/>
       <c r="J129" s="16"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
@@ -3342,7 +3230,7 @@
       <c r="F130" s="13"/>
       <c r="G130" s="13"/>
       <c r="H130" s="12"/>
-      <c r="I130" s="33"/>
+      <c r="I130" s="29"/>
       <c r="J130" s="16"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
@@ -3354,7 +3242,7 @@
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
       <c r="H131" s="12"/>
-      <c r="I131" s="33"/>
+      <c r="I131" s="29"/>
       <c r="J131" s="16"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
@@ -3366,7 +3254,7 @@
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
       <c r="H132" s="12"/>
-      <c r="I132" s="33"/>
+      <c r="I132" s="29"/>
       <c r="J132" s="16"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
@@ -3378,7 +3266,7 @@
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
       <c r="H133" s="12"/>
-      <c r="I133" s="33"/>
+      <c r="I133" s="29"/>
       <c r="J133" s="16"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
@@ -3390,7 +3278,7 @@
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
       <c r="H134" s="12"/>
-      <c r="I134" s="33"/>
+      <c r="I134" s="29"/>
       <c r="J134" s="16"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
@@ -3402,7 +3290,7 @@
       <c r="F135" s="13"/>
       <c r="G135" s="13"/>
       <c r="H135" s="12"/>
-      <c r="I135" s="33"/>
+      <c r="I135" s="29"/>
       <c r="J135" s="16"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
@@ -3414,7 +3302,7 @@
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
       <c r="H136" s="12"/>
-      <c r="I136" s="33"/>
+      <c r="I136" s="29"/>
       <c r="J136" s="16"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
@@ -3426,7 +3314,7 @@
       <c r="F137" s="13"/>
       <c r="G137" s="13"/>
       <c r="H137" s="12"/>
-      <c r="I137" s="33"/>
+      <c r="I137" s="29"/>
       <c r="J137" s="16"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
@@ -3438,7 +3326,7 @@
       <c r="F138" s="13"/>
       <c r="G138" s="13"/>
       <c r="H138" s="12"/>
-      <c r="I138" s="33"/>
+      <c r="I138" s="29"/>
       <c r="J138" s="16"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
@@ -3450,7 +3338,7 @@
       <c r="F139" s="13"/>
       <c r="G139" s="13"/>
       <c r="H139" s="12"/>
-      <c r="I139" s="33"/>
+      <c r="I139" s="29"/>
       <c r="J139" s="16"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
@@ -3462,7 +3350,7 @@
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
       <c r="H140" s="12"/>
-      <c r="I140" s="33"/>
+      <c r="I140" s="29"/>
       <c r="J140" s="16"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
@@ -3474,7 +3362,7 @@
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
       <c r="H141" s="12"/>
-      <c r="I141" s="33"/>
+      <c r="I141" s="29"/>
       <c r="J141" s="16"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
@@ -3486,7 +3374,7 @@
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
       <c r="H142" s="12"/>
-      <c r="I142" s="33"/>
+      <c r="I142" s="29"/>
       <c r="J142" s="16"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
@@ -3498,7 +3386,7 @@
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
       <c r="H143" s="12"/>
-      <c r="I143" s="33"/>
+      <c r="I143" s="29"/>
       <c r="J143" s="16"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
@@ -3510,7 +3398,7 @@
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
       <c r="H144" s="12"/>
-      <c r="I144" s="33"/>
+      <c r="I144" s="29"/>
       <c r="J144" s="16"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
@@ -3522,7 +3410,7 @@
       <c r="F145" s="13"/>
       <c r="G145" s="13"/>
       <c r="H145" s="12"/>
-      <c r="I145" s="33"/>
+      <c r="I145" s="29"/>
       <c r="J145" s="16"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
@@ -3534,7 +3422,7 @@
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
       <c r="H146" s="12"/>
-      <c r="I146" s="33"/>
+      <c r="I146" s="29"/>
       <c r="J146" s="16"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
@@ -3546,7 +3434,7 @@
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
       <c r="H147" s="12"/>
-      <c r="I147" s="33"/>
+      <c r="I147" s="29"/>
       <c r="J147" s="16"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
@@ -3558,7 +3446,7 @@
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
       <c r="H148" s="12"/>
-      <c r="I148" s="33"/>
+      <c r="I148" s="29"/>
       <c r="J148" s="16"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
@@ -3570,7 +3458,7 @@
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
       <c r="H149" s="12"/>
-      <c r="I149" s="33"/>
+      <c r="I149" s="29"/>
       <c r="J149" s="16"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
@@ -3582,7 +3470,7 @@
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
       <c r="H150" s="12"/>
-      <c r="I150" s="33"/>
+      <c r="I150" s="29"/>
       <c r="J150" s="16"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
@@ -3594,7 +3482,7 @@
       <c r="F151" s="13"/>
       <c r="G151" s="13"/>
       <c r="H151" s="12"/>
-      <c r="I151" s="33"/>
+      <c r="I151" s="29"/>
       <c r="J151" s="16"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
@@ -3606,7 +3494,7 @@
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
       <c r="H152" s="12"/>
-      <c r="I152" s="33"/>
+      <c r="I152" s="29"/>
       <c r="J152" s="16"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
@@ -3618,7 +3506,7 @@
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
       <c r="H153" s="12"/>
-      <c r="I153" s="33"/>
+      <c r="I153" s="29"/>
       <c r="J153" s="16"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
@@ -3630,7 +3518,7 @@
       <c r="F154" s="13"/>
       <c r="G154" s="13"/>
       <c r="H154" s="12"/>
-      <c r="I154" s="33"/>
+      <c r="I154" s="29"/>
       <c r="J154" s="16"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
@@ -3642,7 +3530,7 @@
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
       <c r="H155" s="12"/>
-      <c r="I155" s="33"/>
+      <c r="I155" s="29"/>
       <c r="J155" s="16"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
@@ -3654,7 +3542,7 @@
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
       <c r="H156" s="12"/>
-      <c r="I156" s="33"/>
+      <c r="I156" s="29"/>
       <c r="J156" s="16"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
@@ -3666,7 +3554,7 @@
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
       <c r="H157" s="12"/>
-      <c r="I157" s="33"/>
+      <c r="I157" s="29"/>
       <c r="J157" s="16"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
@@ -3678,7 +3566,7 @@
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
       <c r="H158" s="12"/>
-      <c r="I158" s="33"/>
+      <c r="I158" s="29"/>
       <c r="J158" s="16"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
@@ -3690,7 +3578,7 @@
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
       <c r="H159" s="12"/>
-      <c r="I159" s="33"/>
+      <c r="I159" s="29"/>
       <c r="J159" s="16"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
@@ -3702,7 +3590,7 @@
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
       <c r="H160" s="12"/>
-      <c r="I160" s="33"/>
+      <c r="I160" s="29"/>
       <c r="J160" s="16"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
@@ -3714,7 +3602,7 @@
       <c r="F161" s="13"/>
       <c r="G161" s="13"/>
       <c r="H161" s="12"/>
-      <c r="I161" s="33"/>
+      <c r="I161" s="29"/>
       <c r="J161" s="16"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
@@ -3726,7 +3614,7 @@
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
       <c r="H162" s="12"/>
-      <c r="I162" s="33"/>
+      <c r="I162" s="29"/>
       <c r="J162" s="16"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
@@ -3738,7 +3626,7 @@
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
       <c r="H163" s="12"/>
-      <c r="I163" s="33"/>
+      <c r="I163" s="29"/>
       <c r="J163" s="16"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
@@ -3750,7 +3638,7 @@
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
       <c r="H164" s="12"/>
-      <c r="I164" s="33"/>
+      <c r="I164" s="29"/>
       <c r="J164" s="16"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
@@ -3762,7 +3650,7 @@
       <c r="F165" s="13"/>
       <c r="G165" s="13"/>
       <c r="H165" s="12"/>
-      <c r="I165" s="33"/>
+      <c r="I165" s="29"/>
       <c r="J165" s="16"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
@@ -3774,7 +3662,7 @@
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
       <c r="H166" s="12"/>
-      <c r="I166" s="33"/>
+      <c r="I166" s="29"/>
       <c r="J166" s="16"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
@@ -3786,7 +3674,7 @@
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
       <c r="H167" s="12"/>
-      <c r="I167" s="33"/>
+      <c r="I167" s="29"/>
       <c r="J167" s="16"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
@@ -3798,7 +3686,7 @@
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
       <c r="H168" s="12"/>
-      <c r="I168" s="33"/>
+      <c r="I168" s="29"/>
       <c r="J168" s="16"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
@@ -3810,7 +3698,7 @@
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
       <c r="H169" s="12"/>
-      <c r="I169" s="33"/>
+      <c r="I169" s="29"/>
       <c r="J169" s="16"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
@@ -3822,7 +3710,7 @@
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
       <c r="H170" s="12"/>
-      <c r="I170" s="33"/>
+      <c r="I170" s="29"/>
       <c r="J170" s="16"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
@@ -3834,7 +3722,7 @@
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
       <c r="H171" s="12"/>
-      <c r="I171" s="33"/>
+      <c r="I171" s="29"/>
       <c r="J171" s="16"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
@@ -3846,7 +3734,7 @@
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
       <c r="H172" s="12"/>
-      <c r="I172" s="33"/>
+      <c r="I172" s="29"/>
       <c r="J172" s="16"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
@@ -3858,7 +3746,7 @@
       <c r="F173" s="13"/>
       <c r="G173" s="13"/>
       <c r="H173" s="12"/>
-      <c r="I173" s="33"/>
+      <c r="I173" s="29"/>
       <c r="J173" s="16"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
@@ -3870,7 +3758,7 @@
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
       <c r="H174" s="12"/>
-      <c r="I174" s="33"/>
+      <c r="I174" s="29"/>
       <c r="J174" s="16"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
@@ -3882,7 +3770,7 @@
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
       <c r="H175" s="12"/>
-      <c r="I175" s="33"/>
+      <c r="I175" s="29"/>
       <c r="J175" s="16"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
@@ -3894,7 +3782,7 @@
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
       <c r="H176" s="12"/>
-      <c r="I176" s="33"/>
+      <c r="I176" s="29"/>
       <c r="J176" s="16"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
@@ -3906,7 +3794,7 @@
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
       <c r="H177" s="12"/>
-      <c r="I177" s="33"/>
+      <c r="I177" s="29"/>
       <c r="J177" s="16"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
@@ -3918,7 +3806,7 @@
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
       <c r="H178" s="12"/>
-      <c r="I178" s="33"/>
+      <c r="I178" s="29"/>
       <c r="J178" s="16"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
@@ -3930,7 +3818,7 @@
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
       <c r="H179" s="12"/>
-      <c r="I179" s="33"/>
+      <c r="I179" s="29"/>
       <c r="J179" s="16"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
@@ -3942,7 +3830,7 @@
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
       <c r="H180" s="12"/>
-      <c r="I180" s="33"/>
+      <c r="I180" s="29"/>
       <c r="J180" s="16"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
@@ -3954,7 +3842,7 @@
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
       <c r="H181" s="12"/>
-      <c r="I181" s="33"/>
+      <c r="I181" s="29"/>
       <c r="J181" s="16"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
@@ -3966,7 +3854,7 @@
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
       <c r="H182" s="12"/>
-      <c r="I182" s="33"/>
+      <c r="I182" s="29"/>
       <c r="J182" s="16"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.35">
@@ -3978,7 +3866,7 @@
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
       <c r="H183" s="12"/>
-      <c r="I183" s="33"/>
+      <c r="I183" s="29"/>
       <c r="J183" s="16"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
@@ -3990,7 +3878,7 @@
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
       <c r="H184" s="12"/>
-      <c r="I184" s="33"/>
+      <c r="I184" s="29"/>
       <c r="J184" s="16"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.35">
@@ -4002,7 +3890,7 @@
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
       <c r="H185" s="12"/>
-      <c r="I185" s="33"/>
+      <c r="I185" s="29"/>
       <c r="J185" s="16"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.35">
@@ -4014,7 +3902,7 @@
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
       <c r="H186" s="12"/>
-      <c r="I186" s="33"/>
+      <c r="I186" s="29"/>
       <c r="J186" s="16"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
@@ -4026,7 +3914,7 @@
       <c r="F187" s="13"/>
       <c r="G187" s="13"/>
       <c r="H187" s="12"/>
-      <c r="I187" s="33"/>
+      <c r="I187" s="29"/>
       <c r="J187" s="16"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.35">
@@ -4038,7 +3926,7 @@
       <c r="F188" s="13"/>
       <c r="G188" s="13"/>
       <c r="H188" s="12"/>
-      <c r="I188" s="33"/>
+      <c r="I188" s="29"/>
       <c r="J188" s="16"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
@@ -4050,7 +3938,7 @@
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
       <c r="H189" s="12"/>
-      <c r="I189" s="33"/>
+      <c r="I189" s="29"/>
       <c r="J189" s="16"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
@@ -4062,7 +3950,7 @@
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
       <c r="H190" s="12"/>
-      <c r="I190" s="33"/>
+      <c r="I190" s="29"/>
       <c r="J190" s="16"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
@@ -4074,7 +3962,7 @@
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
       <c r="H191" s="12"/>
-      <c r="I191" s="33"/>
+      <c r="I191" s="29"/>
       <c r="J191" s="16"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.35">
@@ -4086,7 +3974,7 @@
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
       <c r="H192" s="12"/>
-      <c r="I192" s="33"/>
+      <c r="I192" s="29"/>
       <c r="J192" s="16"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
@@ -4098,7 +3986,7 @@
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
       <c r="H193" s="12"/>
-      <c r="I193" s="33"/>
+      <c r="I193" s="29"/>
       <c r="J193" s="16"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
@@ -4110,7 +3998,7 @@
       <c r="F194" s="13"/>
       <c r="G194" s="13"/>
       <c r="H194" s="12"/>
-      <c r="I194" s="33"/>
+      <c r="I194" s="29"/>
       <c r="J194" s="16"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
@@ -4122,7 +4010,7 @@
       <c r="F195" s="13"/>
       <c r="G195" s="13"/>
       <c r="H195" s="12"/>
-      <c r="I195" s="33"/>
+      <c r="I195" s="29"/>
       <c r="J195" s="16"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
@@ -4134,7 +4022,7 @@
       <c r="F196" s="13"/>
       <c r="G196" s="13"/>
       <c r="H196" s="12"/>
-      <c r="I196" s="33"/>
+      <c r="I196" s="29"/>
       <c r="J196" s="16"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
@@ -4146,7 +4034,7 @@
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
       <c r="H197" s="12"/>
-      <c r="I197" s="33"/>
+      <c r="I197" s="29"/>
       <c r="J197" s="16"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.35">
@@ -4158,7 +4046,7 @@
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
       <c r="H198" s="12"/>
-      <c r="I198" s="33"/>
+      <c r="I198" s="29"/>
       <c r="J198" s="16"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.35">
@@ -4170,7 +4058,7 @@
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
       <c r="H199" s="12"/>
-      <c r="I199" s="33"/>
+      <c r="I199" s="29"/>
       <c r="J199" s="16"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.35">
@@ -4182,7 +4070,7 @@
       <c r="F200" s="13"/>
       <c r="G200" s="13"/>
       <c r="H200" s="12"/>
-      <c r="I200" s="33"/>
+      <c r="I200" s="29"/>
       <c r="J200" s="16"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.35">
@@ -4194,7 +4082,7 @@
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
       <c r="H201" s="20"/>
-      <c r="I201" s="34"/>
+      <c r="I201" s="30"/>
       <c r="J201" s="24"/>
     </row>
   </sheetData>
@@ -4234,14 +4122,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.90625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -4257,30 +4145,30 @@
       <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="30"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
@@ -4289,2189 +4177,2189 @@
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="27"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
       <c r="D94" s="27"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="26"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="25"/>
       <c r="G94" s="25"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
       <c r="D95" s="27"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="26"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="25"/>
       <c r="G95" s="25"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
       <c r="D96" s="27"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="26"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="25"/>
       <c r="G96" s="25"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
       <c r="D97" s="27"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="26"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="25"/>
       <c r="G97" s="25"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
       <c r="D98" s="27"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="26"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="25"/>
       <c r="G98" s="25"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
       <c r="D99" s="27"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="26"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="25"/>
       <c r="G99" s="25"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
       <c r="D100" s="27"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="26"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="25"/>
       <c r="G100" s="25"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
       <c r="D101" s="27"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="26"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="25"/>
       <c r="G101" s="25"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
       <c r="D102" s="27"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="26"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="25"/>
       <c r="G102" s="25"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
       <c r="D103" s="27"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="26"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="25"/>
       <c r="G103" s="25"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
       <c r="D104" s="27"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="26"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="25"/>
       <c r="G104" s="25"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
       <c r="D105" s="27"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="26"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="25"/>
       <c r="G105" s="25"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
       <c r="D106" s="27"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="26"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="25"/>
       <c r="G106" s="25"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
       <c r="D107" s="27"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="26"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="25"/>
       <c r="G107" s="25"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
       <c r="D108" s="27"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="26"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="25"/>
       <c r="G108" s="25"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
       <c r="D109" s="27"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="26"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="25"/>
       <c r="G109" s="25"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
       <c r="D110" s="27"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="26"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="25"/>
       <c r="G110" s="25"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
       <c r="D111" s="27"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="26"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="25"/>
       <c r="G111" s="25"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="25"/>
       <c r="D112" s="27"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="26"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="25"/>
       <c r="G112" s="25"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
       <c r="D113" s="27"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="26"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="25"/>
       <c r="G113" s="25"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="25"/>
       <c r="D114" s="27"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="26"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="25"/>
       <c r="G114" s="25"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="25"/>
       <c r="D115" s="27"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="26"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="25"/>
       <c r="G115" s="25"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="25"/>
       <c r="D116" s="27"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="26"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="25"/>
       <c r="G116" s="25"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="25"/>
       <c r="D117" s="27"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="26"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="25"/>
       <c r="G117" s="25"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
       <c r="D118" s="27"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="26"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="25"/>
       <c r="G118" s="25"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
       <c r="D119" s="27"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="26"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="25"/>
       <c r="G119" s="25"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
       <c r="D120" s="27"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="26"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="25"/>
       <c r="G120" s="25"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="25"/>
       <c r="D121" s="27"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="26"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="25"/>
       <c r="G121" s="25"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
       <c r="D122" s="27"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="26"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="25"/>
       <c r="G122" s="25"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
       <c r="D123" s="27"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="26"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="25"/>
       <c r="G123" s="25"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
       <c r="D124" s="27"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="26"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="25"/>
       <c r="G124" s="25"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
       <c r="D125" s="27"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="26"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="25"/>
       <c r="G125" s="25"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
       <c r="D126" s="27"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="26"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="25"/>
       <c r="G126" s="25"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
       <c r="D127" s="27"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="26"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="25"/>
       <c r="G127" s="25"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
       <c r="D128" s="27"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="26"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="25"/>
       <c r="G128" s="25"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
       <c r="D129" s="27"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="26"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="25"/>
       <c r="G129" s="25"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
       <c r="D130" s="27"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="26"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="25"/>
       <c r="G130" s="25"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
       <c r="D131" s="27"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="26"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="25"/>
       <c r="G131" s="25"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
       <c r="D132" s="27"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="26"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="25"/>
       <c r="G132" s="25"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
       <c r="D133" s="27"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="26"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="25"/>
       <c r="G133" s="25"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
       <c r="D134" s="27"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="26"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="25"/>
       <c r="G134" s="25"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
       <c r="D135" s="27"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="26"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="25"/>
       <c r="G135" s="25"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="25"/>
       <c r="D136" s="27"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="26"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="25"/>
       <c r="G136" s="25"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
       <c r="D137" s="27"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="26"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="25"/>
       <c r="G137" s="25"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
       <c r="D138" s="27"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="26"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="25"/>
       <c r="G138" s="25"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
       <c r="D139" s="27"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="26"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="25"/>
       <c r="G139" s="25"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
       <c r="D140" s="27"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="26"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="25"/>
       <c r="G140" s="25"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="27"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="26"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="25"/>
       <c r="G141" s="25"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
       <c r="D142" s="27"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="26"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="25"/>
       <c r="G142" s="25"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
       <c r="D143" s="27"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="26"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="25"/>
       <c r="G143" s="25"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="25"/>
       <c r="D144" s="27"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="26"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="25"/>
       <c r="G144" s="25"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="25"/>
       <c r="D145" s="27"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="26"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="25"/>
       <c r="G145" s="25"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
       <c r="D146" s="27"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="26"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="25"/>
       <c r="G146" s="25"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="25"/>
       <c r="D147" s="27"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="26"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="25"/>
       <c r="G147" s="25"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
       <c r="D148" s="27"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="26"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="25"/>
       <c r="G148" s="25"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
       <c r="D149" s="27"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="26"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="25"/>
       <c r="G149" s="25"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="25"/>
       <c r="D150" s="27"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="26"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="25"/>
       <c r="G150" s="25"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="25"/>
       <c r="D151" s="27"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="26"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="25"/>
       <c r="G151" s="25"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="25"/>
       <c r="D152" s="27"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="26"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="25"/>
       <c r="G152" s="25"/>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
       <c r="D153" s="27"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="26"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="25"/>
       <c r="G153" s="25"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
       <c r="D154" s="27"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="26"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="25"/>
       <c r="G154" s="25"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="25"/>
       <c r="D155" s="27"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="26"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="25"/>
       <c r="G155" s="25"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="25"/>
       <c r="D156" s="27"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="26"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="25"/>
       <c r="G156" s="25"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="25"/>
       <c r="D157" s="27"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="26"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="25"/>
       <c r="G157" s="25"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
       <c r="D158" s="27"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="26"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="25"/>
       <c r="G158" s="25"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="25"/>
       <c r="D159" s="27"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="26"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="25"/>
       <c r="G159" s="25"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
       <c r="D160" s="27"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="26"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="25"/>
       <c r="G160" s="25"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="25"/>
       <c r="D161" s="27"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="26"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="25"/>
       <c r="G161" s="25"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="14"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
       <c r="D162" s="27"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="26"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="25"/>
       <c r="G162" s="25"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
       <c r="D163" s="27"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="26"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="25"/>
       <c r="G163" s="25"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="14"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
       <c r="D164" s="27"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="26"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="25"/>
       <c r="G164" s="25"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="14"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="25"/>
       <c r="D165" s="27"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="26"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="25"/>
       <c r="G165" s="25"/>
-      <c r="H165" s="14"/>
-      <c r="I165" s="14"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="25"/>
       <c r="D166" s="27"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="26"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="25"/>
       <c r="G166" s="25"/>
-      <c r="H166" s="14"/>
-      <c r="I166" s="14"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
       <c r="D167" s="27"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="26"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="25"/>
       <c r="G167" s="25"/>
-      <c r="H167" s="14"/>
-      <c r="I167" s="14"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
       <c r="D168" s="27"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="26"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="25"/>
       <c r="G168" s="25"/>
-      <c r="H168" s="14"/>
-      <c r="I168" s="14"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="25"/>
       <c r="D169" s="27"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="26"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="25"/>
       <c r="G169" s="25"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="14"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="25"/>
       <c r="D170" s="27"/>
-      <c r="E170" s="29"/>
-      <c r="F170" s="26"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="25"/>
       <c r="G170" s="25"/>
-      <c r="H170" s="14"/>
-      <c r="I170" s="14"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="25"/>
       <c r="D171" s="27"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="26"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="25"/>
       <c r="G171" s="25"/>
-      <c r="H171" s="14"/>
-      <c r="I171" s="14"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="25"/>
       <c r="D172" s="27"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="26"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="25"/>
       <c r="G172" s="25"/>
-      <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="25"/>
       <c r="D173" s="27"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="26"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="25"/>
       <c r="G173" s="25"/>
-      <c r="H173" s="14"/>
-      <c r="I173" s="14"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
       <c r="D174" s="27"/>
-      <c r="E174" s="29"/>
-      <c r="F174" s="26"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="25"/>
       <c r="G174" s="25"/>
-      <c r="H174" s="14"/>
-      <c r="I174" s="14"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
       <c r="D175" s="27"/>
-      <c r="E175" s="29"/>
-      <c r="F175" s="26"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="25"/>
       <c r="G175" s="25"/>
-      <c r="H175" s="14"/>
-      <c r="I175" s="14"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="13"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
       <c r="D176" s="27"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="26"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="25"/>
       <c r="G176" s="25"/>
-      <c r="H176" s="14"/>
-      <c r="I176" s="14"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="25"/>
       <c r="D177" s="27"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="26"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="25"/>
       <c r="G177" s="25"/>
-      <c r="H177" s="14"/>
-      <c r="I177" s="14"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
       <c r="D178" s="27"/>
-      <c r="E178" s="29"/>
-      <c r="F178" s="26"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="25"/>
       <c r="G178" s="25"/>
-      <c r="H178" s="14"/>
-      <c r="I178" s="14"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="25"/>
       <c r="D179" s="27"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="26"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="25"/>
       <c r="G179" s="25"/>
-      <c r="H179" s="14"/>
-      <c r="I179" s="14"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="25"/>
       <c r="D180" s="27"/>
-      <c r="E180" s="29"/>
-      <c r="F180" s="26"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="25"/>
       <c r="G180" s="25"/>
-      <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="25"/>
       <c r="D181" s="27"/>
-      <c r="E181" s="29"/>
-      <c r="F181" s="26"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="25"/>
       <c r="G181" s="25"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
       <c r="D182" s="27"/>
-      <c r="E182" s="29"/>
-      <c r="F182" s="26"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="25"/>
       <c r="G182" s="25"/>
-      <c r="H182" s="14"/>
-      <c r="I182" s="14"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="13"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
       <c r="D183" s="27"/>
-      <c r="E183" s="29"/>
-      <c r="F183" s="26"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="25"/>
       <c r="G183" s="25"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="13"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="25"/>
       <c r="D184" s="27"/>
-      <c r="E184" s="29"/>
-      <c r="F184" s="26"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="25"/>
       <c r="G184" s="25"/>
-      <c r="H184" s="14"/>
-      <c r="I184" s="14"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="13"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="25"/>
       <c r="D185" s="27"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="26"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="25"/>
       <c r="G185" s="25"/>
-      <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="13"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="25"/>
       <c r="D186" s="27"/>
-      <c r="E186" s="29"/>
-      <c r="F186" s="26"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="25"/>
       <c r="G186" s="25"/>
-      <c r="H186" s="14"/>
-      <c r="I186" s="14"/>
+      <c r="H186" s="13"/>
+      <c r="I186" s="13"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
       <c r="D187" s="27"/>
-      <c r="E187" s="29"/>
-      <c r="F187" s="26"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="25"/>
       <c r="G187" s="25"/>
-      <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
+      <c r="H187" s="13"/>
+      <c r="I187" s="13"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="25"/>
       <c r="D188" s="27"/>
-      <c r="E188" s="29"/>
-      <c r="F188" s="26"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="25"/>
       <c r="G188" s="25"/>
-      <c r="H188" s="14"/>
-      <c r="I188" s="14"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="13"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="25"/>
       <c r="D189" s="27"/>
-      <c r="E189" s="29"/>
-      <c r="F189" s="26"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="25"/>
       <c r="G189" s="25"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="13"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25"/>
       <c r="D190" s="27"/>
-      <c r="E190" s="29"/>
-      <c r="F190" s="26"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="25"/>
       <c r="G190" s="25"/>
-      <c r="H190" s="14"/>
-      <c r="I190" s="14"/>
+      <c r="H190" s="13"/>
+      <c r="I190" s="13"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="25"/>
       <c r="D191" s="27"/>
-      <c r="E191" s="29"/>
-      <c r="F191" s="26"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="25"/>
       <c r="G191" s="25"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="13"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="25"/>
       <c r="D192" s="27"/>
-      <c r="E192" s="29"/>
-      <c r="F192" s="26"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="25"/>
       <c r="G192" s="25"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="14"/>
+      <c r="H192" s="13"/>
+      <c r="I192" s="13"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="25"/>
       <c r="D193" s="27"/>
-      <c r="E193" s="29"/>
-      <c r="F193" s="26"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="25"/>
       <c r="G193" s="25"/>
-      <c r="H193" s="14"/>
-      <c r="I193" s="14"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="13"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="25"/>
       <c r="D194" s="27"/>
-      <c r="E194" s="29"/>
-      <c r="F194" s="26"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="25"/>
       <c r="G194" s="25"/>
-      <c r="H194" s="14"/>
-      <c r="I194" s="14"/>
+      <c r="H194" s="13"/>
+      <c r="I194" s="13"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="25"/>
       <c r="D195" s="27"/>
-      <c r="E195" s="29"/>
-      <c r="F195" s="26"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="25"/>
       <c r="G195" s="25"/>
-      <c r="H195" s="14"/>
-      <c r="I195" s="14"/>
+      <c r="H195" s="13"/>
+      <c r="I195" s="13"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="25"/>
       <c r="D196" s="27"/>
-      <c r="E196" s="29"/>
-      <c r="F196" s="26"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="25"/>
       <c r="G196" s="25"/>
-      <c r="H196" s="14"/>
-      <c r="I196" s="14"/>
+      <c r="H196" s="13"/>
+      <c r="I196" s="13"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="25"/>
       <c r="D197" s="27"/>
-      <c r="E197" s="29"/>
-      <c r="F197" s="26"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="25"/>
       <c r="G197" s="25"/>
-      <c r="H197" s="14"/>
-      <c r="I197" s="14"/>
+      <c r="H197" s="13"/>
+      <c r="I197" s="13"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="25"/>
       <c r="D198" s="27"/>
-      <c r="E198" s="29"/>
-      <c r="F198" s="26"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="25"/>
       <c r="G198" s="25"/>
-      <c r="H198" s="14"/>
-      <c r="I198" s="14"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="25"/>
       <c r="D199" s="27"/>
-      <c r="E199" s="29"/>
-      <c r="F199" s="26"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="25"/>
       <c r="G199" s="25"/>
-      <c r="H199" s="14"/>
-      <c r="I199" s="14"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="13"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="25"/>
       <c r="D200" s="27"/>
-      <c r="E200" s="29"/>
-      <c r="F200" s="26"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="25"/>
       <c r="G200" s="25"/>
-      <c r="H200" s="22"/>
-      <c r="I200" s="22"/>
+      <c r="H200" s="21"/>
+      <c r="I200" s="21"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A201" s="35"/>
-      <c r="B201" s="35"/>
-      <c r="C201" s="35"/>
-      <c r="D201" s="36"/>
-      <c r="E201" s="37"/>
-      <c r="F201" s="38"/>
-      <c r="G201" s="41"/>
-      <c r="H201" s="14"/>
-      <c r="I201" s="14"/>
+      <c r="A201" s="32"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6504,14 +6392,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.08984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15" style="3" customWidth="1"/>
+    <col min="8" max="8" width="37.90625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -6530,125 +6420,125 @@
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="27"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="12"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="12"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="29"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="27"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="12"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="27"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="12"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="12"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="27"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="12"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="12"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="12"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="12"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="27"/>
@@ -6657,8 +6547,8 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="27"/>
@@ -6667,8 +6557,8 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
@@ -6677,8 +6567,8 @@
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
@@ -6687,8 +6577,8 @@
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="27"/>
@@ -6697,8 +6587,8 @@
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="27"/>
@@ -6707,8 +6597,8 @@
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="27"/>
@@ -6717,8 +6607,8 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="27"/>
@@ -6727,8 +6617,8 @@
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="27"/>
@@ -6737,8 +6627,8 @@
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="27"/>
@@ -6747,8 +6637,8 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="27"/>
@@ -6757,8 +6647,8 @@
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="27"/>
@@ -6767,8 +6657,8 @@
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="27"/>
@@ -6777,8 +6667,8 @@
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="27"/>
@@ -6787,8 +6677,8 @@
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="27"/>
@@ -6797,8 +6687,8 @@
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="27"/>
@@ -6807,8 +6697,8 @@
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="27"/>
@@ -6817,8 +6707,8 @@
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="27"/>
@@ -6827,8 +6717,8 @@
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="27"/>
@@ -6837,8 +6727,8 @@
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="27"/>
@@ -6847,8 +6737,8 @@
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="27"/>
@@ -6857,8 +6747,8 @@
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="27"/>
@@ -6867,8 +6757,8 @@
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="27"/>
@@ -6877,8 +6767,8 @@
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="27"/>
@@ -6887,8 +6777,8 @@
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="27"/>
@@ -6897,8 +6787,8 @@
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="27"/>
@@ -6907,8 +6797,8 @@
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="27"/>
@@ -6917,8 +6807,8 @@
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="27"/>
@@ -6927,8 +6817,8 @@
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="27"/>
@@ -6937,8 +6827,8 @@
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="12"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="27"/>
@@ -6947,8 +6837,8 @@
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="12"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="27"/>
@@ -6957,8 +6847,8 @@
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="12"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="27"/>
@@ -6967,8 +6857,8 @@
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="12"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="27"/>
@@ -6977,8 +6867,8 @@
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="12"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="27"/>
@@ -6987,8 +6877,8 @@
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="12"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="27"/>
@@ -6997,8 +6887,8 @@
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="12"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="27"/>
@@ -7007,8 +6897,8 @@
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="12"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="27"/>
@@ -7017,8 +6907,8 @@
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="12"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="27"/>
@@ -7027,8 +6917,8 @@
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="12"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="27"/>
@@ -7037,8 +6927,8 @@
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="12"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="27"/>
@@ -7047,8 +6937,8 @@
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="12"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="27"/>
@@ -7057,8 +6947,8 @@
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="12"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="27"/>
@@ -7067,8 +6957,8 @@
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="12"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="27"/>
@@ -7077,8 +6967,8 @@
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="12"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="27"/>
@@ -7087,8 +6977,8 @@
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="12"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="27"/>
@@ -7097,8 +6987,8 @@
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="12"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="27"/>
@@ -7107,8 +6997,8 @@
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="12"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="27"/>
@@ -7117,8 +7007,8 @@
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="12"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="27"/>
@@ -7127,8 +7017,8 @@
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="12"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="27"/>
@@ -7137,8 +7027,8 @@
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="12"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="27"/>
@@ -7147,8 +7037,8 @@
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="12"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="27"/>
@@ -7157,8 +7047,8 @@
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="12"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="27"/>
@@ -7167,8 +7057,8 @@
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="12"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="27"/>
@@ -7177,8 +7067,8 @@
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="12"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="27"/>
@@ -7187,8 +7077,8 @@
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="12"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="27"/>
@@ -7197,8 +7087,8 @@
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="12"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="27"/>
@@ -7207,8 +7097,8 @@
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="12"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="11"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="27"/>
@@ -7217,8 +7107,8 @@
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="12"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="27"/>
@@ -7227,8 +7117,8 @@
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="12"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="27"/>
@@ -7237,8 +7127,8 @@
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="12"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="27"/>
@@ -7247,8 +7137,8 @@
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="12"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="27"/>
@@ -7257,8 +7147,8 @@
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="12"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="11"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="27"/>
@@ -7267,8 +7157,8 @@
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="12"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="11"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="27"/>
@@ -7277,8 +7167,8 @@
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="12"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="11"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="27"/>
@@ -7287,8 +7177,8 @@
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="12"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="11"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="27"/>
@@ -7297,8 +7187,8 @@
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="12"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="27"/>
@@ -7307,8 +7197,8 @@
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="12"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="11"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="27"/>
@@ -7317,8 +7207,8 @@
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="12"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="11"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="27"/>
@@ -7327,8 +7217,8 @@
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="12"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="27"/>
@@ -7337,8 +7227,8 @@
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="12"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="27"/>
@@ -7347,8 +7237,8 @@
       <c r="D82" s="25"/>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="12"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="27"/>
@@ -7357,8 +7247,8 @@
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="12"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="11"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="27"/>
@@ -7367,8 +7257,8 @@
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="12"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="11"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="27"/>
@@ -7377,8 +7267,8 @@
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="12"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="11"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="27"/>
@@ -7387,8 +7277,8 @@
       <c r="D86" s="25"/>
       <c r="E86" s="25"/>
       <c r="F86" s="25"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="12"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="11"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="27"/>
@@ -7397,8 +7287,8 @@
       <c r="D87" s="25"/>
       <c r="E87" s="25"/>
       <c r="F87" s="25"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="12"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="11"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="27"/>
@@ -7407,8 +7297,8 @@
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="12"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="11"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="27"/>
@@ -7417,8 +7307,8 @@
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="12"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="11"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="27"/>
@@ -7427,8 +7317,8 @@
       <c r="D90" s="25"/>
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="12"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="11"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="27"/>
@@ -7437,8 +7327,8 @@
       <c r="D91" s="25"/>
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="12"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="11"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="27"/>
@@ -7447,8 +7337,8 @@
       <c r="D92" s="25"/>
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="12"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="11"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="27"/>
@@ -7457,8 +7347,8 @@
       <c r="D93" s="25"/>
       <c r="E93" s="25"/>
       <c r="F93" s="25"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="12"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="11"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="27"/>
@@ -7467,8 +7357,8 @@
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="12"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="11"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="27"/>
@@ -7477,8 +7367,8 @@
       <c r="D95" s="25"/>
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="12"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="11"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="27"/>
@@ -7487,8 +7377,8 @@
       <c r="D96" s="25"/>
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="12"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="27"/>
@@ -7497,8 +7387,8 @@
       <c r="D97" s="25"/>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="12"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="27"/>
@@ -7507,8 +7397,8 @@
       <c r="D98" s="25"/>
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="12"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="27"/>
@@ -7517,8 +7407,8 @@
       <c r="D99" s="25"/>
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="12"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="11"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="27"/>
@@ -7527,8 +7417,8 @@
       <c r="D100" s="25"/>
       <c r="E100" s="25"/>
       <c r="F100" s="25"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="12"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="11"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="27"/>
@@ -7537,8 +7427,8 @@
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
       <c r="F101" s="25"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="12"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="11"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="27"/>
@@ -7547,8 +7437,8 @@
       <c r="D102" s="25"/>
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="12"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="27"/>
@@ -7557,8 +7447,8 @@
       <c r="D103" s="25"/>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="12"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="11"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="27"/>
@@ -7567,8 +7457,8 @@
       <c r="D104" s="25"/>
       <c r="E104" s="25"/>
       <c r="F104" s="25"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="12"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="11"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="27"/>
@@ -7577,8 +7467,8 @@
       <c r="D105" s="25"/>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="12"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="11"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="27"/>
@@ -7587,8 +7477,8 @@
       <c r="D106" s="25"/>
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="12"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="11"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="27"/>
@@ -7597,8 +7487,8 @@
       <c r="D107" s="25"/>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="12"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="11"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="27"/>
@@ -7607,8 +7497,8 @@
       <c r="D108" s="25"/>
       <c r="E108" s="25"/>
       <c r="F108" s="25"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="12"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="27"/>
@@ -7617,8 +7507,8 @@
       <c r="D109" s="25"/>
       <c r="E109" s="25"/>
       <c r="F109" s="25"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="12"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="11"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="27"/>
@@ -7627,8 +7517,8 @@
       <c r="D110" s="25"/>
       <c r="E110" s="25"/>
       <c r="F110" s="25"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="12"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="11"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="27"/>
@@ -7637,8 +7527,8 @@
       <c r="D111" s="25"/>
       <c r="E111" s="25"/>
       <c r="F111" s="25"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="12"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="11"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="27"/>
@@ -7647,8 +7537,8 @@
       <c r="D112" s="25"/>
       <c r="E112" s="25"/>
       <c r="F112" s="25"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="12"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="11"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="27"/>
@@ -7657,8 +7547,8 @@
       <c r="D113" s="25"/>
       <c r="E113" s="25"/>
       <c r="F113" s="25"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="12"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="11"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="27"/>
@@ -7667,8 +7557,8 @@
       <c r="D114" s="25"/>
       <c r="E114" s="25"/>
       <c r="F114" s="25"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="12"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="11"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="27"/>
@@ -7677,8 +7567,8 @@
       <c r="D115" s="25"/>
       <c r="E115" s="25"/>
       <c r="F115" s="25"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="12"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="11"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="27"/>
@@ -7687,8 +7577,8 @@
       <c r="D116" s="25"/>
       <c r="E116" s="25"/>
       <c r="F116" s="25"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="12"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="11"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="27"/>
@@ -7697,8 +7587,8 @@
       <c r="D117" s="25"/>
       <c r="E117" s="25"/>
       <c r="F117" s="25"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="12"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="11"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="27"/>
@@ -7707,8 +7597,8 @@
       <c r="D118" s="25"/>
       <c r="E118" s="25"/>
       <c r="F118" s="25"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="12"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="11"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="27"/>
@@ -7717,8 +7607,8 @@
       <c r="D119" s="25"/>
       <c r="E119" s="25"/>
       <c r="F119" s="25"/>
-      <c r="G119" s="26"/>
-      <c r="H119" s="12"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="11"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="27"/>
@@ -7727,8 +7617,8 @@
       <c r="D120" s="25"/>
       <c r="E120" s="25"/>
       <c r="F120" s="25"/>
-      <c r="G120" s="26"/>
-      <c r="H120" s="12"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="11"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="27"/>
@@ -7737,8 +7627,8 @@
       <c r="D121" s="25"/>
       <c r="E121" s="25"/>
       <c r="F121" s="25"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="12"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="11"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="27"/>
@@ -7747,8 +7637,8 @@
       <c r="D122" s="25"/>
       <c r="E122" s="25"/>
       <c r="F122" s="25"/>
-      <c r="G122" s="26"/>
-      <c r="H122" s="12"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="11"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="27"/>
@@ -7757,8 +7647,8 @@
       <c r="D123" s="25"/>
       <c r="E123" s="25"/>
       <c r="F123" s="25"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="12"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="11"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="27"/>
@@ -7767,8 +7657,8 @@
       <c r="D124" s="25"/>
       <c r="E124" s="25"/>
       <c r="F124" s="25"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="12"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="11"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="27"/>
@@ -7777,8 +7667,8 @@
       <c r="D125" s="25"/>
       <c r="E125" s="25"/>
       <c r="F125" s="25"/>
-      <c r="G125" s="26"/>
-      <c r="H125" s="12"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="11"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="27"/>
@@ -7787,8 +7677,8 @@
       <c r="D126" s="25"/>
       <c r="E126" s="25"/>
       <c r="F126" s="25"/>
-      <c r="G126" s="26"/>
-      <c r="H126" s="12"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="11"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="27"/>
@@ -7797,8 +7687,8 @@
       <c r="D127" s="25"/>
       <c r="E127" s="25"/>
       <c r="F127" s="25"/>
-      <c r="G127" s="26"/>
-      <c r="H127" s="12"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="11"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="27"/>
@@ -7807,8 +7697,8 @@
       <c r="D128" s="25"/>
       <c r="E128" s="25"/>
       <c r="F128" s="25"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="12"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="11"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="27"/>
@@ -7817,8 +7707,8 @@
       <c r="D129" s="25"/>
       <c r="E129" s="25"/>
       <c r="F129" s="25"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="12"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="11"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="27"/>
@@ -7827,8 +7717,8 @@
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
       <c r="F130" s="25"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="12"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="11"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="27"/>
@@ -7837,8 +7727,8 @@
       <c r="D131" s="25"/>
       <c r="E131" s="25"/>
       <c r="F131" s="25"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="12"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="11"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="27"/>
@@ -7847,8 +7737,8 @@
       <c r="D132" s="25"/>
       <c r="E132" s="25"/>
       <c r="F132" s="25"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="12"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="11"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="27"/>
@@ -7857,8 +7747,8 @@
       <c r="D133" s="25"/>
       <c r="E133" s="25"/>
       <c r="F133" s="25"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="12"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="11"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="27"/>
@@ -7867,8 +7757,8 @@
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
       <c r="F134" s="25"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="12"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="11"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="27"/>
@@ -7877,8 +7767,8 @@
       <c r="D135" s="25"/>
       <c r="E135" s="25"/>
       <c r="F135" s="25"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="12"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="11"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="27"/>
@@ -7887,8 +7777,8 @@
       <c r="D136" s="25"/>
       <c r="E136" s="25"/>
       <c r="F136" s="25"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="12"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="11"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="27"/>
@@ -7897,8 +7787,8 @@
       <c r="D137" s="25"/>
       <c r="E137" s="25"/>
       <c r="F137" s="25"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="12"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="11"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="27"/>
@@ -7907,8 +7797,8 @@
       <c r="D138" s="25"/>
       <c r="E138" s="25"/>
       <c r="F138" s="25"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="12"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="11"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="27"/>
@@ -7917,8 +7807,8 @@
       <c r="D139" s="25"/>
       <c r="E139" s="25"/>
       <c r="F139" s="25"/>
-      <c r="G139" s="26"/>
-      <c r="H139" s="12"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="11"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="27"/>
@@ -7927,8 +7817,8 @@
       <c r="D140" s="25"/>
       <c r="E140" s="25"/>
       <c r="F140" s="25"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="12"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="11"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="27"/>
@@ -7937,8 +7827,8 @@
       <c r="D141" s="25"/>
       <c r="E141" s="25"/>
       <c r="F141" s="25"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="12"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="11"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="27"/>
@@ -7947,8 +7837,8 @@
       <c r="D142" s="25"/>
       <c r="E142" s="25"/>
       <c r="F142" s="25"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="12"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="11"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="27"/>
@@ -7957,8 +7847,8 @@
       <c r="D143" s="25"/>
       <c r="E143" s="25"/>
       <c r="F143" s="25"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="12"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="11"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="27"/>
@@ -7967,8 +7857,8 @@
       <c r="D144" s="25"/>
       <c r="E144" s="25"/>
       <c r="F144" s="25"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="12"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="11"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="27"/>
@@ -7977,8 +7867,8 @@
       <c r="D145" s="25"/>
       <c r="E145" s="25"/>
       <c r="F145" s="25"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="12"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="11"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="27"/>
@@ -7987,8 +7877,8 @@
       <c r="D146" s="25"/>
       <c r="E146" s="25"/>
       <c r="F146" s="25"/>
-      <c r="G146" s="26"/>
-      <c r="H146" s="12"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="11"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="27"/>
@@ -7997,8 +7887,8 @@
       <c r="D147" s="25"/>
       <c r="E147" s="25"/>
       <c r="F147" s="25"/>
-      <c r="G147" s="26"/>
-      <c r="H147" s="12"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="11"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="27"/>
@@ -8007,8 +7897,8 @@
       <c r="D148" s="25"/>
       <c r="E148" s="25"/>
       <c r="F148" s="25"/>
-      <c r="G148" s="26"/>
-      <c r="H148" s="12"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="11"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="27"/>
@@ -8017,8 +7907,8 @@
       <c r="D149" s="25"/>
       <c r="E149" s="25"/>
       <c r="F149" s="25"/>
-      <c r="G149" s="26"/>
-      <c r="H149" s="12"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="11"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="27"/>
@@ -8027,8 +7917,8 @@
       <c r="D150" s="25"/>
       <c r="E150" s="25"/>
       <c r="F150" s="25"/>
-      <c r="G150" s="26"/>
-      <c r="H150" s="12"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="11"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="27"/>
@@ -8037,8 +7927,8 @@
       <c r="D151" s="25"/>
       <c r="E151" s="25"/>
       <c r="F151" s="25"/>
-      <c r="G151" s="26"/>
-      <c r="H151" s="12"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="11"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="27"/>
@@ -8047,8 +7937,8 @@
       <c r="D152" s="25"/>
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
-      <c r="G152" s="26"/>
-      <c r="H152" s="12"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="11"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="27"/>
@@ -8057,8 +7947,8 @@
       <c r="D153" s="25"/>
       <c r="E153" s="25"/>
       <c r="F153" s="25"/>
-      <c r="G153" s="26"/>
-      <c r="H153" s="12"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="11"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="27"/>
@@ -8067,8 +7957,8 @@
       <c r="D154" s="25"/>
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
-      <c r="G154" s="26"/>
-      <c r="H154" s="12"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="11"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="27"/>
@@ -8077,8 +7967,8 @@
       <c r="D155" s="25"/>
       <c r="E155" s="25"/>
       <c r="F155" s="25"/>
-      <c r="G155" s="26"/>
-      <c r="H155" s="12"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="11"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="27"/>
@@ -8087,8 +7977,8 @@
       <c r="D156" s="25"/>
       <c r="E156" s="25"/>
       <c r="F156" s="25"/>
-      <c r="G156" s="26"/>
-      <c r="H156" s="12"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="11"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="27"/>
@@ -8097,8 +7987,8 @@
       <c r="D157" s="25"/>
       <c r="E157" s="25"/>
       <c r="F157" s="25"/>
-      <c r="G157" s="26"/>
-      <c r="H157" s="12"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="11"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="27"/>
@@ -8107,8 +7997,8 @@
       <c r="D158" s="25"/>
       <c r="E158" s="25"/>
       <c r="F158" s="25"/>
-      <c r="G158" s="26"/>
-      <c r="H158" s="12"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="11"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="27"/>
@@ -8117,8 +8007,8 @@
       <c r="D159" s="25"/>
       <c r="E159" s="25"/>
       <c r="F159" s="25"/>
-      <c r="G159" s="26"/>
-      <c r="H159" s="12"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="11"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="27"/>
@@ -8127,8 +8017,8 @@
       <c r="D160" s="25"/>
       <c r="E160" s="25"/>
       <c r="F160" s="25"/>
-      <c r="G160" s="26"/>
-      <c r="H160" s="12"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="11"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="27"/>
@@ -8137,8 +8027,8 @@
       <c r="D161" s="25"/>
       <c r="E161" s="25"/>
       <c r="F161" s="25"/>
-      <c r="G161" s="26"/>
-      <c r="H161" s="12"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="11"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="27"/>
@@ -8147,8 +8037,8 @@
       <c r="D162" s="25"/>
       <c r="E162" s="25"/>
       <c r="F162" s="25"/>
-      <c r="G162" s="26"/>
-      <c r="H162" s="12"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="11"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="27"/>
@@ -8157,8 +8047,8 @@
       <c r="D163" s="25"/>
       <c r="E163" s="25"/>
       <c r="F163" s="25"/>
-      <c r="G163" s="26"/>
-      <c r="H163" s="12"/>
+      <c r="G163" s="25"/>
+      <c r="H163" s="11"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="27"/>
@@ -8167,8 +8057,8 @@
       <c r="D164" s="25"/>
       <c r="E164" s="25"/>
       <c r="F164" s="25"/>
-      <c r="G164" s="26"/>
-      <c r="H164" s="12"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="11"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="27"/>
@@ -8177,8 +8067,8 @@
       <c r="D165" s="25"/>
       <c r="E165" s="25"/>
       <c r="F165" s="25"/>
-      <c r="G165" s="26"/>
-      <c r="H165" s="12"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="11"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="27"/>
@@ -8187,8 +8077,8 @@
       <c r="D166" s="25"/>
       <c r="E166" s="25"/>
       <c r="F166" s="25"/>
-      <c r="G166" s="26"/>
-      <c r="H166" s="12"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="11"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="27"/>
@@ -8197,8 +8087,8 @@
       <c r="D167" s="25"/>
       <c r="E167" s="25"/>
       <c r="F167" s="25"/>
-      <c r="G167" s="26"/>
-      <c r="H167" s="12"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="11"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="27"/>
@@ -8207,8 +8097,8 @@
       <c r="D168" s="25"/>
       <c r="E168" s="25"/>
       <c r="F168" s="25"/>
-      <c r="G168" s="26"/>
-      <c r="H168" s="12"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="11"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="27"/>
@@ -8217,8 +8107,8 @@
       <c r="D169" s="25"/>
       <c r="E169" s="25"/>
       <c r="F169" s="25"/>
-      <c r="G169" s="26"/>
-      <c r="H169" s="12"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="11"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="27"/>
@@ -8227,8 +8117,8 @@
       <c r="D170" s="25"/>
       <c r="E170" s="25"/>
       <c r="F170" s="25"/>
-      <c r="G170" s="26"/>
-      <c r="H170" s="12"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="11"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="27"/>
@@ -8237,8 +8127,8 @@
       <c r="D171" s="25"/>
       <c r="E171" s="25"/>
       <c r="F171" s="25"/>
-      <c r="G171" s="26"/>
-      <c r="H171" s="12"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="11"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="27"/>
@@ -8247,8 +8137,8 @@
       <c r="D172" s="25"/>
       <c r="E172" s="25"/>
       <c r="F172" s="25"/>
-      <c r="G172" s="26"/>
-      <c r="H172" s="12"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="11"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="27"/>
@@ -8257,8 +8147,8 @@
       <c r="D173" s="25"/>
       <c r="E173" s="25"/>
       <c r="F173" s="25"/>
-      <c r="G173" s="26"/>
-      <c r="H173" s="12"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="11"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="27"/>
@@ -8267,8 +8157,8 @@
       <c r="D174" s="25"/>
       <c r="E174" s="25"/>
       <c r="F174" s="25"/>
-      <c r="G174" s="26"/>
-      <c r="H174" s="12"/>
+      <c r="G174" s="25"/>
+      <c r="H174" s="11"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="27"/>
@@ -8277,8 +8167,8 @@
       <c r="D175" s="25"/>
       <c r="E175" s="25"/>
       <c r="F175" s="25"/>
-      <c r="G175" s="26"/>
-      <c r="H175" s="12"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="11"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="27"/>
@@ -8287,8 +8177,8 @@
       <c r="D176" s="25"/>
       <c r="E176" s="25"/>
       <c r="F176" s="25"/>
-      <c r="G176" s="26"/>
-      <c r="H176" s="12"/>
+      <c r="G176" s="25"/>
+      <c r="H176" s="11"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="27"/>
@@ -8297,8 +8187,8 @@
       <c r="D177" s="25"/>
       <c r="E177" s="25"/>
       <c r="F177" s="25"/>
-      <c r="G177" s="26"/>
-      <c r="H177" s="12"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="11"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="27"/>
@@ -8307,8 +8197,8 @@
       <c r="D178" s="25"/>
       <c r="E178" s="25"/>
       <c r="F178" s="25"/>
-      <c r="G178" s="26"/>
-      <c r="H178" s="12"/>
+      <c r="G178" s="25"/>
+      <c r="H178" s="11"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="27"/>
@@ -8317,8 +8207,8 @@
       <c r="D179" s="25"/>
       <c r="E179" s="25"/>
       <c r="F179" s="25"/>
-      <c r="G179" s="26"/>
-      <c r="H179" s="12"/>
+      <c r="G179" s="25"/>
+      <c r="H179" s="11"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="27"/>
@@ -8327,8 +8217,8 @@
       <c r="D180" s="25"/>
       <c r="E180" s="25"/>
       <c r="F180" s="25"/>
-      <c r="G180" s="26"/>
-      <c r="H180" s="12"/>
+      <c r="G180" s="25"/>
+      <c r="H180" s="11"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="27"/>
@@ -8337,8 +8227,8 @@
       <c r="D181" s="25"/>
       <c r="E181" s="25"/>
       <c r="F181" s="25"/>
-      <c r="G181" s="26"/>
-      <c r="H181" s="12"/>
+      <c r="G181" s="25"/>
+      <c r="H181" s="11"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="27"/>
@@ -8347,8 +8237,8 @@
       <c r="D182" s="25"/>
       <c r="E182" s="25"/>
       <c r="F182" s="25"/>
-      <c r="G182" s="26"/>
-      <c r="H182" s="12"/>
+      <c r="G182" s="25"/>
+      <c r="H182" s="11"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="27"/>
@@ -8357,8 +8247,8 @@
       <c r="D183" s="25"/>
       <c r="E183" s="25"/>
       <c r="F183" s="25"/>
-      <c r="G183" s="26"/>
-      <c r="H183" s="12"/>
+      <c r="G183" s="25"/>
+      <c r="H183" s="11"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="27"/>
@@ -8367,8 +8257,8 @@
       <c r="D184" s="25"/>
       <c r="E184" s="25"/>
       <c r="F184" s="25"/>
-      <c r="G184" s="26"/>
-      <c r="H184" s="12"/>
+      <c r="G184" s="25"/>
+      <c r="H184" s="11"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="27"/>
@@ -8377,8 +8267,8 @@
       <c r="D185" s="25"/>
       <c r="E185" s="25"/>
       <c r="F185" s="25"/>
-      <c r="G185" s="26"/>
-      <c r="H185" s="12"/>
+      <c r="G185" s="25"/>
+      <c r="H185" s="11"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="27"/>
@@ -8387,8 +8277,8 @@
       <c r="D186" s="25"/>
       <c r="E186" s="25"/>
       <c r="F186" s="25"/>
-      <c r="G186" s="26"/>
-      <c r="H186" s="12"/>
+      <c r="G186" s="25"/>
+      <c r="H186" s="11"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="27"/>
@@ -8397,8 +8287,8 @@
       <c r="D187" s="25"/>
       <c r="E187" s="25"/>
       <c r="F187" s="25"/>
-      <c r="G187" s="26"/>
-      <c r="H187" s="12"/>
+      <c r="G187" s="25"/>
+      <c r="H187" s="11"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="27"/>
@@ -8407,8 +8297,8 @@
       <c r="D188" s="25"/>
       <c r="E188" s="25"/>
       <c r="F188" s="25"/>
-      <c r="G188" s="26"/>
-      <c r="H188" s="12"/>
+      <c r="G188" s="25"/>
+      <c r="H188" s="11"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="27"/>
@@ -8417,8 +8307,8 @@
       <c r="D189" s="25"/>
       <c r="E189" s="25"/>
       <c r="F189" s="25"/>
-      <c r="G189" s="26"/>
-      <c r="H189" s="12"/>
+      <c r="G189" s="25"/>
+      <c r="H189" s="11"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="27"/>
@@ -8427,8 +8317,8 @@
       <c r="D190" s="25"/>
       <c r="E190" s="25"/>
       <c r="F190" s="25"/>
-      <c r="G190" s="26"/>
-      <c r="H190" s="12"/>
+      <c r="G190" s="25"/>
+      <c r="H190" s="11"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="27"/>
@@ -8437,8 +8327,8 @@
       <c r="D191" s="25"/>
       <c r="E191" s="25"/>
       <c r="F191" s="25"/>
-      <c r="G191" s="26"/>
-      <c r="H191" s="12"/>
+      <c r="G191" s="25"/>
+      <c r="H191" s="11"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="27"/>
@@ -8447,8 +8337,8 @@
       <c r="D192" s="25"/>
       <c r="E192" s="25"/>
       <c r="F192" s="25"/>
-      <c r="G192" s="26"/>
-      <c r="H192" s="12"/>
+      <c r="G192" s="25"/>
+      <c r="H192" s="11"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="27"/>
@@ -8457,8 +8347,8 @@
       <c r="D193" s="25"/>
       <c r="E193" s="25"/>
       <c r="F193" s="25"/>
-      <c r="G193" s="26"/>
-      <c r="H193" s="12"/>
+      <c r="G193" s="25"/>
+      <c r="H193" s="11"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="27"/>
@@ -8467,8 +8357,8 @@
       <c r="D194" s="25"/>
       <c r="E194" s="25"/>
       <c r="F194" s="25"/>
-      <c r="G194" s="26"/>
-      <c r="H194" s="12"/>
+      <c r="G194" s="25"/>
+      <c r="H194" s="11"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="27"/>
@@ -8477,8 +8367,8 @@
       <c r="D195" s="25"/>
       <c r="E195" s="25"/>
       <c r="F195" s="25"/>
-      <c r="G195" s="26"/>
-      <c r="H195" s="12"/>
+      <c r="G195" s="25"/>
+      <c r="H195" s="11"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="27"/>
@@ -8487,8 +8377,8 @@
       <c r="D196" s="25"/>
       <c r="E196" s="25"/>
       <c r="F196" s="25"/>
-      <c r="G196" s="26"/>
-      <c r="H196" s="12"/>
+      <c r="G196" s="25"/>
+      <c r="H196" s="11"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="27"/>
@@ -8497,8 +8387,8 @@
       <c r="D197" s="25"/>
       <c r="E197" s="25"/>
       <c r="F197" s="25"/>
-      <c r="G197" s="26"/>
-      <c r="H197" s="12"/>
+      <c r="G197" s="25"/>
+      <c r="H197" s="11"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="27"/>
@@ -8507,8 +8397,8 @@
       <c r="D198" s="25"/>
       <c r="E198" s="25"/>
       <c r="F198" s="25"/>
-      <c r="G198" s="26"/>
-      <c r="H198" s="12"/>
+      <c r="G198" s="25"/>
+      <c r="H198" s="11"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="27"/>
@@ -8517,8 +8407,8 @@
       <c r="D199" s="25"/>
       <c r="E199" s="25"/>
       <c r="F199" s="25"/>
-      <c r="G199" s="26"/>
-      <c r="H199" s="12"/>
+      <c r="G199" s="25"/>
+      <c r="H199" s="11"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="27"/>
@@ -8527,18 +8417,18 @@
       <c r="D200" s="25"/>
       <c r="E200" s="25"/>
       <c r="F200" s="25"/>
-      <c r="G200" s="26"/>
-      <c r="H200" s="12"/>
+      <c r="G200" s="25"/>
+      <c r="H200" s="11"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="36"/>
-      <c r="B201" s="36"/>
-      <c r="C201" s="35"/>
-      <c r="D201" s="35"/>
-      <c r="E201" s="35"/>
-      <c r="F201" s="35"/>
-      <c r="G201" s="42"/>
-      <c r="H201" s="12"/>
+      <c r="A201" s="31"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -8567,10 +8457,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.36328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.7265625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -8583,1412 +8475,1412 @@
       <c r="C1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="27"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="14"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="27"/>
-      <c r="B3" s="29"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="27"/>
-      <c r="B4" s="29"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="27"/>
-      <c r="B5" s="29"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="14"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="14"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="14"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="14"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="14"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="14"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="14"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="14"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="14"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="14"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="14"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="14"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="14"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="14"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="14"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="14"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="14"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="14"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="14"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="14"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="14"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="14"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="14"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="14"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="14"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="14"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="14"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="14"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="14"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="14"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="14"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="14"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="14"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="14"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="14"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="14"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="14"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="14"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="14"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="14"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="14"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="14"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="14"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="14"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="14"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="14"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="14"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="14"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="14"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="14"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="14"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="14"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="14"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="14"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="14"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="14"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="14"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="14"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="14"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="14"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="14"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="14"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="14"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="14"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="14"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="14"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="14"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="13"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="14"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="13"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="14"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="13"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="14"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="14"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="14"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="14"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="14"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="14"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
-      <c r="E102" s="14"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
-      <c r="E103" s="14"/>
+      <c r="E103" s="13"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
-      <c r="E104" s="14"/>
+      <c r="E104" s="13"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
-      <c r="E105" s="14"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
-      <c r="E106" s="14"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
-      <c r="E107" s="14"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
-      <c r="E108" s="14"/>
+      <c r="E108" s="13"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
       <c r="D109" s="25"/>
-      <c r="E109" s="14"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
       <c r="D110" s="25"/>
-      <c r="E110" s="14"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
-      <c r="E111" s="14"/>
+      <c r="E111" s="13"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
-      <c r="E112" s="14"/>
+      <c r="E112" s="13"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
-      <c r="E113" s="14"/>
+      <c r="E113" s="13"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="25"/>
       <c r="D114" s="25"/>
-      <c r="E114" s="14"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="25"/>
       <c r="D115" s="25"/>
-      <c r="E115" s="14"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="25"/>
       <c r="D116" s="25"/>
-      <c r="E116" s="14"/>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="25"/>
       <c r="D117" s="25"/>
-      <c r="E117" s="14"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
-      <c r="E118" s="14"/>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
       <c r="D119" s="25"/>
-      <c r="E119" s="14"/>
+      <c r="E119" s="13"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
       <c r="D120" s="25"/>
-      <c r="E120" s="14"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="25"/>
       <c r="D121" s="25"/>
-      <c r="E121" s="14"/>
+      <c r="E121" s="13"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
       <c r="D122" s="25"/>
-      <c r="E122" s="14"/>
+      <c r="E122" s="13"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
       <c r="D123" s="25"/>
-      <c r="E123" s="14"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
       <c r="D124" s="25"/>
-      <c r="E124" s="14"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
       <c r="D125" s="25"/>
-      <c r="E125" s="14"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
       <c r="D126" s="25"/>
-      <c r="E126" s="14"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
       <c r="D127" s="25"/>
-      <c r="E127" s="14"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
       <c r="D128" s="25"/>
-      <c r="E128" s="14"/>
+      <c r="E128" s="13"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
-      <c r="E129" s="14"/>
+      <c r="E129" s="13"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
-      <c r="E130" s="14"/>
+      <c r="E130" s="13"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
-      <c r="E131" s="14"/>
+      <c r="E131" s="13"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
       <c r="D132" s="25"/>
-      <c r="E132" s="14"/>
+      <c r="E132" s="13"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
       <c r="D133" s="25"/>
-      <c r="E133" s="14"/>
+      <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
       <c r="D134" s="25"/>
-      <c r="E134" s="14"/>
+      <c r="E134" s="13"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
       <c r="D135" s="25"/>
-      <c r="E135" s="14"/>
+      <c r="E135" s="13"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="25"/>
       <c r="D136" s="25"/>
-      <c r="E136" s="14"/>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
       <c r="D137" s="25"/>
-      <c r="E137" s="14"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
       <c r="D138" s="25"/>
-      <c r="E138" s="14"/>
+      <c r="E138" s="13"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
       <c r="D139" s="25"/>
-      <c r="E139" s="14"/>
+      <c r="E139" s="13"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
-      <c r="E140" s="14"/>
+      <c r="E140" s="13"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
-      <c r="E141" s="14"/>
+      <c r="E141" s="13"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
-      <c r="E142" s="14"/>
+      <c r="E142" s="13"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
-      <c r="E143" s="14"/>
+      <c r="E143" s="13"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="25"/>
       <c r="D144" s="25"/>
-      <c r="E144" s="14"/>
+      <c r="E144" s="13"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="25"/>
       <c r="D145" s="25"/>
-      <c r="E145" s="14"/>
+      <c r="E145" s="13"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
       <c r="D146" s="25"/>
-      <c r="E146" s="14"/>
+      <c r="E146" s="13"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="25"/>
       <c r="D147" s="25"/>
-      <c r="E147" s="14"/>
+      <c r="E147" s="13"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
       <c r="D148" s="25"/>
-      <c r="E148" s="14"/>
+      <c r="E148" s="13"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
       <c r="D149" s="25"/>
-      <c r="E149" s="14"/>
+      <c r="E149" s="13"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
-      <c r="E150" s="14"/>
+      <c r="E150" s="13"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="25"/>
       <c r="D151" s="25"/>
-      <c r="E151" s="14"/>
+      <c r="E151" s="13"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="25"/>
       <c r="D152" s="25"/>
-      <c r="E152" s="14"/>
+      <c r="E152" s="13"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
       <c r="D153" s="25"/>
-      <c r="E153" s="14"/>
+      <c r="E153" s="13"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
       <c r="D154" s="25"/>
-      <c r="E154" s="14"/>
+      <c r="E154" s="13"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="25"/>
       <c r="D155" s="25"/>
-      <c r="E155" s="14"/>
+      <c r="E155" s="13"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="25"/>
       <c r="D156" s="25"/>
-      <c r="E156" s="14"/>
+      <c r="E156" s="13"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="25"/>
       <c r="D157" s="25"/>
-      <c r="E157" s="14"/>
+      <c r="E157" s="13"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
       <c r="D158" s="25"/>
-      <c r="E158" s="14"/>
+      <c r="E158" s="13"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="25"/>
       <c r="D159" s="25"/>
-      <c r="E159" s="14"/>
+      <c r="E159" s="13"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
       <c r="D160" s="25"/>
-      <c r="E160" s="14"/>
+      <c r="E160" s="13"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="25"/>
       <c r="D161" s="25"/>
-      <c r="E161" s="14"/>
+      <c r="E161" s="13"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
       <c r="D162" s="25"/>
-      <c r="E162" s="14"/>
+      <c r="E162" s="13"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
       <c r="D163" s="25"/>
-      <c r="E163" s="14"/>
+      <c r="E163" s="13"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
       <c r="D164" s="25"/>
-      <c r="E164" s="14"/>
+      <c r="E164" s="13"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="25"/>
       <c r="D165" s="25"/>
-      <c r="E165" s="14"/>
+      <c r="E165" s="13"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="25"/>
       <c r="D166" s="25"/>
-      <c r="E166" s="14"/>
+      <c r="E166" s="13"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
       <c r="D167" s="25"/>
-      <c r="E167" s="14"/>
+      <c r="E167" s="13"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
       <c r="D168" s="25"/>
-      <c r="E168" s="14"/>
+      <c r="E168" s="13"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="25"/>
       <c r="D169" s="25"/>
-      <c r="E169" s="14"/>
+      <c r="E169" s="13"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="25"/>
       <c r="D170" s="25"/>
-      <c r="E170" s="14"/>
+      <c r="E170" s="13"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="25"/>
       <c r="D171" s="25"/>
-      <c r="E171" s="14"/>
+      <c r="E171" s="13"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="25"/>
       <c r="D172" s="25"/>
-      <c r="E172" s="14"/>
+      <c r="E172" s="13"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="25"/>
       <c r="D173" s="25"/>
-      <c r="E173" s="14"/>
+      <c r="E173" s="13"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
       <c r="D174" s="25"/>
-      <c r="E174" s="14"/>
+      <c r="E174" s="13"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
       <c r="D175" s="25"/>
-      <c r="E175" s="14"/>
+      <c r="E175" s="13"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
       <c r="D176" s="25"/>
-      <c r="E176" s="14"/>
+      <c r="E176" s="13"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="25"/>
       <c r="D177" s="25"/>
-      <c r="E177" s="14"/>
+      <c r="E177" s="13"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
       <c r="D178" s="25"/>
-      <c r="E178" s="14"/>
+      <c r="E178" s="13"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="25"/>
       <c r="D179" s="25"/>
-      <c r="E179" s="14"/>
+      <c r="E179" s="13"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="25"/>
       <c r="D180" s="25"/>
-      <c r="E180" s="14"/>
+      <c r="E180" s="13"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="25"/>
       <c r="D181" s="25"/>
-      <c r="E181" s="14"/>
+      <c r="E181" s="13"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
       <c r="D182" s="25"/>
-      <c r="E182" s="14"/>
+      <c r="E182" s="13"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
       <c r="D183" s="25"/>
-      <c r="E183" s="14"/>
+      <c r="E183" s="13"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="25"/>
       <c r="D184" s="25"/>
-      <c r="E184" s="14"/>
+      <c r="E184" s="13"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="25"/>
       <c r="D185" s="25"/>
-      <c r="E185" s="14"/>
+      <c r="E185" s="13"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="25"/>
       <c r="D186" s="25"/>
-      <c r="E186" s="14"/>
+      <c r="E186" s="13"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
       <c r="D187" s="25"/>
-      <c r="E187" s="14"/>
+      <c r="E187" s="13"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="25"/>
       <c r="D188" s="25"/>
-      <c r="E188" s="14"/>
+      <c r="E188" s="13"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="25"/>
       <c r="D189" s="25"/>
-      <c r="E189" s="14"/>
+      <c r="E189" s="13"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25"/>
       <c r="D190" s="25"/>
-      <c r="E190" s="14"/>
+      <c r="E190" s="13"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="25"/>
       <c r="D191" s="25"/>
-      <c r="E191" s="14"/>
+      <c r="E191" s="13"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="25"/>
       <c r="D192" s="25"/>
-      <c r="E192" s="14"/>
+      <c r="E192" s="13"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="25"/>
       <c r="D193" s="25"/>
-      <c r="E193" s="14"/>
+      <c r="E193" s="13"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="25"/>
       <c r="D194" s="25"/>
-      <c r="E194" s="14"/>
+      <c r="E194" s="13"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="25"/>
       <c r="D195" s="25"/>
-      <c r="E195" s="14"/>
+      <c r="E195" s="13"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="25"/>
       <c r="D196" s="25"/>
-      <c r="E196" s="14"/>
+      <c r="E196" s="13"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="25"/>
       <c r="D197" s="25"/>
-      <c r="E197" s="14"/>
+      <c r="E197" s="13"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="25"/>
       <c r="D198" s="25"/>
-      <c r="E198" s="14"/>
+      <c r="E198" s="13"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="25"/>
       <c r="D199" s="25"/>
-      <c r="E199" s="14"/>
+      <c r="E199" s="13"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="25"/>
       <c r="D200" s="25"/>
-      <c r="E200" s="14"/>
+      <c r="E200" s="13"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" s="35"/>
-      <c r="B201" s="35"/>
-      <c r="C201" s="35"/>
-      <c r="D201" s="41"/>
-      <c r="E201" s="14"/>
+      <c r="A201" s="32"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF87C26-22D5-40A4-BBE7-5BE8A9EA1D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADA94CE-121A-4706-9926-8EBDD311722C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,12 +380,6 @@
   </cellStyles>
   <dxfs count="43">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -514,15 +508,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -710,7 +696,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -912,6 +906,12 @@
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1315,49 +1315,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="ホスティングの種類" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ロボット名" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="マシン名" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ロボットの種類" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="クラシックフォルダー名" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="ホスティングの種類" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ロボット名" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="マシン名" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ロボットの種類" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="クラシックフォルダー名" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="クラシックフォルダー名" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="ロボットID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="ロボットの種類" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ユーザー名" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="結果" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="クラシックフォルダー名" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="ロボットID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="ロボットの種類" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ユーザー名" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="結果" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="クラシックフォルダーID" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="クラシックフォルダー名" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ロボット名" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="クラシックフォルダーID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="クラシックフォルダー名" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ロボット名" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4086,7 +4086,7 @@
       <c r="J201" s="24"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J102:J1048576" xr:uid="{315666C5-0397-470F-A633-C919BAAA5B0E}">
       <formula1>"Standard,Floating"</formula1>
     </dataValidation>
@@ -4101,6 +4101,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なホスティングの種類" error="サポートされているホスティングの種類を選択してください。" sqref="H2:H1048576" xr:uid="{087D1462-8A2E-4870-B1FA-F3868E9A29EF}">
       <formula1>"Standard,Floating"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットの種類" error="サポートされているロボットの種類を選択してください。" sqref="I2:I1048576" xr:uid="{933C1473-FDC6-4AA7-84E2-B4E42376F511}">
+      <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6363,7 +6366,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94:B1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
     </dataValidation>
@@ -6372,6 +6375,9 @@
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットID" error="ロボットIDは0より大きい整数である必要があります。" sqref="H2:H1048576" xr:uid="{621A17E7-1DFD-4B40-8043-F0257897F21C}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットの種類" error="サポートされているロボットの種類を選択してください。" sqref="D2:D1048576" xr:uid="{852D0D24-A4D8-42AD-9AC4-BB779071A5CF}">
+      <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8431,12 +8437,15 @@
       <c r="H201" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C1048576" xr:uid="{63D27801-1665-4DF8-9454-ACFF98F813D0}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットID" error="ロボットIDは0より大きい整数である必要があります。" sqref="B2:B1048576" xr:uid="{511177B0-9A3B-410F-A4AF-3B2CF15FFA86}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットの種類" error="サポートされているロボットの種類を選択してください。" sqref="E2:E1048576" xr:uid="{E1E47939-7C80-4F2E-AC48-726B3C9BF258}">
+      <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADA94CE-121A-4706-9926-8EBDD311722C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E5D4EE-1697-4911-B804-1D768B05C8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,6 +382,33 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2"/>
@@ -752,31 +779,6 @@
         </top>
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
@@ -1323,41 +1325,41 @@
     <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="マシン名" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ロボットの種類" dataDxfId="22"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="クラシックフォルダー名" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="クラシックフォルダー名" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="クラシックフォルダー名" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="ロボットID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="ロボットの種類" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ユーザー名" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="結果" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="クラシックフォルダー名" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="ロボットID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="ロボットの種類" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ユーザー名" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="結果" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="クラシックフォルダーID" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="クラシックフォルダー名" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ロボット名" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="クラシックフォルダーID" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="クラシックフォルダー名" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ロボット名" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6359,7 +6361,7 @@
       <c r="C201" s="32"/>
       <c r="D201" s="31"/>
       <c r="E201" s="31"/>
-      <c r="F201" s="32"/>
+      <c r="F201" s="25"/>
       <c r="G201" s="33"/>
       <c r="H201" s="13"/>
       <c r="I201" s="13"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E5D4EE-1697-4911-B804-1D768B05C8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEE280D-461F-4B77-80D6-24B709AEC5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,14 +88,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -293,11 +285,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -344,9 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -374,19 +362,11 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="43">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -404,7 +384,6 @@
         <vertical/>
         <horizontal/>
       </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -809,8 +788,15 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -823,7 +809,10 @@
         <bottom style="thin">
           <color theme="5"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1324,8 +1313,8 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ロボット名" dataDxfId="24"/>
     <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="マシン名" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ロボットの種類" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="21"/>
     <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="クラシックフォルダー名" dataDxfId="20"/>
     <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="19"/>
     <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="18"/>
@@ -2896,7 +2885,7 @@
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
       <c r="H102" s="12"/>
-      <c r="I102" s="29"/>
+      <c r="I102" s="28"/>
       <c r="J102" s="16"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
@@ -2908,7 +2897,7 @@
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
       <c r="H103" s="12"/>
-      <c r="I103" s="29"/>
+      <c r="I103" s="28"/>
       <c r="J103" s="16"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
@@ -2920,7 +2909,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
       <c r="H104" s="12"/>
-      <c r="I104" s="29"/>
+      <c r="I104" s="28"/>
       <c r="J104" s="16"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
@@ -2932,7 +2921,7 @@
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
       <c r="H105" s="12"/>
-      <c r="I105" s="29"/>
+      <c r="I105" s="28"/>
       <c r="J105" s="16"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
@@ -2944,7 +2933,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
       <c r="H106" s="12"/>
-      <c r="I106" s="29"/>
+      <c r="I106" s="28"/>
       <c r="J106" s="16"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
@@ -2956,7 +2945,7 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
       <c r="H107" s="12"/>
-      <c r="I107" s="29"/>
+      <c r="I107" s="28"/>
       <c r="J107" s="16"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
@@ -2968,7 +2957,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
       <c r="H108" s="12"/>
-      <c r="I108" s="29"/>
+      <c r="I108" s="28"/>
       <c r="J108" s="16"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
@@ -2980,7 +2969,7 @@
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
       <c r="H109" s="12"/>
-      <c r="I109" s="29"/>
+      <c r="I109" s="28"/>
       <c r="J109" s="16"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
@@ -2992,7 +2981,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
       <c r="H110" s="12"/>
-      <c r="I110" s="29"/>
+      <c r="I110" s="28"/>
       <c r="J110" s="16"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
@@ -3004,7 +2993,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
       <c r="H111" s="12"/>
-      <c r="I111" s="29"/>
+      <c r="I111" s="28"/>
       <c r="J111" s="16"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
@@ -3016,7 +3005,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
       <c r="H112" s="12"/>
-      <c r="I112" s="29"/>
+      <c r="I112" s="28"/>
       <c r="J112" s="16"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
@@ -3028,7 +3017,7 @@
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
       <c r="H113" s="12"/>
-      <c r="I113" s="29"/>
+      <c r="I113" s="28"/>
       <c r="J113" s="16"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
@@ -3040,7 +3029,7 @@
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
       <c r="H114" s="12"/>
-      <c r="I114" s="29"/>
+      <c r="I114" s="28"/>
       <c r="J114" s="16"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
@@ -3052,7 +3041,7 @@
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
       <c r="H115" s="12"/>
-      <c r="I115" s="29"/>
+      <c r="I115" s="28"/>
       <c r="J115" s="16"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
@@ -3064,7 +3053,7 @@
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
       <c r="H116" s="12"/>
-      <c r="I116" s="29"/>
+      <c r="I116" s="28"/>
       <c r="J116" s="16"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
@@ -3076,7 +3065,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
       <c r="H117" s="12"/>
-      <c r="I117" s="29"/>
+      <c r="I117" s="28"/>
       <c r="J117" s="16"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
@@ -3088,7 +3077,7 @@
       <c r="F118" s="13"/>
       <c r="G118" s="13"/>
       <c r="H118" s="12"/>
-      <c r="I118" s="29"/>
+      <c r="I118" s="28"/>
       <c r="J118" s="16"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
@@ -3100,7 +3089,7 @@
       <c r="F119" s="13"/>
       <c r="G119" s="13"/>
       <c r="H119" s="12"/>
-      <c r="I119" s="29"/>
+      <c r="I119" s="28"/>
       <c r="J119" s="16"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
@@ -3112,7 +3101,7 @@
       <c r="F120" s="13"/>
       <c r="G120" s="13"/>
       <c r="H120" s="12"/>
-      <c r="I120" s="29"/>
+      <c r="I120" s="28"/>
       <c r="J120" s="16"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
@@ -3124,7 +3113,7 @@
       <c r="F121" s="13"/>
       <c r="G121" s="13"/>
       <c r="H121" s="12"/>
-      <c r="I121" s="29"/>
+      <c r="I121" s="28"/>
       <c r="J121" s="16"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
@@ -3136,7 +3125,7 @@
       <c r="F122" s="13"/>
       <c r="G122" s="13"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="29"/>
+      <c r="I122" s="28"/>
       <c r="J122" s="16"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
@@ -3148,7 +3137,7 @@
       <c r="F123" s="13"/>
       <c r="G123" s="13"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="29"/>
+      <c r="I123" s="28"/>
       <c r="J123" s="16"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
@@ -3160,7 +3149,7 @@
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="29"/>
+      <c r="I124" s="28"/>
       <c r="J124" s="16"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
@@ -3172,7 +3161,7 @@
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="29"/>
+      <c r="I125" s="28"/>
       <c r="J125" s="16"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
@@ -3184,7 +3173,7 @@
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="29"/>
+      <c r="I126" s="28"/>
       <c r="J126" s="16"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
@@ -3196,7 +3185,7 @@
       <c r="F127" s="13"/>
       <c r="G127" s="13"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="29"/>
+      <c r="I127" s="28"/>
       <c r="J127" s="16"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
@@ -3208,7 +3197,7 @@
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
       <c r="H128" s="12"/>
-      <c r="I128" s="29"/>
+      <c r="I128" s="28"/>
       <c r="J128" s="16"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
@@ -3220,7 +3209,7 @@
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
       <c r="H129" s="12"/>
-      <c r="I129" s="29"/>
+      <c r="I129" s="28"/>
       <c r="J129" s="16"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
@@ -3232,7 +3221,7 @@
       <c r="F130" s="13"/>
       <c r="G130" s="13"/>
       <c r="H130" s="12"/>
-      <c r="I130" s="29"/>
+      <c r="I130" s="28"/>
       <c r="J130" s="16"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
@@ -3244,7 +3233,7 @@
       <c r="F131" s="13"/>
       <c r="G131" s="13"/>
       <c r="H131" s="12"/>
-      <c r="I131" s="29"/>
+      <c r="I131" s="28"/>
       <c r="J131" s="16"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
@@ -3256,7 +3245,7 @@
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
       <c r="H132" s="12"/>
-      <c r="I132" s="29"/>
+      <c r="I132" s="28"/>
       <c r="J132" s="16"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
@@ -3268,7 +3257,7 @@
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
       <c r="H133" s="12"/>
-      <c r="I133" s="29"/>
+      <c r="I133" s="28"/>
       <c r="J133" s="16"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
@@ -3280,7 +3269,7 @@
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
       <c r="H134" s="12"/>
-      <c r="I134" s="29"/>
+      <c r="I134" s="28"/>
       <c r="J134" s="16"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
@@ -3292,7 +3281,7 @@
       <c r="F135" s="13"/>
       <c r="G135" s="13"/>
       <c r="H135" s="12"/>
-      <c r="I135" s="29"/>
+      <c r="I135" s="28"/>
       <c r="J135" s="16"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
@@ -3304,7 +3293,7 @@
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
       <c r="H136" s="12"/>
-      <c r="I136" s="29"/>
+      <c r="I136" s="28"/>
       <c r="J136" s="16"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
@@ -3316,7 +3305,7 @@
       <c r="F137" s="13"/>
       <c r="G137" s="13"/>
       <c r="H137" s="12"/>
-      <c r="I137" s="29"/>
+      <c r="I137" s="28"/>
       <c r="J137" s="16"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
@@ -3328,7 +3317,7 @@
       <c r="F138" s="13"/>
       <c r="G138" s="13"/>
       <c r="H138" s="12"/>
-      <c r="I138" s="29"/>
+      <c r="I138" s="28"/>
       <c r="J138" s="16"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
@@ -3340,7 +3329,7 @@
       <c r="F139" s="13"/>
       <c r="G139" s="13"/>
       <c r="H139" s="12"/>
-      <c r="I139" s="29"/>
+      <c r="I139" s="28"/>
       <c r="J139" s="16"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
@@ -3352,7 +3341,7 @@
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
       <c r="H140" s="12"/>
-      <c r="I140" s="29"/>
+      <c r="I140" s="28"/>
       <c r="J140" s="16"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
@@ -3364,7 +3353,7 @@
       <c r="F141" s="13"/>
       <c r="G141" s="13"/>
       <c r="H141" s="12"/>
-      <c r="I141" s="29"/>
+      <c r="I141" s="28"/>
       <c r="J141" s="16"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
@@ -3376,7 +3365,7 @@
       <c r="F142" s="13"/>
       <c r="G142" s="13"/>
       <c r="H142" s="12"/>
-      <c r="I142" s="29"/>
+      <c r="I142" s="28"/>
       <c r="J142" s="16"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
@@ -3388,7 +3377,7 @@
       <c r="F143" s="13"/>
       <c r="G143" s="13"/>
       <c r="H143" s="12"/>
-      <c r="I143" s="29"/>
+      <c r="I143" s="28"/>
       <c r="J143" s="16"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
@@ -3400,7 +3389,7 @@
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
       <c r="H144" s="12"/>
-      <c r="I144" s="29"/>
+      <c r="I144" s="28"/>
       <c r="J144" s="16"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
@@ -3412,7 +3401,7 @@
       <c r="F145" s="13"/>
       <c r="G145" s="13"/>
       <c r="H145" s="12"/>
-      <c r="I145" s="29"/>
+      <c r="I145" s="28"/>
       <c r="J145" s="16"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
@@ -3424,7 +3413,7 @@
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
       <c r="H146" s="12"/>
-      <c r="I146" s="29"/>
+      <c r="I146" s="28"/>
       <c r="J146" s="16"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
@@ -3436,7 +3425,7 @@
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
       <c r="H147" s="12"/>
-      <c r="I147" s="29"/>
+      <c r="I147" s="28"/>
       <c r="J147" s="16"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
@@ -3448,7 +3437,7 @@
       <c r="F148" s="13"/>
       <c r="G148" s="13"/>
       <c r="H148" s="12"/>
-      <c r="I148" s="29"/>
+      <c r="I148" s="28"/>
       <c r="J148" s="16"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
@@ -3460,7 +3449,7 @@
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
       <c r="H149" s="12"/>
-      <c r="I149" s="29"/>
+      <c r="I149" s="28"/>
       <c r="J149" s="16"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
@@ -3472,7 +3461,7 @@
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
       <c r="H150" s="12"/>
-      <c r="I150" s="29"/>
+      <c r="I150" s="28"/>
       <c r="J150" s="16"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
@@ -3484,7 +3473,7 @@
       <c r="F151" s="13"/>
       <c r="G151" s="13"/>
       <c r="H151" s="12"/>
-      <c r="I151" s="29"/>
+      <c r="I151" s="28"/>
       <c r="J151" s="16"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
@@ -3496,7 +3485,7 @@
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
       <c r="H152" s="12"/>
-      <c r="I152" s="29"/>
+      <c r="I152" s="28"/>
       <c r="J152" s="16"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
@@ -3508,7 +3497,7 @@
       <c r="F153" s="13"/>
       <c r="G153" s="13"/>
       <c r="H153" s="12"/>
-      <c r="I153" s="29"/>
+      <c r="I153" s="28"/>
       <c r="J153" s="16"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
@@ -3520,7 +3509,7 @@
       <c r="F154" s="13"/>
       <c r="G154" s="13"/>
       <c r="H154" s="12"/>
-      <c r="I154" s="29"/>
+      <c r="I154" s="28"/>
       <c r="J154" s="16"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
@@ -3532,7 +3521,7 @@
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
       <c r="H155" s="12"/>
-      <c r="I155" s="29"/>
+      <c r="I155" s="28"/>
       <c r="J155" s="16"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
@@ -3544,7 +3533,7 @@
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
       <c r="H156" s="12"/>
-      <c r="I156" s="29"/>
+      <c r="I156" s="28"/>
       <c r="J156" s="16"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
@@ -3556,7 +3545,7 @@
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
       <c r="H157" s="12"/>
-      <c r="I157" s="29"/>
+      <c r="I157" s="28"/>
       <c r="J157" s="16"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
@@ -3568,7 +3557,7 @@
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
       <c r="H158" s="12"/>
-      <c r="I158" s="29"/>
+      <c r="I158" s="28"/>
       <c r="J158" s="16"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
@@ -3580,7 +3569,7 @@
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
       <c r="H159" s="12"/>
-      <c r="I159" s="29"/>
+      <c r="I159" s="28"/>
       <c r="J159" s="16"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
@@ -3592,7 +3581,7 @@
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
       <c r="H160" s="12"/>
-      <c r="I160" s="29"/>
+      <c r="I160" s="28"/>
       <c r="J160" s="16"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
@@ -3604,7 +3593,7 @@
       <c r="F161" s="13"/>
       <c r="G161" s="13"/>
       <c r="H161" s="12"/>
-      <c r="I161" s="29"/>
+      <c r="I161" s="28"/>
       <c r="J161" s="16"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
@@ -3616,7 +3605,7 @@
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
       <c r="H162" s="12"/>
-      <c r="I162" s="29"/>
+      <c r="I162" s="28"/>
       <c r="J162" s="16"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
@@ -3628,7 +3617,7 @@
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
       <c r="H163" s="12"/>
-      <c r="I163" s="29"/>
+      <c r="I163" s="28"/>
       <c r="J163" s="16"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
@@ -3640,7 +3629,7 @@
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
       <c r="H164" s="12"/>
-      <c r="I164" s="29"/>
+      <c r="I164" s="28"/>
       <c r="J164" s="16"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
@@ -3652,7 +3641,7 @@
       <c r="F165" s="13"/>
       <c r="G165" s="13"/>
       <c r="H165" s="12"/>
-      <c r="I165" s="29"/>
+      <c r="I165" s="28"/>
       <c r="J165" s="16"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
@@ -3664,7 +3653,7 @@
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
       <c r="H166" s="12"/>
-      <c r="I166" s="29"/>
+      <c r="I166" s="28"/>
       <c r="J166" s="16"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
@@ -3676,7 +3665,7 @@
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
       <c r="H167" s="12"/>
-      <c r="I167" s="29"/>
+      <c r="I167" s="28"/>
       <c r="J167" s="16"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
@@ -3688,7 +3677,7 @@
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
       <c r="H168" s="12"/>
-      <c r="I168" s="29"/>
+      <c r="I168" s="28"/>
       <c r="J168" s="16"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
@@ -3700,7 +3689,7 @@
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
       <c r="H169" s="12"/>
-      <c r="I169" s="29"/>
+      <c r="I169" s="28"/>
       <c r="J169" s="16"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
@@ -3712,7 +3701,7 @@
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
       <c r="H170" s="12"/>
-      <c r="I170" s="29"/>
+      <c r="I170" s="28"/>
       <c r="J170" s="16"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
@@ -3724,7 +3713,7 @@
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
       <c r="H171" s="12"/>
-      <c r="I171" s="29"/>
+      <c r="I171" s="28"/>
       <c r="J171" s="16"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
@@ -3736,7 +3725,7 @@
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
       <c r="H172" s="12"/>
-      <c r="I172" s="29"/>
+      <c r="I172" s="28"/>
       <c r="J172" s="16"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
@@ -3748,7 +3737,7 @@
       <c r="F173" s="13"/>
       <c r="G173" s="13"/>
       <c r="H173" s="12"/>
-      <c r="I173" s="29"/>
+      <c r="I173" s="28"/>
       <c r="J173" s="16"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
@@ -3760,7 +3749,7 @@
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
       <c r="H174" s="12"/>
-      <c r="I174" s="29"/>
+      <c r="I174" s="28"/>
       <c r="J174" s="16"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
@@ -3772,7 +3761,7 @@
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
       <c r="H175" s="12"/>
-      <c r="I175" s="29"/>
+      <c r="I175" s="28"/>
       <c r="J175" s="16"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
@@ -3784,7 +3773,7 @@
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
       <c r="H176" s="12"/>
-      <c r="I176" s="29"/>
+      <c r="I176" s="28"/>
       <c r="J176" s="16"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
@@ -3796,7 +3785,7 @@
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
       <c r="H177" s="12"/>
-      <c r="I177" s="29"/>
+      <c r="I177" s="28"/>
       <c r="J177" s="16"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
@@ -3808,7 +3797,7 @@
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
       <c r="H178" s="12"/>
-      <c r="I178" s="29"/>
+      <c r="I178" s="28"/>
       <c r="J178" s="16"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
@@ -3820,7 +3809,7 @@
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
       <c r="H179" s="12"/>
-      <c r="I179" s="29"/>
+      <c r="I179" s="28"/>
       <c r="J179" s="16"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
@@ -3832,7 +3821,7 @@
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
       <c r="H180" s="12"/>
-      <c r="I180" s="29"/>
+      <c r="I180" s="28"/>
       <c r="J180" s="16"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
@@ -3844,7 +3833,7 @@
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
       <c r="H181" s="12"/>
-      <c r="I181" s="29"/>
+      <c r="I181" s="28"/>
       <c r="J181" s="16"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
@@ -3856,7 +3845,7 @@
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
       <c r="H182" s="12"/>
-      <c r="I182" s="29"/>
+      <c r="I182" s="28"/>
       <c r="J182" s="16"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.35">
@@ -3868,7 +3857,7 @@
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
       <c r="H183" s="12"/>
-      <c r="I183" s="29"/>
+      <c r="I183" s="28"/>
       <c r="J183" s="16"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
@@ -3880,7 +3869,7 @@
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
       <c r="H184" s="12"/>
-      <c r="I184" s="29"/>
+      <c r="I184" s="28"/>
       <c r="J184" s="16"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.35">
@@ -3892,7 +3881,7 @@
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
       <c r="H185" s="12"/>
-      <c r="I185" s="29"/>
+      <c r="I185" s="28"/>
       <c r="J185" s="16"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.35">
@@ -3904,7 +3893,7 @@
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
       <c r="H186" s="12"/>
-      <c r="I186" s="29"/>
+      <c r="I186" s="28"/>
       <c r="J186" s="16"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
@@ -3916,7 +3905,7 @@
       <c r="F187" s="13"/>
       <c r="G187" s="13"/>
       <c r="H187" s="12"/>
-      <c r="I187" s="29"/>
+      <c r="I187" s="28"/>
       <c r="J187" s="16"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.35">
@@ -3928,7 +3917,7 @@
       <c r="F188" s="13"/>
       <c r="G188" s="13"/>
       <c r="H188" s="12"/>
-      <c r="I188" s="29"/>
+      <c r="I188" s="28"/>
       <c r="J188" s="16"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
@@ -3940,7 +3929,7 @@
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
       <c r="H189" s="12"/>
-      <c r="I189" s="29"/>
+      <c r="I189" s="28"/>
       <c r="J189" s="16"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
@@ -3952,7 +3941,7 @@
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
       <c r="H190" s="12"/>
-      <c r="I190" s="29"/>
+      <c r="I190" s="28"/>
       <c r="J190" s="16"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
@@ -3964,7 +3953,7 @@
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
       <c r="H191" s="12"/>
-      <c r="I191" s="29"/>
+      <c r="I191" s="28"/>
       <c r="J191" s="16"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.35">
@@ -3976,7 +3965,7 @@
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
       <c r="H192" s="12"/>
-      <c r="I192" s="29"/>
+      <c r="I192" s="28"/>
       <c r="J192" s="16"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
@@ -3988,7 +3977,7 @@
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
       <c r="H193" s="12"/>
-      <c r="I193" s="29"/>
+      <c r="I193" s="28"/>
       <c r="J193" s="16"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
@@ -4000,7 +3989,7 @@
       <c r="F194" s="13"/>
       <c r="G194" s="13"/>
       <c r="H194" s="12"/>
-      <c r="I194" s="29"/>
+      <c r="I194" s="28"/>
       <c r="J194" s="16"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
@@ -4012,7 +4001,7 @@
       <c r="F195" s="13"/>
       <c r="G195" s="13"/>
       <c r="H195" s="12"/>
-      <c r="I195" s="29"/>
+      <c r="I195" s="28"/>
       <c r="J195" s="16"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
@@ -4024,7 +4013,7 @@
       <c r="F196" s="13"/>
       <c r="G196" s="13"/>
       <c r="H196" s="12"/>
-      <c r="I196" s="29"/>
+      <c r="I196" s="28"/>
       <c r="J196" s="16"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
@@ -4036,7 +4025,7 @@
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
       <c r="H197" s="12"/>
-      <c r="I197" s="29"/>
+      <c r="I197" s="28"/>
       <c r="J197" s="16"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.35">
@@ -4048,7 +4037,7 @@
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
       <c r="H198" s="12"/>
-      <c r="I198" s="29"/>
+      <c r="I198" s="28"/>
       <c r="J198" s="16"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.35">
@@ -4060,7 +4049,7 @@
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
       <c r="H199" s="12"/>
-      <c r="I199" s="29"/>
+      <c r="I199" s="28"/>
       <c r="J199" s="16"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.35">
@@ -4072,7 +4061,7 @@
       <c r="F200" s="13"/>
       <c r="G200" s="13"/>
       <c r="H200" s="12"/>
-      <c r="I200" s="29"/>
+      <c r="I200" s="28"/>
       <c r="J200" s="16"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.35">
@@ -4084,7 +4073,7 @@
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
       <c r="H201" s="20"/>
-      <c r="I201" s="30"/>
+      <c r="I201" s="29"/>
       <c r="J201" s="24"/>
     </row>
   </sheetData>
@@ -4156,13 +4145,13 @@
       <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4170,10 +4159,10 @@
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
-      <c r="D2" s="27"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
@@ -4181,10 +4170,10 @@
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="28"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
@@ -4192,10 +4181,10 @@
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
@@ -4203,10 +4192,10 @@
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
@@ -4214,10 +4203,10 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
@@ -4225,10 +4214,10 @@
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="28"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
@@ -4236,10 +4225,10 @@
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
@@ -4247,10 +4236,10 @@
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
@@ -4258,10 +4247,10 @@
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
@@ -4269,10 +4258,10 @@
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="28"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
@@ -4280,10 +4269,10 @@
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
@@ -4291,10 +4280,10 @@
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
@@ -4302,10 +4291,10 @@
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
@@ -4313,10 +4302,10 @@
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
@@ -4324,10 +4313,10 @@
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
@@ -4335,10 +4324,10 @@
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="28"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
@@ -4346,10 +4335,10 @@
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="28"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
@@ -4358,9 +4347,9 @@
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="28"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
@@ -4369,9 +4358,9 @@
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="28"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
@@ -4380,9 +4369,9 @@
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
@@ -4391,9 +4380,9 @@
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
@@ -4402,9 +4391,9 @@
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
@@ -4413,9 +4402,9 @@
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="28"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
@@ -4424,9 +4413,9 @@
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="28"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
@@ -4435,9 +4424,9 @@
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="28"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
@@ -4446,9 +4435,9 @@
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
@@ -4457,9 +4446,9 @@
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
@@ -4468,9 +4457,9 @@
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="28"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
@@ -4479,9 +4468,9 @@
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="28"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
@@ -4490,9 +4479,9 @@
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="28"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
@@ -4501,9 +4490,9 @@
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
@@ -4512,9 +4501,9 @@
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="28"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
@@ -4523,9 +4512,9 @@
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="28"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
@@ -4534,9 +4523,9 @@
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="28"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
@@ -4545,9 +4534,9 @@
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="28"/>
+      <c r="G36" s="27"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
@@ -4556,9 +4545,9 @@
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="28"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
@@ -4567,9 +4556,9 @@
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="28"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
@@ -4578,9 +4567,9 @@
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
@@ -4589,9 +4578,9 @@
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="28"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
@@ -4600,9 +4589,9 @@
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="25"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
@@ -4611,9 +4600,9 @@
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="25"/>
-      <c r="G42" s="28"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
@@ -4622,9 +4611,9 @@
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="25"/>
-      <c r="G43" s="28"/>
+      <c r="G43" s="27"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
@@ -4633,9 +4622,9 @@
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="25"/>
-      <c r="G44" s="28"/>
+      <c r="G44" s="27"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
@@ -4644,9 +4633,9 @@
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="25"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
@@ -4655,9 +4644,9 @@
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="25"/>
-      <c r="G46" s="28"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
@@ -4666,9 +4655,9 @@
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="E47" s="26"/>
       <c r="F47" s="25"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
@@ -4677,9 +4666,9 @@
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="E48" s="26"/>
       <c r="F48" s="25"/>
-      <c r="G48" s="28"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
@@ -4688,9 +4677,9 @@
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="E49" s="26"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="28"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
@@ -4699,9 +4688,9 @@
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="25"/>
-      <c r="G50" s="28"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
@@ -4710,9 +4699,9 @@
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="E51" s="26"/>
       <c r="F51" s="25"/>
-      <c r="G51" s="28"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
@@ -4721,9 +4710,9 @@
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="E52" s="26"/>
       <c r="F52" s="25"/>
-      <c r="G52" s="28"/>
+      <c r="G52" s="27"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
@@ -4732,9 +4721,9 @@
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="E53" s="26"/>
       <c r="F53" s="25"/>
-      <c r="G53" s="28"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
@@ -4743,9 +4732,9 @@
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="E54" s="26"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="28"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
@@ -4754,9 +4743,9 @@
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="E55" s="26"/>
       <c r="F55" s="25"/>
-      <c r="G55" s="28"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
@@ -4765,9 +4754,9 @@
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+      <c r="E56" s="26"/>
       <c r="F56" s="25"/>
-      <c r="G56" s="28"/>
+      <c r="G56" s="27"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
@@ -4776,9 +4765,9 @@
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="25"/>
-      <c r="G57" s="28"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
@@ -4787,9 +4776,9 @@
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="E58" s="26"/>
       <c r="F58" s="25"/>
-      <c r="G58" s="28"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
@@ -4798,9 +4787,9 @@
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="E59" s="26"/>
       <c r="F59" s="25"/>
-      <c r="G59" s="28"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
     </row>
@@ -4809,9 +4798,9 @@
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
+      <c r="E60" s="26"/>
       <c r="F60" s="25"/>
-      <c r="G60" s="28"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
     </row>
@@ -4820,9 +4809,9 @@
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
+      <c r="E61" s="26"/>
       <c r="F61" s="25"/>
-      <c r="G61" s="28"/>
+      <c r="G61" s="27"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
     </row>
@@ -4831,9 +4820,9 @@
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
+      <c r="E62" s="26"/>
       <c r="F62" s="25"/>
-      <c r="G62" s="28"/>
+      <c r="G62" s="27"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
     </row>
@@ -4842,9 +4831,9 @@
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="E63" s="26"/>
       <c r="F63" s="25"/>
-      <c r="G63" s="28"/>
+      <c r="G63" s="27"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
     </row>
@@ -4853,9 +4842,9 @@
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+      <c r="E64" s="26"/>
       <c r="F64" s="25"/>
-      <c r="G64" s="28"/>
+      <c r="G64" s="27"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
@@ -4864,9 +4853,9 @@
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+      <c r="E65" s="26"/>
       <c r="F65" s="25"/>
-      <c r="G65" s="28"/>
+      <c r="G65" s="27"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
@@ -4875,9 +4864,9 @@
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
+      <c r="E66" s="26"/>
       <c r="F66" s="25"/>
-      <c r="G66" s="28"/>
+      <c r="G66" s="27"/>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
@@ -4886,9 +4875,9 @@
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
+      <c r="E67" s="26"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="28"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
     </row>
@@ -4897,9 +4886,9 @@
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="E68" s="26"/>
       <c r="F68" s="25"/>
-      <c r="G68" s="28"/>
+      <c r="G68" s="27"/>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
     </row>
@@ -4908,9 +4897,9 @@
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
+      <c r="E69" s="26"/>
       <c r="F69" s="25"/>
-      <c r="G69" s="28"/>
+      <c r="G69" s="27"/>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
     </row>
@@ -4919,9 +4908,9 @@
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
+      <c r="E70" s="26"/>
       <c r="F70" s="25"/>
-      <c r="G70" s="28"/>
+      <c r="G70" s="27"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
     </row>
@@ -4930,9 +4919,9 @@
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+      <c r="E71" s="26"/>
       <c r="F71" s="25"/>
-      <c r="G71" s="28"/>
+      <c r="G71" s="27"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
     </row>
@@ -4941,9 +4930,9 @@
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
+      <c r="E72" s="26"/>
       <c r="F72" s="25"/>
-      <c r="G72" s="28"/>
+      <c r="G72" s="27"/>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
     </row>
@@ -4952,9 +4941,9 @@
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
+      <c r="E73" s="26"/>
       <c r="F73" s="25"/>
-      <c r="G73" s="28"/>
+      <c r="G73" s="27"/>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
     </row>
@@ -4963,9 +4952,9 @@
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
+      <c r="E74" s="26"/>
       <c r="F74" s="25"/>
-      <c r="G74" s="28"/>
+      <c r="G74" s="27"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
     </row>
@@ -4974,9 +4963,9 @@
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
+      <c r="E75" s="26"/>
       <c r="F75" s="25"/>
-      <c r="G75" s="28"/>
+      <c r="G75" s="27"/>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
     </row>
@@ -4985,9 +4974,9 @@
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
+      <c r="E76" s="26"/>
       <c r="F76" s="25"/>
-      <c r="G76" s="28"/>
+      <c r="G76" s="27"/>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
     </row>
@@ -4996,9 +4985,9 @@
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
+      <c r="E77" s="26"/>
       <c r="F77" s="25"/>
-      <c r="G77" s="28"/>
+      <c r="G77" s="27"/>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
     </row>
@@ -5007,9 +4996,9 @@
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
+      <c r="E78" s="26"/>
       <c r="F78" s="25"/>
-      <c r="G78" s="28"/>
+      <c r="G78" s="27"/>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
     </row>
@@ -5018,9 +5007,9 @@
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
+      <c r="E79" s="26"/>
       <c r="F79" s="25"/>
-      <c r="G79" s="28"/>
+      <c r="G79" s="27"/>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
     </row>
@@ -5029,9 +5018,9 @@
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
+      <c r="E80" s="26"/>
       <c r="F80" s="25"/>
-      <c r="G80" s="28"/>
+      <c r="G80" s="27"/>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
     </row>
@@ -5040,9 +5029,9 @@
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
+      <c r="E81" s="26"/>
       <c r="F81" s="25"/>
-      <c r="G81" s="28"/>
+      <c r="G81" s="27"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
     </row>
@@ -5051,9 +5040,9 @@
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
+      <c r="E82" s="26"/>
       <c r="F82" s="25"/>
-      <c r="G82" s="28"/>
+      <c r="G82" s="27"/>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
     </row>
@@ -5062,9 +5051,9 @@
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+      <c r="E83" s="26"/>
       <c r="F83" s="25"/>
-      <c r="G83" s="28"/>
+      <c r="G83" s="27"/>
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
     </row>
@@ -5073,9 +5062,9 @@
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
+      <c r="E84" s="26"/>
       <c r="F84" s="25"/>
-      <c r="G84" s="28"/>
+      <c r="G84" s="27"/>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
     </row>
@@ -5084,9 +5073,9 @@
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
+      <c r="E85" s="26"/>
       <c r="F85" s="25"/>
-      <c r="G85" s="28"/>
+      <c r="G85" s="27"/>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
     </row>
@@ -5095,9 +5084,9 @@
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
+      <c r="E86" s="26"/>
       <c r="F86" s="25"/>
-      <c r="G86" s="28"/>
+      <c r="G86" s="27"/>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
     </row>
@@ -5106,9 +5095,9 @@
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
+      <c r="E87" s="26"/>
       <c r="F87" s="25"/>
-      <c r="G87" s="28"/>
+      <c r="G87" s="27"/>
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
     </row>
@@ -5117,9 +5106,9 @@
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
+      <c r="E88" s="26"/>
       <c r="F88" s="25"/>
-      <c r="G88" s="28"/>
+      <c r="G88" s="27"/>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
     </row>
@@ -5128,9 +5117,9 @@
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
+      <c r="E89" s="26"/>
       <c r="F89" s="25"/>
-      <c r="G89" s="28"/>
+      <c r="G89" s="27"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
     </row>
@@ -5139,9 +5128,9 @@
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
+      <c r="E90" s="26"/>
       <c r="F90" s="25"/>
-      <c r="G90" s="28"/>
+      <c r="G90" s="27"/>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
     </row>
@@ -5150,9 +5139,9 @@
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
+      <c r="E91" s="26"/>
       <c r="F91" s="25"/>
-      <c r="G91" s="28"/>
+      <c r="G91" s="27"/>
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
     </row>
@@ -5161,9 +5150,9 @@
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
+      <c r="E92" s="26"/>
       <c r="F92" s="25"/>
-      <c r="G92" s="28"/>
+      <c r="G92" s="27"/>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
     </row>
@@ -5172,9 +5161,9 @@
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
+      <c r="E93" s="26"/>
       <c r="F93" s="25"/>
-      <c r="G93" s="28"/>
+      <c r="G93" s="27"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
     </row>
@@ -5182,8 +5171,8 @@
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
       <c r="H94" s="13"/>
@@ -5193,8 +5182,8 @@
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
       <c r="H95" s="13"/>
@@ -5204,8 +5193,8 @@
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
       <c r="H96" s="13"/>
@@ -5215,8 +5204,8 @@
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
       <c r="H97" s="13"/>
@@ -5226,8 +5215,8 @@
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
       <c r="H98" s="13"/>
@@ -5237,8 +5226,8 @@
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
       <c r="F99" s="25"/>
       <c r="G99" s="25"/>
       <c r="H99" s="13"/>
@@ -5248,8 +5237,8 @@
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
       <c r="F100" s="25"/>
       <c r="G100" s="25"/>
       <c r="H100" s="13"/>
@@ -5259,8 +5248,8 @@
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
       <c r="H101" s="13"/>
@@ -5270,8 +5259,8 @@
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
       <c r="H102" s="13"/>
@@ -5281,8 +5270,8 @@
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
       <c r="H103" s="13"/>
@@ -5292,8 +5281,8 @@
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
       <c r="H104" s="13"/>
@@ -5303,8 +5292,8 @@
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
       <c r="F105" s="25"/>
       <c r="G105" s="25"/>
       <c r="H105" s="13"/>
@@ -5314,8 +5303,8 @@
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
       <c r="F106" s="25"/>
       <c r="G106" s="25"/>
       <c r="H106" s="13"/>
@@ -5325,8 +5314,8 @@
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
       <c r="F107" s="25"/>
       <c r="G107" s="25"/>
       <c r="H107" s="13"/>
@@ -5336,8 +5325,8 @@
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
       <c r="F108" s="25"/>
       <c r="G108" s="25"/>
       <c r="H108" s="13"/>
@@ -5347,8 +5336,8 @@
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
       <c r="F109" s="25"/>
       <c r="G109" s="25"/>
       <c r="H109" s="13"/>
@@ -5358,8 +5347,8 @@
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
       <c r="F110" s="25"/>
       <c r="G110" s="25"/>
       <c r="H110" s="13"/>
@@ -5369,8 +5358,8 @@
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
       <c r="F111" s="25"/>
       <c r="G111" s="25"/>
       <c r="H111" s="13"/>
@@ -5380,8 +5369,8 @@
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="25"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
       <c r="F112" s="25"/>
       <c r="G112" s="25"/>
       <c r="H112" s="13"/>
@@ -5391,8 +5380,8 @@
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
       <c r="F113" s="25"/>
       <c r="G113" s="25"/>
       <c r="H113" s="13"/>
@@ -5402,8 +5391,8 @@
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="25"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
       <c r="F114" s="25"/>
       <c r="G114" s="25"/>
       <c r="H114" s="13"/>
@@ -5413,8 +5402,8 @@
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="25"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
       <c r="F115" s="25"/>
       <c r="G115" s="25"/>
       <c r="H115" s="13"/>
@@ -5424,8 +5413,8 @@
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="25"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
       <c r="F116" s="25"/>
       <c r="G116" s="25"/>
       <c r="H116" s="13"/>
@@ -5435,8 +5424,8 @@
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="25"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
       <c r="F117" s="25"/>
       <c r="G117" s="25"/>
       <c r="H117" s="13"/>
@@ -5446,8 +5435,8 @@
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
       <c r="F118" s="25"/>
       <c r="G118" s="25"/>
       <c r="H118" s="13"/>
@@ -5457,8 +5446,8 @@
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
       <c r="F119" s="25"/>
       <c r="G119" s="25"/>
       <c r="H119" s="13"/>
@@ -5468,8 +5457,8 @@
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
       <c r="F120" s="25"/>
       <c r="G120" s="25"/>
       <c r="H120" s="13"/>
@@ -5479,8 +5468,8 @@
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="25"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
       <c r="F121" s="25"/>
       <c r="G121" s="25"/>
       <c r="H121" s="13"/>
@@ -5490,8 +5479,8 @@
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
       <c r="F122" s="25"/>
       <c r="G122" s="25"/>
       <c r="H122" s="13"/>
@@ -5501,8 +5490,8 @@
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
       <c r="F123" s="25"/>
       <c r="G123" s="25"/>
       <c r="H123" s="13"/>
@@ -5512,8 +5501,8 @@
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
       <c r="F124" s="25"/>
       <c r="G124" s="25"/>
       <c r="H124" s="13"/>
@@ -5523,8 +5512,8 @@
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
       <c r="F125" s="25"/>
       <c r="G125" s="25"/>
       <c r="H125" s="13"/>
@@ -5534,8 +5523,8 @@
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
       <c r="F126" s="25"/>
       <c r="G126" s="25"/>
       <c r="H126" s="13"/>
@@ -5545,8 +5534,8 @@
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
       <c r="F127" s="25"/>
       <c r="G127" s="25"/>
       <c r="H127" s="13"/>
@@ -5556,8 +5545,8 @@
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
       <c r="F128" s="25"/>
       <c r="G128" s="25"/>
       <c r="H128" s="13"/>
@@ -5567,8 +5556,8 @@
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
       <c r="F129" s="25"/>
       <c r="G129" s="25"/>
       <c r="H129" s="13"/>
@@ -5578,8 +5567,8 @@
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
       <c r="F130" s="25"/>
       <c r="G130" s="25"/>
       <c r="H130" s="13"/>
@@ -5589,8 +5578,8 @@
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
       <c r="F131" s="25"/>
       <c r="G131" s="25"/>
       <c r="H131" s="13"/>
@@ -5600,8 +5589,8 @@
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
       <c r="F132" s="25"/>
       <c r="G132" s="25"/>
       <c r="H132" s="13"/>
@@ -5611,8 +5600,8 @@
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
       <c r="F133" s="25"/>
       <c r="G133" s="25"/>
       <c r="H133" s="13"/>
@@ -5622,8 +5611,8 @@
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
       <c r="F134" s="25"/>
       <c r="G134" s="25"/>
       <c r="H134" s="13"/>
@@ -5633,8 +5622,8 @@
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
       <c r="F135" s="25"/>
       <c r="G135" s="25"/>
       <c r="H135" s="13"/>
@@ -5644,8 +5633,8 @@
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="25"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
       <c r="F136" s="25"/>
       <c r="G136" s="25"/>
       <c r="H136" s="13"/>
@@ -5655,8 +5644,8 @@
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
       <c r="F137" s="25"/>
       <c r="G137" s="25"/>
       <c r="H137" s="13"/>
@@ -5666,8 +5655,8 @@
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
       <c r="F138" s="25"/>
       <c r="G138" s="25"/>
       <c r="H138" s="13"/>
@@ -5677,8 +5666,8 @@
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
       <c r="H139" s="13"/>
@@ -5688,8 +5677,8 @@
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
       <c r="F140" s="25"/>
       <c r="G140" s="25"/>
       <c r="H140" s="13"/>
@@ -5699,8 +5688,8 @@
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
       <c r="F141" s="25"/>
       <c r="G141" s="25"/>
       <c r="H141" s="13"/>
@@ -5710,8 +5699,8 @@
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
       <c r="F142" s="25"/>
       <c r="G142" s="25"/>
       <c r="H142" s="13"/>
@@ -5721,8 +5710,8 @@
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
       <c r="F143" s="25"/>
       <c r="G143" s="25"/>
       <c r="H143" s="13"/>
@@ -5732,8 +5721,8 @@
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="25"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
       <c r="H144" s="13"/>
@@ -5743,8 +5732,8 @@
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="25"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
       <c r="F145" s="25"/>
       <c r="G145" s="25"/>
       <c r="H145" s="13"/>
@@ -5754,8 +5743,8 @@
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
       <c r="F146" s="25"/>
       <c r="G146" s="25"/>
       <c r="H146" s="13"/>
@@ -5765,8 +5754,8 @@
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="25"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
       <c r="F147" s="25"/>
       <c r="G147" s="25"/>
       <c r="H147" s="13"/>
@@ -5776,8 +5765,8 @@
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
       <c r="F148" s="25"/>
       <c r="G148" s="25"/>
       <c r="H148" s="13"/>
@@ -5787,8 +5776,8 @@
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
       <c r="F149" s="25"/>
       <c r="G149" s="25"/>
       <c r="H149" s="13"/>
@@ -5798,8 +5787,8 @@
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="25"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
       <c r="F150" s="25"/>
       <c r="G150" s="25"/>
       <c r="H150" s="13"/>
@@ -5809,8 +5798,8 @@
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="25"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
       <c r="F151" s="25"/>
       <c r="G151" s="25"/>
       <c r="H151" s="13"/>
@@ -5820,8 +5809,8 @@
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="25"/>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
       <c r="F152" s="25"/>
       <c r="G152" s="25"/>
       <c r="H152" s="13"/>
@@ -5831,8 +5820,8 @@
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
       <c r="F153" s="25"/>
       <c r="G153" s="25"/>
       <c r="H153" s="13"/>
@@ -5842,8 +5831,8 @@
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
       <c r="F154" s="25"/>
       <c r="G154" s="25"/>
       <c r="H154" s="13"/>
@@ -5853,8 +5842,8 @@
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="25"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
       <c r="F155" s="25"/>
       <c r="G155" s="25"/>
       <c r="H155" s="13"/>
@@ -5864,8 +5853,8 @@
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="25"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
       <c r="F156" s="25"/>
       <c r="G156" s="25"/>
       <c r="H156" s="13"/>
@@ -5875,8 +5864,8 @@
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="25"/>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
       <c r="F157" s="25"/>
       <c r="G157" s="25"/>
       <c r="H157" s="13"/>
@@ -5886,8 +5875,8 @@
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
       <c r="F158" s="25"/>
       <c r="G158" s="25"/>
       <c r="H158" s="13"/>
@@ -5897,8 +5886,8 @@
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="25"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
       <c r="H159" s="13"/>
@@ -5908,8 +5897,8 @@
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
       <c r="F160" s="25"/>
       <c r="G160" s="25"/>
       <c r="H160" s="13"/>
@@ -5919,8 +5908,8 @@
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="25"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
       <c r="F161" s="25"/>
       <c r="G161" s="25"/>
       <c r="H161" s="13"/>
@@ -5930,8 +5919,8 @@
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
       <c r="F162" s="25"/>
       <c r="G162" s="25"/>
       <c r="H162" s="13"/>
@@ -5941,8 +5930,8 @@
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
       <c r="F163" s="25"/>
       <c r="G163" s="25"/>
       <c r="H163" s="13"/>
@@ -5952,8 +5941,8 @@
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
       <c r="F164" s="25"/>
       <c r="G164" s="25"/>
       <c r="H164" s="13"/>
@@ -5963,8 +5952,8 @@
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="25"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
       <c r="F165" s="25"/>
       <c r="G165" s="25"/>
       <c r="H165" s="13"/>
@@ -5974,8 +5963,8 @@
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="25"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
       <c r="F166" s="25"/>
       <c r="G166" s="25"/>
       <c r="H166" s="13"/>
@@ -5985,8 +5974,8 @@
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
       <c r="F167" s="25"/>
       <c r="G167" s="25"/>
       <c r="H167" s="13"/>
@@ -5996,8 +5985,8 @@
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
       <c r="F168" s="25"/>
       <c r="G168" s="25"/>
       <c r="H168" s="13"/>
@@ -6007,8 +5996,8 @@
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="25"/>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
       <c r="F169" s="25"/>
       <c r="G169" s="25"/>
       <c r="H169" s="13"/>
@@ -6018,8 +6007,8 @@
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="25"/>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
       <c r="F170" s="25"/>
       <c r="G170" s="25"/>
       <c r="H170" s="13"/>
@@ -6029,8 +6018,8 @@
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="25"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
       <c r="F171" s="25"/>
       <c r="G171" s="25"/>
       <c r="H171" s="13"/>
@@ -6040,8 +6029,8 @@
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="25"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
       <c r="F172" s="25"/>
       <c r="G172" s="25"/>
       <c r="H172" s="13"/>
@@ -6051,8 +6040,8 @@
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="25"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="26"/>
       <c r="F173" s="25"/>
       <c r="G173" s="25"/>
       <c r="H173" s="13"/>
@@ -6062,8 +6051,8 @@
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
       <c r="F174" s="25"/>
       <c r="G174" s="25"/>
       <c r="H174" s="13"/>
@@ -6073,8 +6062,8 @@
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
       <c r="F175" s="25"/>
       <c r="G175" s="25"/>
       <c r="H175" s="13"/>
@@ -6084,8 +6073,8 @@
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
       <c r="F176" s="25"/>
       <c r="G176" s="25"/>
       <c r="H176" s="13"/>
@@ -6095,8 +6084,8 @@
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="25"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
       <c r="F177" s="25"/>
       <c r="G177" s="25"/>
       <c r="H177" s="13"/>
@@ -6106,8 +6095,8 @@
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
       <c r="F178" s="25"/>
       <c r="G178" s="25"/>
       <c r="H178" s="13"/>
@@ -6117,8 +6106,8 @@
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="25"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
       <c r="F179" s="25"/>
       <c r="G179" s="25"/>
       <c r="H179" s="13"/>
@@ -6128,8 +6117,8 @@
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="25"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
       <c r="F180" s="25"/>
       <c r="G180" s="25"/>
       <c r="H180" s="13"/>
@@ -6139,8 +6128,8 @@
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="25"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="26"/>
       <c r="F181" s="25"/>
       <c r="G181" s="25"/>
       <c r="H181" s="13"/>
@@ -6150,8 +6139,8 @@
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
       <c r="F182" s="25"/>
       <c r="G182" s="25"/>
       <c r="H182" s="13"/>
@@ -6161,8 +6150,8 @@
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26"/>
       <c r="F183" s="25"/>
       <c r="G183" s="25"/>
       <c r="H183" s="13"/>
@@ -6172,8 +6161,8 @@
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="25"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
       <c r="F184" s="25"/>
       <c r="G184" s="25"/>
       <c r="H184" s="13"/>
@@ -6183,8 +6172,8 @@
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="25"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
       <c r="F185" s="25"/>
       <c r="G185" s="25"/>
       <c r="H185" s="13"/>
@@ -6194,8 +6183,8 @@
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="25"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
       <c r="F186" s="25"/>
       <c r="G186" s="25"/>
       <c r="H186" s="13"/>
@@ -6205,8 +6194,8 @@
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="26"/>
       <c r="F187" s="25"/>
       <c r="G187" s="25"/>
       <c r="H187" s="13"/>
@@ -6216,8 +6205,8 @@
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="25"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
       <c r="F188" s="25"/>
       <c r="G188" s="25"/>
       <c r="H188" s="13"/>
@@ -6227,8 +6216,8 @@
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="25"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
       <c r="F189" s="25"/>
       <c r="G189" s="25"/>
       <c r="H189" s="13"/>
@@ -6238,8 +6227,8 @@
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
       <c r="F190" s="25"/>
       <c r="G190" s="25"/>
       <c r="H190" s="13"/>
@@ -6249,8 +6238,8 @@
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="25"/>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
       <c r="F191" s="25"/>
       <c r="G191" s="25"/>
       <c r="H191" s="13"/>
@@ -6260,8 +6249,8 @@
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="25"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="26"/>
       <c r="F192" s="25"/>
       <c r="G192" s="25"/>
       <c r="H192" s="13"/>
@@ -6271,8 +6260,8 @@
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="25"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
       <c r="F193" s="25"/>
       <c r="G193" s="25"/>
       <c r="H193" s="13"/>
@@ -6282,8 +6271,8 @@
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="25"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
+      <c r="D194" s="26"/>
+      <c r="E194" s="26"/>
       <c r="F194" s="25"/>
       <c r="G194" s="25"/>
       <c r="H194" s="13"/>
@@ -6293,8 +6282,8 @@
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="25"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
       <c r="F195" s="25"/>
       <c r="G195" s="25"/>
       <c r="H195" s="13"/>
@@ -6304,8 +6293,8 @@
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="25"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
       <c r="F196" s="25"/>
       <c r="G196" s="25"/>
       <c r="H196" s="13"/>
@@ -6315,8 +6304,8 @@
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="25"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
+      <c r="D197" s="26"/>
+      <c r="E197" s="26"/>
       <c r="F197" s="25"/>
       <c r="G197" s="25"/>
       <c r="H197" s="13"/>
@@ -6326,8 +6315,8 @@
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="25"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="26"/>
       <c r="F198" s="25"/>
       <c r="G198" s="25"/>
       <c r="H198" s="13"/>
@@ -6337,8 +6326,8 @@
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="25"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
+      <c r="D199" s="26"/>
+      <c r="E199" s="26"/>
       <c r="F199" s="25"/>
       <c r="G199" s="25"/>
       <c r="H199" s="13"/>
@@ -6348,21 +6337,21 @@
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="25"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="27"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
       <c r="F200" s="25"/>
       <c r="G200" s="25"/>
       <c r="H200" s="21"/>
       <c r="I200" s="21"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A201" s="32"/>
-      <c r="B201" s="32"/>
-      <c r="C201" s="32"/>
-      <c r="D201" s="31"/>
-      <c r="E201" s="31"/>
+      <c r="A201" s="31"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="30"/>
+      <c r="E201" s="26"/>
       <c r="F201" s="25"/>
-      <c r="G201" s="33"/>
+      <c r="G201" s="32"/>
       <c r="H201" s="13"/>
       <c r="I201" s="13"/>
     </row>
@@ -6431,1016 +6420,1016 @@
       <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="28"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="28"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="28"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="28"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="28"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="28"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="28"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="28"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="28"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="28"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="28"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="28"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="28"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="28"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="28"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="28"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="28"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="28"/>
+      <c r="G36" s="27"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="28"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="28"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="28"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="28"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
-      <c r="G41" s="28"/>
+      <c r="G41" s="27"/>
       <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
-      <c r="G42" s="28"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
-      <c r="G43" s="28"/>
+      <c r="G43" s="27"/>
       <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
-      <c r="G44" s="28"/>
+      <c r="G44" s="27"/>
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
-      <c r="G46" s="28"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="27"/>
       <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
-      <c r="G48" s="28"/>
+      <c r="G48" s="27"/>
       <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="28"/>
+      <c r="G49" s="27"/>
       <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
-      <c r="G50" s="28"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
-      <c r="G51" s="28"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
-      <c r="G52" s="28"/>
+      <c r="G52" s="27"/>
       <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
-      <c r="G53" s="28"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="28"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
-      <c r="G55" s="28"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
-      <c r="G56" s="28"/>
+      <c r="G56" s="27"/>
       <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
-      <c r="G57" s="28"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
       <c r="F58" s="25"/>
-      <c r="G58" s="28"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
-      <c r="G59" s="28"/>
+      <c r="G59" s="27"/>
       <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
-      <c r="G60" s="28"/>
+      <c r="G60" s="27"/>
       <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
-      <c r="G61" s="28"/>
+      <c r="G61" s="27"/>
       <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
-      <c r="G62" s="28"/>
+      <c r="G62" s="27"/>
       <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
-      <c r="G63" s="28"/>
+      <c r="G63" s="27"/>
       <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
-      <c r="G64" s="28"/>
+      <c r="G64" s="27"/>
       <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
-      <c r="G65" s="28"/>
+      <c r="G65" s="27"/>
       <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
-      <c r="G66" s="28"/>
+      <c r="G66" s="27"/>
       <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="28"/>
+      <c r="G67" s="27"/>
       <c r="H67" s="11"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
-      <c r="G68" s="28"/>
+      <c r="G68" s="27"/>
       <c r="H68" s="11"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
-      <c r="G69" s="28"/>
+      <c r="G69" s="27"/>
       <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
-      <c r="G70" s="28"/>
+      <c r="G70" s="27"/>
       <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
-      <c r="G71" s="28"/>
+      <c r="G71" s="27"/>
       <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25"/>
-      <c r="G72" s="28"/>
+      <c r="G72" s="27"/>
       <c r="H72" s="11"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
-      <c r="G73" s="28"/>
+      <c r="G73" s="27"/>
       <c r="H73" s="11"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
-      <c r="G74" s="28"/>
+      <c r="G74" s="27"/>
       <c r="H74" s="11"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
-      <c r="G75" s="28"/>
+      <c r="G75" s="27"/>
       <c r="H75" s="11"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
-      <c r="G76" s="28"/>
+      <c r="G76" s="27"/>
       <c r="H76" s="11"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
-      <c r="G77" s="28"/>
+      <c r="G77" s="27"/>
       <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
-      <c r="G78" s="28"/>
+      <c r="G78" s="27"/>
       <c r="H78" s="11"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
-      <c r="G79" s="28"/>
+      <c r="G79" s="27"/>
       <c r="H79" s="11"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
-      <c r="G80" s="28"/>
+      <c r="G80" s="27"/>
       <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
-      <c r="G81" s="28"/>
+      <c r="G81" s="27"/>
       <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
-      <c r="G82" s="28"/>
+      <c r="G82" s="27"/>
       <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
-      <c r="G83" s="28"/>
+      <c r="G83" s="27"/>
       <c r="H83" s="11"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
-      <c r="G84" s="28"/>
+      <c r="G84" s="27"/>
       <c r="H84" s="11"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
-      <c r="G85" s="28"/>
+      <c r="G85" s="27"/>
       <c r="H85" s="11"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
       <c r="E86" s="25"/>
       <c r="F86" s="25"/>
-      <c r="G86" s="28"/>
+      <c r="G86" s="27"/>
       <c r="H86" s="11"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
       <c r="E87" s="25"/>
       <c r="F87" s="25"/>
-      <c r="G87" s="28"/>
+      <c r="G87" s="27"/>
       <c r="H87" s="11"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
-      <c r="G88" s="28"/>
+      <c r="G88" s="27"/>
       <c r="H88" s="11"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
-      <c r="G89" s="28"/>
+      <c r="G89" s="27"/>
       <c r="H89" s="11"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
-      <c r="G90" s="28"/>
+      <c r="G90" s="27"/>
       <c r="H90" s="11"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
-      <c r="G91" s="28"/>
+      <c r="G91" s="27"/>
       <c r="H91" s="11"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
-      <c r="G92" s="28"/>
+      <c r="G92" s="27"/>
       <c r="H92" s="11"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
       <c r="E93" s="25"/>
       <c r="F93" s="25"/>
-      <c r="G93" s="28"/>
+      <c r="G93" s="27"/>
       <c r="H93" s="11"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
       <c r="C94" s="25"/>
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
-      <c r="G94" s="28"/>
+      <c r="G94" s="27"/>
       <c r="H94" s="11"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
-      <c r="G95" s="28"/>
+      <c r="G95" s="27"/>
       <c r="H95" s="11"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
-      <c r="G96" s="28"/>
+      <c r="G96" s="27"/>
       <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="25"/>
       <c r="D97" s="25"/>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
-      <c r="G97" s="28"/>
+      <c r="G97" s="27"/>
       <c r="H97" s="11"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
-      <c r="G98" s="28"/>
+      <c r="G98" s="27"/>
       <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="25"/>
       <c r="D99" s="25"/>
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
-      <c r="G99" s="28"/>
+      <c r="G99" s="27"/>
       <c r="H99" s="11"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
+      <c r="A100" s="26"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="25"/>
       <c r="D100" s="25"/>
       <c r="E100" s="25"/>
       <c r="F100" s="25"/>
-      <c r="G100" s="28"/>
+      <c r="G100" s="27"/>
       <c r="H100" s="11"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
       <c r="F101" s="25"/>
-      <c r="G101" s="28"/>
+      <c r="G101" s="27"/>
       <c r="H101" s="11"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
       <c r="E102" s="25"/>
@@ -7449,8 +7438,8 @@
       <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
       <c r="E103" s="25"/>
@@ -7459,8 +7448,8 @@
       <c r="H103" s="11"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="26"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
       <c r="E104" s="25"/>
@@ -7469,8 +7458,8 @@
       <c r="H104" s="11"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
       <c r="E105" s="25"/>
@@ -7479,8 +7468,8 @@
       <c r="H105" s="11"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
       <c r="E106" s="25"/>
@@ -7489,8 +7478,8 @@
       <c r="H106" s="11"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
       <c r="E107" s="25"/>
@@ -7499,8 +7488,8 @@
       <c r="H107" s="11"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
       <c r="E108" s="25"/>
@@ -7509,8 +7498,8 @@
       <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="25"/>
       <c r="D109" s="25"/>
       <c r="E109" s="25"/>
@@ -7519,8 +7508,8 @@
       <c r="H109" s="11"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="25"/>
       <c r="D110" s="25"/>
       <c r="E110" s="25"/>
@@ -7529,8 +7518,8 @@
       <c r="H110" s="11"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
       <c r="E111" s="25"/>
@@ -7539,8 +7528,8 @@
       <c r="H111" s="11"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
       <c r="E112" s="25"/>
@@ -7549,8 +7538,8 @@
       <c r="H112" s="11"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
       <c r="E113" s="25"/>
@@ -7559,8 +7548,8 @@
       <c r="H113" s="11"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="27"/>
-      <c r="B114" s="27"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
       <c r="C114" s="25"/>
       <c r="D114" s="25"/>
       <c r="E114" s="25"/>
@@ -7569,8 +7558,8 @@
       <c r="H114" s="11"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
       <c r="C115" s="25"/>
       <c r="D115" s="25"/>
       <c r="E115" s="25"/>
@@ -7579,8 +7568,8 @@
       <c r="H115" s="11"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
       <c r="C116" s="25"/>
       <c r="D116" s="25"/>
       <c r="E116" s="25"/>
@@ -7589,8 +7578,8 @@
       <c r="H116" s="11"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="27"/>
-      <c r="B117" s="27"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
       <c r="C117" s="25"/>
       <c r="D117" s="25"/>
       <c r="E117" s="25"/>
@@ -7599,8 +7588,8 @@
       <c r="H117" s="11"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="27"/>
-      <c r="B118" s="27"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
       <c r="E118" s="25"/>
@@ -7609,8 +7598,8 @@
       <c r="H118" s="11"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
+      <c r="A119" s="26"/>
+      <c r="B119" s="26"/>
       <c r="C119" s="25"/>
       <c r="D119" s="25"/>
       <c r="E119" s="25"/>
@@ -7619,8 +7608,8 @@
       <c r="H119" s="11"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
+      <c r="A120" s="26"/>
+      <c r="B120" s="26"/>
       <c r="C120" s="25"/>
       <c r="D120" s="25"/>
       <c r="E120" s="25"/>
@@ -7629,8 +7618,8 @@
       <c r="H120" s="11"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="26"/>
       <c r="C121" s="25"/>
       <c r="D121" s="25"/>
       <c r="E121" s="25"/>
@@ -7639,8 +7628,8 @@
       <c r="H121" s="11"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="27"/>
-      <c r="B122" s="27"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="25"/>
       <c r="D122" s="25"/>
       <c r="E122" s="25"/>
@@ -7649,8 +7638,8 @@
       <c r="H122" s="11"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="26"/>
       <c r="C123" s="25"/>
       <c r="D123" s="25"/>
       <c r="E123" s="25"/>
@@ -7659,8 +7648,8 @@
       <c r="H123" s="11"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="27"/>
-      <c r="B124" s="27"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="25"/>
       <c r="D124" s="25"/>
       <c r="E124" s="25"/>
@@ -7669,8 +7658,8 @@
       <c r="H124" s="11"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="27"/>
-      <c r="B125" s="27"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="25"/>
       <c r="D125" s="25"/>
       <c r="E125" s="25"/>
@@ -7679,8 +7668,8 @@
       <c r="H125" s="11"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="27"/>
-      <c r="B126" s="27"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="26"/>
       <c r="C126" s="25"/>
       <c r="D126" s="25"/>
       <c r="E126" s="25"/>
@@ -7689,8 +7678,8 @@
       <c r="H126" s="11"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
+      <c r="A127" s="26"/>
+      <c r="B127" s="26"/>
       <c r="C127" s="25"/>
       <c r="D127" s="25"/>
       <c r="E127" s="25"/>
@@ -7699,8 +7688,8 @@
       <c r="H127" s="11"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="25"/>
       <c r="D128" s="25"/>
       <c r="E128" s="25"/>
@@ -7709,8 +7698,8 @@
       <c r="H128" s="11"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="27"/>
-      <c r="B129" s="27"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
       <c r="E129" s="25"/>
@@ -7719,8 +7708,8 @@
       <c r="H129" s="11"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="27"/>
-      <c r="B130" s="27"/>
+      <c r="A130" s="26"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
@@ -7729,8 +7718,8 @@
       <c r="H130" s="11"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="27"/>
-      <c r="B131" s="27"/>
+      <c r="A131" s="26"/>
+      <c r="B131" s="26"/>
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
       <c r="E131" s="25"/>
@@ -7739,8 +7728,8 @@
       <c r="H131" s="11"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="26"/>
       <c r="C132" s="25"/>
       <c r="D132" s="25"/>
       <c r="E132" s="25"/>
@@ -7749,8 +7738,8 @@
       <c r="H132" s="11"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="27"/>
-      <c r="B133" s="27"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="26"/>
       <c r="C133" s="25"/>
       <c r="D133" s="25"/>
       <c r="E133" s="25"/>
@@ -7759,8 +7748,8 @@
       <c r="H133" s="11"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="27"/>
-      <c r="B134" s="27"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="26"/>
       <c r="C134" s="25"/>
       <c r="D134" s="25"/>
       <c r="E134" s="25"/>
@@ -7769,8 +7758,8 @@
       <c r="H134" s="11"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="27"/>
-      <c r="B135" s="27"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="26"/>
       <c r="C135" s="25"/>
       <c r="D135" s="25"/>
       <c r="E135" s="25"/>
@@ -7779,8 +7768,8 @@
       <c r="H135" s="11"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="26"/>
       <c r="C136" s="25"/>
       <c r="D136" s="25"/>
       <c r="E136" s="25"/>
@@ -7789,8 +7778,8 @@
       <c r="H136" s="11"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
       <c r="C137" s="25"/>
       <c r="D137" s="25"/>
       <c r="E137" s="25"/>
@@ -7799,8 +7788,8 @@
       <c r="H137" s="11"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
       <c r="C138" s="25"/>
       <c r="D138" s="25"/>
       <c r="E138" s="25"/>
@@ -7809,8 +7798,8 @@
       <c r="H138" s="11"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
       <c r="C139" s="25"/>
       <c r="D139" s="25"/>
       <c r="E139" s="25"/>
@@ -7819,8 +7808,8 @@
       <c r="H139" s="11"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="26"/>
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
       <c r="E140" s="25"/>
@@ -7829,8 +7818,8 @@
       <c r="H140" s="11"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
       <c r="E141" s="25"/>
@@ -7839,8 +7828,8 @@
       <c r="H141" s="11"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="27"/>
-      <c r="B142" s="27"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="26"/>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
       <c r="E142" s="25"/>
@@ -7849,8 +7838,8 @@
       <c r="H142" s="11"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
       <c r="E143" s="25"/>
@@ -7859,8 +7848,8 @@
       <c r="H143" s="11"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
       <c r="C144" s="25"/>
       <c r="D144" s="25"/>
       <c r="E144" s="25"/>
@@ -7869,8 +7858,8 @@
       <c r="H144" s="11"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
       <c r="C145" s="25"/>
       <c r="D145" s="25"/>
       <c r="E145" s="25"/>
@@ -7879,8 +7868,8 @@
       <c r="H145" s="11"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="27"/>
-      <c r="B146" s="27"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
       <c r="C146" s="25"/>
       <c r="D146" s="25"/>
       <c r="E146" s="25"/>
@@ -7889,8 +7878,8 @@
       <c r="H146" s="11"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
       <c r="C147" s="25"/>
       <c r="D147" s="25"/>
       <c r="E147" s="25"/>
@@ -7899,8 +7888,8 @@
       <c r="H147" s="11"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148" s="27"/>
-      <c r="B148" s="27"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
       <c r="C148" s="25"/>
       <c r="D148" s="25"/>
       <c r="E148" s="25"/>
@@ -7909,8 +7898,8 @@
       <c r="H148" s="11"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A149" s="27"/>
-      <c r="B149" s="27"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
       <c r="C149" s="25"/>
       <c r="D149" s="25"/>
       <c r="E149" s="25"/>
@@ -7919,8 +7908,8 @@
       <c r="H149" s="11"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A150" s="27"/>
-      <c r="B150" s="27"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
       <c r="E150" s="25"/>
@@ -7929,8 +7918,8 @@
       <c r="H150" s="11"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
       <c r="C151" s="25"/>
       <c r="D151" s="25"/>
       <c r="E151" s="25"/>
@@ -7939,8 +7928,8 @@
       <c r="H151" s="11"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
       <c r="C152" s="25"/>
       <c r="D152" s="25"/>
       <c r="E152" s="25"/>
@@ -7949,8 +7938,8 @@
       <c r="H152" s="11"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A153" s="27"/>
-      <c r="B153" s="27"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
       <c r="C153" s="25"/>
       <c r="D153" s="25"/>
       <c r="E153" s="25"/>
@@ -7959,8 +7948,8 @@
       <c r="H153" s="11"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A154" s="27"/>
-      <c r="B154" s="27"/>
+      <c r="A154" s="26"/>
+      <c r="B154" s="26"/>
       <c r="C154" s="25"/>
       <c r="D154" s="25"/>
       <c r="E154" s="25"/>
@@ -7969,8 +7958,8 @@
       <c r="H154" s="11"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="27"/>
-      <c r="B155" s="27"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="26"/>
       <c r="C155" s="25"/>
       <c r="D155" s="25"/>
       <c r="E155" s="25"/>
@@ -7979,8 +7968,8 @@
       <c r="H155" s="11"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A156" s="27"/>
-      <c r="B156" s="27"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
       <c r="C156" s="25"/>
       <c r="D156" s="25"/>
       <c r="E156" s="25"/>
@@ -7989,8 +7978,8 @@
       <c r="H156" s="11"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A157" s="27"/>
-      <c r="B157" s="27"/>
+      <c r="A157" s="26"/>
+      <c r="B157" s="26"/>
       <c r="C157" s="25"/>
       <c r="D157" s="25"/>
       <c r="E157" s="25"/>
@@ -7999,8 +7988,8 @@
       <c r="H157" s="11"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" s="27"/>
-      <c r="B158" s="27"/>
+      <c r="A158" s="26"/>
+      <c r="B158" s="26"/>
       <c r="C158" s="25"/>
       <c r="D158" s="25"/>
       <c r="E158" s="25"/>
@@ -8009,8 +7998,8 @@
       <c r="H158" s="11"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="27"/>
-      <c r="B159" s="27"/>
+      <c r="A159" s="26"/>
+      <c r="B159" s="26"/>
       <c r="C159" s="25"/>
       <c r="D159" s="25"/>
       <c r="E159" s="25"/>
@@ -8019,8 +8008,8 @@
       <c r="H159" s="11"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A160" s="27"/>
-      <c r="B160" s="27"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
       <c r="C160" s="25"/>
       <c r="D160" s="25"/>
       <c r="E160" s="25"/>
@@ -8029,8 +8018,8 @@
       <c r="H160" s="11"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A161" s="27"/>
-      <c r="B161" s="27"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
       <c r="C161" s="25"/>
       <c r="D161" s="25"/>
       <c r="E161" s="25"/>
@@ -8039,8 +8028,8 @@
       <c r="H161" s="11"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A162" s="27"/>
-      <c r="B162" s="27"/>
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
       <c r="C162" s="25"/>
       <c r="D162" s="25"/>
       <c r="E162" s="25"/>
@@ -8049,8 +8038,8 @@
       <c r="H162" s="11"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A163" s="27"/>
-      <c r="B163" s="27"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="26"/>
       <c r="C163" s="25"/>
       <c r="D163" s="25"/>
       <c r="E163" s="25"/>
@@ -8059,8 +8048,8 @@
       <c r="H163" s="11"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A164" s="27"/>
-      <c r="B164" s="27"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="26"/>
       <c r="C164" s="25"/>
       <c r="D164" s="25"/>
       <c r="E164" s="25"/>
@@ -8069,8 +8058,8 @@
       <c r="H164" s="11"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="27"/>
-      <c r="B165" s="27"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
       <c r="C165" s="25"/>
       <c r="D165" s="25"/>
       <c r="E165" s="25"/>
@@ -8079,8 +8068,8 @@
       <c r="H165" s="11"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A166" s="27"/>
-      <c r="B166" s="27"/>
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
       <c r="C166" s="25"/>
       <c r="D166" s="25"/>
       <c r="E166" s="25"/>
@@ -8089,8 +8078,8 @@
       <c r="H166" s="11"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" s="27"/>
-      <c r="B167" s="27"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
       <c r="C167" s="25"/>
       <c r="D167" s="25"/>
       <c r="E167" s="25"/>
@@ -8099,8 +8088,8 @@
       <c r="H167" s="11"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A168" s="27"/>
-      <c r="B168" s="27"/>
+      <c r="A168" s="26"/>
+      <c r="B168" s="26"/>
       <c r="C168" s="25"/>
       <c r="D168" s="25"/>
       <c r="E168" s="25"/>
@@ -8109,8 +8098,8 @@
       <c r="H168" s="11"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="27"/>
-      <c r="B169" s="27"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="26"/>
       <c r="C169" s="25"/>
       <c r="D169" s="25"/>
       <c r="E169" s="25"/>
@@ -8119,8 +8108,8 @@
       <c r="H169" s="11"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A170" s="27"/>
-      <c r="B170" s="27"/>
+      <c r="A170" s="26"/>
+      <c r="B170" s="26"/>
       <c r="C170" s="25"/>
       <c r="D170" s="25"/>
       <c r="E170" s="25"/>
@@ -8129,8 +8118,8 @@
       <c r="H170" s="11"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" s="27"/>
-      <c r="B171" s="27"/>
+      <c r="A171" s="26"/>
+      <c r="B171" s="26"/>
       <c r="C171" s="25"/>
       <c r="D171" s="25"/>
       <c r="E171" s="25"/>
@@ -8139,8 +8128,8 @@
       <c r="H171" s="11"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" s="27"/>
-      <c r="B172" s="27"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
       <c r="C172" s="25"/>
       <c r="D172" s="25"/>
       <c r="E172" s="25"/>
@@ -8149,8 +8138,8 @@
       <c r="H172" s="11"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="27"/>
-      <c r="B173" s="27"/>
+      <c r="A173" s="26"/>
+      <c r="B173" s="26"/>
       <c r="C173" s="25"/>
       <c r="D173" s="25"/>
       <c r="E173" s="25"/>
@@ -8159,8 +8148,8 @@
       <c r="H173" s="11"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="27"/>
-      <c r="B174" s="27"/>
+      <c r="A174" s="26"/>
+      <c r="B174" s="26"/>
       <c r="C174" s="25"/>
       <c r="D174" s="25"/>
       <c r="E174" s="25"/>
@@ -8169,8 +8158,8 @@
       <c r="H174" s="11"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="27"/>
-      <c r="B175" s="27"/>
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
       <c r="C175" s="25"/>
       <c r="D175" s="25"/>
       <c r="E175" s="25"/>
@@ -8179,8 +8168,8 @@
       <c r="H175" s="11"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176" s="27"/>
-      <c r="B176" s="27"/>
+      <c r="A176" s="26"/>
+      <c r="B176" s="26"/>
       <c r="C176" s="25"/>
       <c r="D176" s="25"/>
       <c r="E176" s="25"/>
@@ -8189,8 +8178,8 @@
       <c r="H176" s="11"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" s="27"/>
-      <c r="B177" s="27"/>
+      <c r="A177" s="26"/>
+      <c r="B177" s="26"/>
       <c r="C177" s="25"/>
       <c r="D177" s="25"/>
       <c r="E177" s="25"/>
@@ -8199,8 +8188,8 @@
       <c r="H177" s="11"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="27"/>
-      <c r="B178" s="27"/>
+      <c r="A178" s="26"/>
+      <c r="B178" s="26"/>
       <c r="C178" s="25"/>
       <c r="D178" s="25"/>
       <c r="E178" s="25"/>
@@ -8209,8 +8198,8 @@
       <c r="H178" s="11"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="27"/>
-      <c r="B179" s="27"/>
+      <c r="A179" s="26"/>
+      <c r="B179" s="26"/>
       <c r="C179" s="25"/>
       <c r="D179" s="25"/>
       <c r="E179" s="25"/>
@@ -8219,8 +8208,8 @@
       <c r="H179" s="11"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" s="27"/>
-      <c r="B180" s="27"/>
+      <c r="A180" s="26"/>
+      <c r="B180" s="26"/>
       <c r="C180" s="25"/>
       <c r="D180" s="25"/>
       <c r="E180" s="25"/>
@@ -8229,8 +8218,8 @@
       <c r="H180" s="11"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A181" s="27"/>
-      <c r="B181" s="27"/>
+      <c r="A181" s="26"/>
+      <c r="B181" s="26"/>
       <c r="C181" s="25"/>
       <c r="D181" s="25"/>
       <c r="E181" s="25"/>
@@ -8239,8 +8228,8 @@
       <c r="H181" s="11"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" s="27"/>
-      <c r="B182" s="27"/>
+      <c r="A182" s="26"/>
+      <c r="B182" s="26"/>
       <c r="C182" s="25"/>
       <c r="D182" s="25"/>
       <c r="E182" s="25"/>
@@ -8249,8 +8238,8 @@
       <c r="H182" s="11"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="27"/>
-      <c r="B183" s="27"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="26"/>
       <c r="C183" s="25"/>
       <c r="D183" s="25"/>
       <c r="E183" s="25"/>
@@ -8259,8 +8248,8 @@
       <c r="H183" s="11"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" s="27"/>
-      <c r="B184" s="27"/>
+      <c r="A184" s="26"/>
+      <c r="B184" s="26"/>
       <c r="C184" s="25"/>
       <c r="D184" s="25"/>
       <c r="E184" s="25"/>
@@ -8269,8 +8258,8 @@
       <c r="H184" s="11"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="27"/>
-      <c r="B185" s="27"/>
+      <c r="A185" s="26"/>
+      <c r="B185" s="26"/>
       <c r="C185" s="25"/>
       <c r="D185" s="25"/>
       <c r="E185" s="25"/>
@@ -8279,8 +8268,8 @@
       <c r="H185" s="11"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="27"/>
-      <c r="B186" s="27"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="26"/>
       <c r="C186" s="25"/>
       <c r="D186" s="25"/>
       <c r="E186" s="25"/>
@@ -8289,8 +8278,8 @@
       <c r="H186" s="11"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="27"/>
-      <c r="B187" s="27"/>
+      <c r="A187" s="26"/>
+      <c r="B187" s="26"/>
       <c r="C187" s="25"/>
       <c r="D187" s="25"/>
       <c r="E187" s="25"/>
@@ -8299,8 +8288,8 @@
       <c r="H187" s="11"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="27"/>
-      <c r="B188" s="27"/>
+      <c r="A188" s="26"/>
+      <c r="B188" s="26"/>
       <c r="C188" s="25"/>
       <c r="D188" s="25"/>
       <c r="E188" s="25"/>
@@ -8309,8 +8298,8 @@
       <c r="H188" s="11"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="27"/>
-      <c r="B189" s="27"/>
+      <c r="A189" s="26"/>
+      <c r="B189" s="26"/>
       <c r="C189" s="25"/>
       <c r="D189" s="25"/>
       <c r="E189" s="25"/>
@@ -8319,8 +8308,8 @@
       <c r="H189" s="11"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="27"/>
-      <c r="B190" s="27"/>
+      <c r="A190" s="26"/>
+      <c r="B190" s="26"/>
       <c r="C190" s="25"/>
       <c r="D190" s="25"/>
       <c r="E190" s="25"/>
@@ -8329,8 +8318,8 @@
       <c r="H190" s="11"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="27"/>
-      <c r="B191" s="27"/>
+      <c r="A191" s="26"/>
+      <c r="B191" s="26"/>
       <c r="C191" s="25"/>
       <c r="D191" s="25"/>
       <c r="E191" s="25"/>
@@ -8339,8 +8328,8 @@
       <c r="H191" s="11"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" s="27"/>
-      <c r="B192" s="27"/>
+      <c r="A192" s="26"/>
+      <c r="B192" s="26"/>
       <c r="C192" s="25"/>
       <c r="D192" s="25"/>
       <c r="E192" s="25"/>
@@ -8349,8 +8338,8 @@
       <c r="H192" s="11"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="27"/>
-      <c r="B193" s="27"/>
+      <c r="A193" s="26"/>
+      <c r="B193" s="26"/>
       <c r="C193" s="25"/>
       <c r="D193" s="25"/>
       <c r="E193" s="25"/>
@@ -8359,8 +8348,8 @@
       <c r="H193" s="11"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" s="27"/>
-      <c r="B194" s="27"/>
+      <c r="A194" s="26"/>
+      <c r="B194" s="26"/>
       <c r="C194" s="25"/>
       <c r="D194" s="25"/>
       <c r="E194" s="25"/>
@@ -8369,8 +8358,8 @@
       <c r="H194" s="11"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="27"/>
-      <c r="B195" s="27"/>
+      <c r="A195" s="26"/>
+      <c r="B195" s="26"/>
       <c r="C195" s="25"/>
       <c r="D195" s="25"/>
       <c r="E195" s="25"/>
@@ -8379,8 +8368,8 @@
       <c r="H195" s="11"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="27"/>
-      <c r="B196" s="27"/>
+      <c r="A196" s="26"/>
+      <c r="B196" s="26"/>
       <c r="C196" s="25"/>
       <c r="D196" s="25"/>
       <c r="E196" s="25"/>
@@ -8389,8 +8378,8 @@
       <c r="H196" s="11"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="27"/>
-      <c r="B197" s="27"/>
+      <c r="A197" s="26"/>
+      <c r="B197" s="26"/>
       <c r="C197" s="25"/>
       <c r="D197" s="25"/>
       <c r="E197" s="25"/>
@@ -8399,8 +8388,8 @@
       <c r="H197" s="11"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="27"/>
-      <c r="B198" s="27"/>
+      <c r="A198" s="26"/>
+      <c r="B198" s="26"/>
       <c r="C198" s="25"/>
       <c r="D198" s="25"/>
       <c r="E198" s="25"/>
@@ -8409,8 +8398,8 @@
       <c r="H198" s="11"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="27"/>
-      <c r="B199" s="27"/>
+      <c r="A199" s="26"/>
+      <c r="B199" s="26"/>
       <c r="C199" s="25"/>
       <c r="D199" s="25"/>
       <c r="E199" s="25"/>
@@ -8419,8 +8408,8 @@
       <c r="H199" s="11"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="27"/>
-      <c r="B200" s="27"/>
+      <c r="A200" s="26"/>
+      <c r="B200" s="26"/>
       <c r="C200" s="25"/>
       <c r="D200" s="25"/>
       <c r="E200" s="25"/>
@@ -8429,13 +8418,13 @@
       <c r="H200" s="11"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="31"/>
-      <c r="B201" s="31"/>
-      <c r="C201" s="32"/>
-      <c r="D201" s="32"/>
-      <c r="E201" s="32"/>
-      <c r="F201" s="32"/>
-      <c r="G201" s="33"/>
+      <c r="A201" s="30"/>
+      <c r="B201" s="30"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="31"/>
+      <c r="G201" s="32"/>
       <c r="H201" s="11"/>
     </row>
   </sheetData>
@@ -8477,720 +8466,720 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="28"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="28"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="28"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="28"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="28"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="28"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="28"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="28"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="28"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="28"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="28"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="28"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="28"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="28"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="28"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="28"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="28"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
-      <c r="D31" s="28"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="28"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="28"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
-      <c r="D34" s="28"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="28"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
-      <c r="D36" s="28"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
-      <c r="D37" s="28"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
-      <c r="D38" s="28"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
-      <c r="D39" s="28"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
-      <c r="D40" s="28"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
-      <c r="D41" s="28"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
-      <c r="D42" s="28"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
-      <c r="D43" s="28"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
-      <c r="D44" s="28"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="28"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
-      <c r="D46" s="28"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
-      <c r="D47" s="28"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
-      <c r="D48" s="28"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
-      <c r="D49" s="28"/>
+      <c r="D49" s="27"/>
       <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
-      <c r="D50" s="28"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="28"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="28"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
-      <c r="D53" s="28"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
-      <c r="D54" s="28"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
-      <c r="D55" s="28"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
-      <c r="D56" s="28"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
-      <c r="D57" s="28"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
-      <c r="D58" s="28"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
-      <c r="D59" s="28"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
-      <c r="D60" s="28"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
-      <c r="D61" s="28"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
-      <c r="D62" s="28"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
-      <c r="D63" s="28"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
-      <c r="D64" s="28"/>
+      <c r="D64" s="27"/>
       <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
-      <c r="D65" s="28"/>
+      <c r="D65" s="27"/>
       <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
-      <c r="D66" s="28"/>
+      <c r="D66" s="27"/>
       <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
-      <c r="D67" s="28"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
-      <c r="D68" s="28"/>
+      <c r="D68" s="27"/>
       <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
-      <c r="D69" s="28"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
-      <c r="D70" s="28"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
-      <c r="D71" s="28"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
-      <c r="D72" s="28"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
-      <c r="D73" s="28"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
-      <c r="D74" s="28"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
-      <c r="D75" s="28"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="13"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
-      <c r="D76" s="28"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
-      <c r="D77" s="28"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
-      <c r="D78" s="28"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
-      <c r="D79" s="28"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
-      <c r="D80" s="28"/>
+      <c r="D80" s="27"/>
       <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
-      <c r="D81" s="28"/>
+      <c r="D81" s="27"/>
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
-      <c r="D82" s="28"/>
+      <c r="D82" s="27"/>
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
-      <c r="D83" s="28"/>
+      <c r="D83" s="27"/>
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
-      <c r="D84" s="28"/>
+      <c r="D84" s="27"/>
       <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
-      <c r="D85" s="28"/>
+      <c r="D85" s="27"/>
       <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
-      <c r="D86" s="28"/>
+      <c r="D86" s="27"/>
       <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
-      <c r="D87" s="28"/>
+      <c r="D87" s="27"/>
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
-      <c r="D88" s="28"/>
+      <c r="D88" s="27"/>
       <c r="E88" s="13"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
-      <c r="D89" s="28"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
-      <c r="D90" s="28"/>
+      <c r="D90" s="27"/>
       <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
-      <c r="D91" s="28"/>
+      <c r="D91" s="27"/>
       <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
-      <c r="D92" s="28"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
-      <c r="D93" s="28"/>
+      <c r="D93" s="27"/>
       <c r="E93" s="13"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
-      <c r="D94" s="28"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="13"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
-      <c r="D95" s="28"/>
+      <c r="D95" s="27"/>
       <c r="E95" s="13"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
-      <c r="D96" s="28"/>
+      <c r="D96" s="27"/>
       <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
-      <c r="D97" s="28"/>
+      <c r="D97" s="27"/>
       <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
-      <c r="D98" s="28"/>
+      <c r="D98" s="27"/>
       <c r="E98" s="13"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
-      <c r="D99" s="28"/>
+      <c r="D99" s="27"/>
       <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
-      <c r="D100" s="28"/>
+      <c r="D100" s="27"/>
       <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
-      <c r="D101" s="28"/>
+      <c r="D101" s="27"/>
       <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -9887,10 +9876,10 @@
       <c r="E200" s="13"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" s="32"/>
-      <c r="B201" s="32"/>
-      <c r="C201" s="32"/>
-      <c r="D201" s="33"/>
+      <c r="A201" s="31"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="32"/>
       <c r="E201" s="13"/>
     </row>
   </sheetData>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEE280D-461F-4B77-80D6-24B709AEC5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD27BF9B-6CA6-4157-B451-C9BC31535461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -366,25 +366,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="43">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -813,6 +794,25 @@
         <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1313,42 +1313,42 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ロボット名" dataDxfId="24"/>
     <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="マシン名" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ロボットの種類" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="クラシックフォルダー名" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="クラシックフォルダー名" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="クラシックフォルダー名" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="ロボットID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="ロボットの種類" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ユーザー名" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="結果" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="クラシックフォルダー名" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="ロボットID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="ロボットの種類" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ユーザー名" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="結果" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="クラシックフォルダーID" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="クラシックフォルダー名" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ロボット名" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="クラシックフォルダーID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="クラシックフォルダー名" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ロボット名" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1619,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1627,14 +1627,13 @@
   <cols>
     <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.36328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="7" width="25.6328125" style="3" customWidth="1"/>
     <col min="8" max="8" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.81640625" customWidth="1"/>
     <col min="14" max="14" width="20.54296875" customWidth="1"/>
@@ -4117,12 +4116,11 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.453125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="25.6328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.90625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="25.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="45.6328125" style="3" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
@@ -6390,13 +6388,12 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.08984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15" style="3" customWidth="1"/>
-    <col min="8" max="8" width="37.90625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="25.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.6328125" style="3" customWidth="1"/>
     <col min="9" max="9" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
@@ -8451,7 +8448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8459,9 +8456,9 @@
   <cols>
     <col min="1" max="1" width="26.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.36328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.6328125" style="3" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD27BF9B-6CA6-4157-B451-C9BC31535461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C74C3F1-ADB8-4069-AC78-7377EE1FA30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1619,20 +1619,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" customWidth="1"/>
     <col min="4" max="4" width="25.6328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6328125" customWidth="1"/>
     <col min="6" max="7" width="25.6328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.6328125" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.81640625" customWidth="1"/>
@@ -4115,10 +4115,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="25.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="25.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6328125" style="3" customWidth="1"/>
     <col min="9" max="9" width="45.6328125" style="3" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="3"/>
@@ -6387,11 +6388,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.6328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="25.6328125" style="3" customWidth="1"/>
     <col min="8" max="8" width="45.6328125" style="3" customWidth="1"/>
     <col min="9" max="9" width="20" style="3" bestFit="1" customWidth="1"/>
@@ -8448,7 +8449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C74C3F1-ADB8-4069-AC78-7377EE1FA30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996168D2-0741-44B7-89B2-2399A49C9A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,6 +366,33 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="43">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -739,31 +766,6 @@
         </top>
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
@@ -1309,46 +1311,46 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="クラシックフォルダー名" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{917239B9-E515-41D2-A78C-3FC96DE778A3}" name="ホスティングの種類" dataDxfId="25"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ロボット名" dataDxfId="24"/>
     <tableColumn id="8" xr3:uid="{EC7EF4C5-F9D7-42AE-8607-15F192F1F7C2}" name="マシン名" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ロボットの種類" dataDxfId="22"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ユーザー名" dataDxfId="21"/>
     <tableColumn id="9" xr3:uid="{87DE0C4B-3613-4A46-97EB-8E89316E4169}" name="パスワード" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="クラシックフォルダー名" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロボットID" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="結果" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:H201" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="クラシックフォルダー名" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="ロボットID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="ロボットの種類" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ユーザー名" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="結果" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{333D3A9E-3FA4-4D5E-B433-2B825479A48F}" name="クラシックフォルダー名" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{6D92007A-CCE5-4D51-94D1-94347C30B2F3}" name="ロボットID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="ロボット名" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{139D4FF0-29DC-456F-900A-C1DCB8329286}" name="マシン名" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="ロボットの種類" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ユーザー名" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{447FC96B-2260-4282-ADBD-FFE988EFAB1F}" name="結果" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="クラシックフォルダーID" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="クラシックフォルダー名" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ロボット名" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="クラシックフォルダーID" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{C82843F4-F52A-4C70-809A-7B17195DD0FA}" name="クラシックフォルダー名" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{75B19515-EFED-4C00-8354-50C1E325CA1F}" name="ロボットID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ロボット名" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1623,27 +1625,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="7" width="25.6328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.81640625" customWidth="1"/>
-    <col min="14" max="14" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="7" width="25.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="26.453125" customWidth="1"/>
-    <col min="19" max="19" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -1687,7 +1689,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -1699,7 +1701,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -1711,7 +1713,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1723,7 +1725,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -1735,7 +1737,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1747,7 +1749,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -1759,7 +1761,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -1771,7 +1773,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -1783,7 +1785,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -1795,7 +1797,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -1807,7 +1809,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
@@ -1819,7 +1821,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -1831,7 +1833,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -1843,7 +1845,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -1855,7 +1857,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -1867,7 +1869,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -1879,7 +1881,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -1891,7 +1893,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -1903,7 +1905,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -1915,7 +1917,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -1927,7 +1929,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -1939,7 +1941,7 @@
       <c r="I23" s="17"/>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -1951,7 +1953,7 @@
       <c r="I24" s="17"/>
       <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -1963,7 +1965,7 @@
       <c r="I25" s="17"/>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -1975,7 +1977,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -1987,7 +1989,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="16"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
@@ -1999,7 +2001,7 @@
       <c r="I28" s="17"/>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
@@ -2011,7 +2013,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
@@ -2023,7 +2025,7 @@
       <c r="I30" s="17"/>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -2035,7 +2037,7 @@
       <c r="I31" s="17"/>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
@@ -2047,7 +2049,7 @@
       <c r="I32" s="17"/>
       <c r="J32" s="16"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
@@ -2059,7 +2061,7 @@
       <c r="I33" s="17"/>
       <c r="J33" s="16"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
@@ -2071,7 +2073,7 @@
       <c r="I34" s="17"/>
       <c r="J34" s="16"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
@@ -2083,7 +2085,7 @@
       <c r="I35" s="17"/>
       <c r="J35" s="16"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
@@ -2095,7 +2097,7 @@
       <c r="I36" s="17"/>
       <c r="J36" s="16"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
@@ -2107,7 +2109,7 @@
       <c r="I37" s="17"/>
       <c r="J37" s="16"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
@@ -2119,7 +2121,7 @@
       <c r="I38" s="17"/>
       <c r="J38" s="16"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
@@ -2131,7 +2133,7 @@
       <c r="I39" s="17"/>
       <c r="J39" s="16"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
@@ -2143,7 +2145,7 @@
       <c r="I40" s="17"/>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
@@ -2155,7 +2157,7 @@
       <c r="I41" s="17"/>
       <c r="J41" s="16"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
@@ -2167,7 +2169,7 @@
       <c r="I42" s="17"/>
       <c r="J42" s="16"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
@@ -2179,7 +2181,7 @@
       <c r="I43" s="17"/>
       <c r="J43" s="16"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
@@ -2191,7 +2193,7 @@
       <c r="I44" s="17"/>
       <c r="J44" s="16"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
@@ -2203,7 +2205,7 @@
       <c r="I45" s="17"/>
       <c r="J45" s="16"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
@@ -2215,7 +2217,7 @@
       <c r="I46" s="17"/>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
@@ -2227,7 +2229,7 @@
       <c r="I47" s="17"/>
       <c r="J47" s="16"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
@@ -2239,7 +2241,7 @@
       <c r="I48" s="17"/>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
@@ -2251,7 +2253,7 @@
       <c r="I49" s="17"/>
       <c r="J49" s="16"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
@@ -2263,7 +2265,7 @@
       <c r="I50" s="17"/>
       <c r="J50" s="16"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
@@ -2275,7 +2277,7 @@
       <c r="I51" s="17"/>
       <c r="J51" s="16"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
@@ -2287,7 +2289,7 @@
       <c r="I52" s="17"/>
       <c r="J52" s="16"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
@@ -2299,7 +2301,7 @@
       <c r="I53" s="17"/>
       <c r="J53" s="16"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
@@ -2311,7 +2313,7 @@
       <c r="I54" s="17"/>
       <c r="J54" s="16"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
@@ -2323,7 +2325,7 @@
       <c r="I55" s="17"/>
       <c r="J55" s="16"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
@@ -2335,7 +2337,7 @@
       <c r="I56" s="17"/>
       <c r="J56" s="16"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
@@ -2347,7 +2349,7 @@
       <c r="I57" s="17"/>
       <c r="J57" s="16"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
@@ -2359,7 +2361,7 @@
       <c r="I58" s="17"/>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
@@ -2371,7 +2373,7 @@
       <c r="I59" s="17"/>
       <c r="J59" s="16"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
@@ -2383,7 +2385,7 @@
       <c r="I60" s="17"/>
       <c r="J60" s="16"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="11"/>
       <c r="C61" s="12"/>
@@ -2395,7 +2397,7 @@
       <c r="I61" s="17"/>
       <c r="J61" s="16"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
@@ -2407,7 +2409,7 @@
       <c r="I62" s="17"/>
       <c r="J62" s="16"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
       <c r="C63" s="12"/>
@@ -2419,7 +2421,7 @@
       <c r="I63" s="17"/>
       <c r="J63" s="16"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
@@ -2431,7 +2433,7 @@
       <c r="I64" s="17"/>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
@@ -2443,7 +2445,7 @@
       <c r="I65" s="17"/>
       <c r="J65" s="16"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
@@ -2455,7 +2457,7 @@
       <c r="I66" s="17"/>
       <c r="J66" s="16"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
@@ -2467,7 +2469,7 @@
       <c r="I67" s="17"/>
       <c r="J67" s="16"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
@@ -2479,7 +2481,7 @@
       <c r="I68" s="17"/>
       <c r="J68" s="16"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="11"/>
       <c r="C69" s="12"/>
@@ -2491,7 +2493,7 @@
       <c r="I69" s="17"/>
       <c r="J69" s="16"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
       <c r="C70" s="12"/>
@@ -2503,7 +2505,7 @@
       <c r="I70" s="17"/>
       <c r="J70" s="16"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="11"/>
       <c r="C71" s="12"/>
@@ -2515,7 +2517,7 @@
       <c r="I71" s="17"/>
       <c r="J71" s="16"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="12"/>
@@ -2527,7 +2529,7 @@
       <c r="I72" s="17"/>
       <c r="J72" s="16"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
       <c r="C73" s="12"/>
@@ -2539,7 +2541,7 @@
       <c r="I73" s="17"/>
       <c r="J73" s="16"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
@@ -2551,7 +2553,7 @@
       <c r="I74" s="17"/>
       <c r="J74" s="16"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="11"/>
       <c r="C75" s="12"/>
@@ -2563,7 +2565,7 @@
       <c r="I75" s="17"/>
       <c r="J75" s="16"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="12"/>
@@ -2575,7 +2577,7 @@
       <c r="I76" s="17"/>
       <c r="J76" s="16"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="11"/>
       <c r="C77" s="12"/>
@@ -2587,7 +2589,7 @@
       <c r="I77" s="17"/>
       <c r="J77" s="16"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
@@ -2599,7 +2601,7 @@
       <c r="I78" s="17"/>
       <c r="J78" s="16"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
@@ -2611,7 +2613,7 @@
       <c r="I79" s="17"/>
       <c r="J79" s="16"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
@@ -2623,7 +2625,7 @@
       <c r="I80" s="17"/>
       <c r="J80" s="16"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="12"/>
@@ -2635,7 +2637,7 @@
       <c r="I81" s="17"/>
       <c r="J81" s="16"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
@@ -2647,7 +2649,7 @@
       <c r="I82" s="17"/>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
@@ -2659,7 +2661,7 @@
       <c r="I83" s="17"/>
       <c r="J83" s="16"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
@@ -2671,7 +2673,7 @@
       <c r="I84" s="17"/>
       <c r="J84" s="16"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
@@ -2683,7 +2685,7 @@
       <c r="I85" s="17"/>
       <c r="J85" s="16"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
@@ -2695,7 +2697,7 @@
       <c r="I86" s="17"/>
       <c r="J86" s="16"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
@@ -2707,7 +2709,7 @@
       <c r="I87" s="17"/>
       <c r="J87" s="16"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
@@ -2719,7 +2721,7 @@
       <c r="I88" s="17"/>
       <c r="J88" s="16"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
@@ -2731,7 +2733,7 @@
       <c r="I89" s="17"/>
       <c r="J89" s="16"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
@@ -2743,7 +2745,7 @@
       <c r="I90" s="17"/>
       <c r="J90" s="16"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="11"/>
       <c r="C91" s="12"/>
@@ -2755,7 +2757,7 @@
       <c r="I91" s="17"/>
       <c r="J91" s="16"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="11"/>
       <c r="C92" s="12"/>
@@ -2767,7 +2769,7 @@
       <c r="I92" s="17"/>
       <c r="J92" s="16"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="11"/>
       <c r="C93" s="12"/>
@@ -2779,7 +2781,7 @@
       <c r="I93" s="17"/>
       <c r="J93" s="16"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
@@ -2791,7 +2793,7 @@
       <c r="I94" s="17"/>
       <c r="J94" s="16"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="11"/>
       <c r="C95" s="12"/>
@@ -2803,7 +2805,7 @@
       <c r="I95" s="17"/>
       <c r="J95" s="16"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="11"/>
       <c r="C96" s="12"/>
@@ -2815,7 +2817,7 @@
       <c r="I96" s="17"/>
       <c r="J96" s="16"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="11"/>
       <c r="C97" s="12"/>
@@ -2827,7 +2829,7 @@
       <c r="I97" s="17"/>
       <c r="J97" s="16"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="11"/>
       <c r="C98" s="12"/>
@@ -2839,7 +2841,7 @@
       <c r="I98" s="17"/>
       <c r="J98" s="16"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="11"/>
       <c r="C99" s="12"/>
@@ -2851,7 +2853,7 @@
       <c r="I99" s="17"/>
       <c r="J99" s="16"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
       <c r="C100" s="12"/>
@@ -2863,7 +2865,7 @@
       <c r="I100" s="17"/>
       <c r="J100" s="16"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="19"/>
       <c r="C101" s="20"/>
@@ -2875,7 +2877,7 @@
       <c r="I101" s="23"/>
       <c r="J101" s="24"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -2887,7 +2889,7 @@
       <c r="I102" s="28"/>
       <c r="J102" s="16"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -2899,7 +2901,7 @@
       <c r="I103" s="28"/>
       <c r="J103" s="16"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -2911,7 +2913,7 @@
       <c r="I104" s="28"/>
       <c r="J104" s="16"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -2923,7 +2925,7 @@
       <c r="I105" s="28"/>
       <c r="J105" s="16"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -2935,7 +2937,7 @@
       <c r="I106" s="28"/>
       <c r="J106" s="16"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -2947,7 +2949,7 @@
       <c r="I107" s="28"/>
       <c r="J107" s="16"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -2959,7 +2961,7 @@
       <c r="I108" s="28"/>
       <c r="J108" s="16"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -2971,7 +2973,7 @@
       <c r="I109" s="28"/>
       <c r="J109" s="16"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -2983,7 +2985,7 @@
       <c r="I110" s="28"/>
       <c r="J110" s="16"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -2995,7 +2997,7 @@
       <c r="I111" s="28"/>
       <c r="J111" s="16"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -3007,7 +3009,7 @@
       <c r="I112" s="28"/>
       <c r="J112" s="16"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -3019,7 +3021,7 @@
       <c r="I113" s="28"/>
       <c r="J113" s="16"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -3031,7 +3033,7 @@
       <c r="I114" s="28"/>
       <c r="J114" s="16"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -3043,7 +3045,7 @@
       <c r="I115" s="28"/>
       <c r="J115" s="16"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -3055,7 +3057,7 @@
       <c r="I116" s="28"/>
       <c r="J116" s="16"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -3067,7 +3069,7 @@
       <c r="I117" s="28"/>
       <c r="J117" s="16"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -3079,7 +3081,7 @@
       <c r="I118" s="28"/>
       <c r="J118" s="16"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -3091,7 +3093,7 @@
       <c r="I119" s="28"/>
       <c r="J119" s="16"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -3103,7 +3105,7 @@
       <c r="I120" s="28"/>
       <c r="J120" s="16"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -3115,7 +3117,7 @@
       <c r="I121" s="28"/>
       <c r="J121" s="16"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -3127,7 +3129,7 @@
       <c r="I122" s="28"/>
       <c r="J122" s="16"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -3139,7 +3141,7 @@
       <c r="I123" s="28"/>
       <c r="J123" s="16"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -3151,7 +3153,7 @@
       <c r="I124" s="28"/>
       <c r="J124" s="16"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -3163,7 +3165,7 @@
       <c r="I125" s="28"/>
       <c r="J125" s="16"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -3175,7 +3177,7 @@
       <c r="I126" s="28"/>
       <c r="J126" s="16"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -3187,7 +3189,7 @@
       <c r="I127" s="28"/>
       <c r="J127" s="16"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -3199,7 +3201,7 @@
       <c r="I128" s="28"/>
       <c r="J128" s="16"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -3211,7 +3213,7 @@
       <c r="I129" s="28"/>
       <c r="J129" s="16"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -3223,7 +3225,7 @@
       <c r="I130" s="28"/>
       <c r="J130" s="16"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -3235,7 +3237,7 @@
       <c r="I131" s="28"/>
       <c r="J131" s="16"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -3247,7 +3249,7 @@
       <c r="I132" s="28"/>
       <c r="J132" s="16"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -3259,7 +3261,7 @@
       <c r="I133" s="28"/>
       <c r="J133" s="16"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -3271,7 +3273,7 @@
       <c r="I134" s="28"/>
       <c r="J134" s="16"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -3283,7 +3285,7 @@
       <c r="I135" s="28"/>
       <c r="J135" s="16"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -3295,7 +3297,7 @@
       <c r="I136" s="28"/>
       <c r="J136" s="16"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -3307,7 +3309,7 @@
       <c r="I137" s="28"/>
       <c r="J137" s="16"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -3319,7 +3321,7 @@
       <c r="I138" s="28"/>
       <c r="J138" s="16"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -3331,7 +3333,7 @@
       <c r="I139" s="28"/>
       <c r="J139" s="16"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -3343,7 +3345,7 @@
       <c r="I140" s="28"/>
       <c r="J140" s="16"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -3355,7 +3357,7 @@
       <c r="I141" s="28"/>
       <c r="J141" s="16"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -3367,7 +3369,7 @@
       <c r="I142" s="28"/>
       <c r="J142" s="16"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -3379,7 +3381,7 @@
       <c r="I143" s="28"/>
       <c r="J143" s="16"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -3391,7 +3393,7 @@
       <c r="I144" s="28"/>
       <c r="J144" s="16"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -3403,7 +3405,7 @@
       <c r="I145" s="28"/>
       <c r="J145" s="16"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -3415,7 +3417,7 @@
       <c r="I146" s="28"/>
       <c r="J146" s="16"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -3427,7 +3429,7 @@
       <c r="I147" s="28"/>
       <c r="J147" s="16"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -3439,7 +3441,7 @@
       <c r="I148" s="28"/>
       <c r="J148" s="16"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -3451,7 +3453,7 @@
       <c r="I149" s="28"/>
       <c r="J149" s="16"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -3463,7 +3465,7 @@
       <c r="I150" s="28"/>
       <c r="J150" s="16"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -3475,7 +3477,7 @@
       <c r="I151" s="28"/>
       <c r="J151" s="16"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -3487,7 +3489,7 @@
       <c r="I152" s="28"/>
       <c r="J152" s="16"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -3499,7 +3501,7 @@
       <c r="I153" s="28"/>
       <c r="J153" s="16"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -3511,7 +3513,7 @@
       <c r="I154" s="28"/>
       <c r="J154" s="16"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -3523,7 +3525,7 @@
       <c r="I155" s="28"/>
       <c r="J155" s="16"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -3535,7 +3537,7 @@
       <c r="I156" s="28"/>
       <c r="J156" s="16"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -3547,7 +3549,7 @@
       <c r="I157" s="28"/>
       <c r="J157" s="16"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -3559,7 +3561,7 @@
       <c r="I158" s="28"/>
       <c r="J158" s="16"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -3571,7 +3573,7 @@
       <c r="I159" s="28"/>
       <c r="J159" s="16"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -3583,7 +3585,7 @@
       <c r="I160" s="28"/>
       <c r="J160" s="16"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -3595,7 +3597,7 @@
       <c r="I161" s="28"/>
       <c r="J161" s="16"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -3607,7 +3609,7 @@
       <c r="I162" s="28"/>
       <c r="J162" s="16"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -3619,7 +3621,7 @@
       <c r="I163" s="28"/>
       <c r="J163" s="16"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -3631,7 +3633,7 @@
       <c r="I164" s="28"/>
       <c r="J164" s="16"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -3643,7 +3645,7 @@
       <c r="I165" s="28"/>
       <c r="J165" s="16"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -3655,7 +3657,7 @@
       <c r="I166" s="28"/>
       <c r="J166" s="16"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -3667,7 +3669,7 @@
       <c r="I167" s="28"/>
       <c r="J167" s="16"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -3679,7 +3681,7 @@
       <c r="I168" s="28"/>
       <c r="J168" s="16"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -3691,7 +3693,7 @@
       <c r="I169" s="28"/>
       <c r="J169" s="16"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -3703,7 +3705,7 @@
       <c r="I170" s="28"/>
       <c r="J170" s="16"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -3715,7 +3717,7 @@
       <c r="I171" s="28"/>
       <c r="J171" s="16"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -3727,7 +3729,7 @@
       <c r="I172" s="28"/>
       <c r="J172" s="16"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -3739,7 +3741,7 @@
       <c r="I173" s="28"/>
       <c r="J173" s="16"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -3751,7 +3753,7 @@
       <c r="I174" s="28"/>
       <c r="J174" s="16"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -3763,7 +3765,7 @@
       <c r="I175" s="28"/>
       <c r="J175" s="16"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -3775,7 +3777,7 @@
       <c r="I176" s="28"/>
       <c r="J176" s="16"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -3787,7 +3789,7 @@
       <c r="I177" s="28"/>
       <c r="J177" s="16"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -3799,7 +3801,7 @@
       <c r="I178" s="28"/>
       <c r="J178" s="16"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -3811,7 +3813,7 @@
       <c r="I179" s="28"/>
       <c r="J179" s="16"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -3823,7 +3825,7 @@
       <c r="I180" s="28"/>
       <c r="J180" s="16"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -3835,7 +3837,7 @@
       <c r="I181" s="28"/>
       <c r="J181" s="16"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -3847,7 +3849,7 @@
       <c r="I182" s="28"/>
       <c r="J182" s="16"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -3859,7 +3861,7 @@
       <c r="I183" s="28"/>
       <c r="J183" s="16"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -3871,7 +3873,7 @@
       <c r="I184" s="28"/>
       <c r="J184" s="16"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -3883,7 +3885,7 @@
       <c r="I185" s="28"/>
       <c r="J185" s="16"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -3895,7 +3897,7 @@
       <c r="I186" s="28"/>
       <c r="J186" s="16"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -3907,7 +3909,7 @@
       <c r="I187" s="28"/>
       <c r="J187" s="16"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -3919,7 +3921,7 @@
       <c r="I188" s="28"/>
       <c r="J188" s="16"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -3931,7 +3933,7 @@
       <c r="I189" s="28"/>
       <c r="J189" s="16"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -3943,7 +3945,7 @@
       <c r="I190" s="28"/>
       <c r="J190" s="16"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -3955,7 +3957,7 @@
       <c r="I191" s="28"/>
       <c r="J191" s="16"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -3967,7 +3969,7 @@
       <c r="I192" s="28"/>
       <c r="J192" s="16"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -3979,7 +3981,7 @@
       <c r="I193" s="28"/>
       <c r="J193" s="16"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -3991,7 +3993,7 @@
       <c r="I194" s="28"/>
       <c r="J194" s="16"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -4003,7 +4005,7 @@
       <c r="I195" s="28"/>
       <c r="J195" s="16"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -4015,7 +4017,7 @@
       <c r="I196" s="28"/>
       <c r="J196" s="16"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -4027,7 +4029,7 @@
       <c r="I197" s="28"/>
       <c r="J197" s="16"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -4039,7 +4041,7 @@
       <c r="I198" s="28"/>
       <c r="J198" s="16"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -4051,7 +4053,7 @@
       <c r="I199" s="28"/>
       <c r="J199" s="16"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -4063,7 +4065,7 @@
       <c r="I200" s="28"/>
       <c r="J200" s="16"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="18"/>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
@@ -4113,39 +4115,38 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="25.6328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="45.6328125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5" max="7" width="25.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>6</v>
@@ -4154,2220 +4155,2220 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="27"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="26"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="26"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="27"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="27"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="27"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="27"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="27"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="27"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="27"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="27"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="27"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="27"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="27"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="25"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="27"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="25"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="27"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="27"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="25"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="27"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="27"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="25"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="27"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="25"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="27"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="25"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="27"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="27"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="25"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="25"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="27"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="25"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="27"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="25"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="27"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="27"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="25"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="27"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="25"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="27"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="25"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="25"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="27"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="25"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="25"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="27"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="25"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="27"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="25"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="25"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="27"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="25"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="25"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="27"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="25"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="25"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="27"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="27"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="25"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="25"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="27"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="27"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="25"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="25"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="27"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="25"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="25"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="27"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="25"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="25"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="27"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="25"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="25"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="27"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="25"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="27"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="27"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="25"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="25"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="27"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="25"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="25"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="27"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="25"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="25"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="27"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="27"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="25"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="25"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="27"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="27"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="25"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="25"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="27"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="25"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="25"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="27"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="27"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="25"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="25"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="27"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="25"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="25"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="27"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="27"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="25"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="25"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="27"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="25"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="25"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="27"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="25"/>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="25"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="27"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="25"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="25"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="27"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="25"/>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="25"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="27"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="27"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="25"/>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="25"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="27"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="27"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="25"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="25"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="27"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="27"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="25"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="25"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="27"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="25"/>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="25"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="27"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="25"/>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="25"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="27"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="25"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="25"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="27"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="27"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="25"/>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="25"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="27"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="25"/>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="25"/>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="27"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="25"/>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="25"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="27"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="27"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="25"/>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="25"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="27"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="25"/>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="25"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="27"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="25"/>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="25"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="27"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="27"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="25"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="25"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="27"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="27"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="25"/>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="25"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="27"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="27"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="25"/>
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="25"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="27"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="25"/>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="25"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="27"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="25"/>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="25"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="27"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="27"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="25"/>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="25"/>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="27"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="27"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="25"/>
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="25"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="27"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="27"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="25"/>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="25"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="27"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="25"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="25"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="27"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="25"/>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="25"/>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="27"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="27"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="25"/>
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="25"/>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="27"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="27"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="25"/>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="25"/>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="27"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="27"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="25"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
-      <c r="D94" s="26"/>
+      <c r="D94" s="25"/>
       <c r="E94" s="26"/>
-      <c r="F94" s="25"/>
+      <c r="F94" s="26"/>
       <c r="G94" s="25"/>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
-      <c r="D95" s="26"/>
+      <c r="D95" s="25"/>
       <c r="E95" s="26"/>
-      <c r="F95" s="25"/>
+      <c r="F95" s="26"/>
       <c r="G95" s="25"/>
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
-      <c r="D96" s="26"/>
+      <c r="D96" s="25"/>
       <c r="E96" s="26"/>
-      <c r="F96" s="25"/>
+      <c r="F96" s="26"/>
       <c r="G96" s="25"/>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
-      <c r="D97" s="26"/>
+      <c r="D97" s="25"/>
       <c r="E97" s="26"/>
-      <c r="F97" s="25"/>
+      <c r="F97" s="26"/>
       <c r="G97" s="25"/>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
-      <c r="D98" s="26"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="26"/>
-      <c r="F98" s="25"/>
+      <c r="F98" s="26"/>
       <c r="G98" s="25"/>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
-      <c r="D99" s="26"/>
+      <c r="D99" s="25"/>
       <c r="E99" s="26"/>
-      <c r="F99" s="25"/>
+      <c r="F99" s="26"/>
       <c r="G99" s="25"/>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
-      <c r="D100" s="26"/>
+      <c r="D100" s="25"/>
       <c r="E100" s="26"/>
-      <c r="F100" s="25"/>
+      <c r="F100" s="26"/>
       <c r="G100" s="25"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
-      <c r="D101" s="26"/>
+      <c r="D101" s="25"/>
       <c r="E101" s="26"/>
-      <c r="F101" s="25"/>
+      <c r="F101" s="26"/>
       <c r="G101" s="25"/>
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
-      <c r="D102" s="26"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="26"/>
-      <c r="F102" s="25"/>
+      <c r="F102" s="26"/>
       <c r="G102" s="25"/>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
-      <c r="D103" s="26"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="26"/>
-      <c r="F103" s="25"/>
+      <c r="F103" s="26"/>
       <c r="G103" s="25"/>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
-      <c r="D104" s="26"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="26"/>
-      <c r="F104" s="25"/>
+      <c r="F104" s="26"/>
       <c r="G104" s="25"/>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
-      <c r="D105" s="26"/>
+      <c r="D105" s="25"/>
       <c r="E105" s="26"/>
-      <c r="F105" s="25"/>
+      <c r="F105" s="26"/>
       <c r="G105" s="25"/>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
-      <c r="D106" s="26"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="26"/>
-      <c r="F106" s="25"/>
+      <c r="F106" s="26"/>
       <c r="G106" s="25"/>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
-      <c r="D107" s="26"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="26"/>
-      <c r="F107" s="25"/>
+      <c r="F107" s="26"/>
       <c r="G107" s="25"/>
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
-      <c r="D108" s="26"/>
+      <c r="D108" s="25"/>
       <c r="E108" s="26"/>
-      <c r="F108" s="25"/>
+      <c r="F108" s="26"/>
       <c r="G108" s="25"/>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
-      <c r="D109" s="26"/>
+      <c r="D109" s="25"/>
       <c r="E109" s="26"/>
-      <c r="F109" s="25"/>
+      <c r="F109" s="26"/>
       <c r="G109" s="25"/>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
-      <c r="D110" s="26"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="26"/>
-      <c r="F110" s="25"/>
+      <c r="F110" s="26"/>
       <c r="G110" s="25"/>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
-      <c r="D111" s="26"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="26"/>
-      <c r="F111" s="25"/>
+      <c r="F111" s="26"/>
       <c r="G111" s="25"/>
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="25"/>
-      <c r="D112" s="26"/>
+      <c r="D112" s="25"/>
       <c r="E112" s="26"/>
-      <c r="F112" s="25"/>
+      <c r="F112" s="26"/>
       <c r="G112" s="25"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
-      <c r="D113" s="26"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="26"/>
-      <c r="F113" s="25"/>
+      <c r="F113" s="26"/>
       <c r="G113" s="25"/>
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="25"/>
-      <c r="D114" s="26"/>
+      <c r="D114" s="25"/>
       <c r="E114" s="26"/>
-      <c r="F114" s="25"/>
+      <c r="F114" s="26"/>
       <c r="G114" s="25"/>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="25"/>
-      <c r="D115" s="26"/>
+      <c r="D115" s="25"/>
       <c r="E115" s="26"/>
-      <c r="F115" s="25"/>
+      <c r="F115" s="26"/>
       <c r="G115" s="25"/>
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="25"/>
-      <c r="D116" s="26"/>
+      <c r="D116" s="25"/>
       <c r="E116" s="26"/>
-      <c r="F116" s="25"/>
+      <c r="F116" s="26"/>
       <c r="G116" s="25"/>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="25"/>
-      <c r="D117" s="26"/>
+      <c r="D117" s="25"/>
       <c r="E117" s="26"/>
-      <c r="F117" s="25"/>
+      <c r="F117" s="26"/>
       <c r="G117" s="25"/>
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
-      <c r="D118" s="26"/>
+      <c r="D118" s="25"/>
       <c r="E118" s="26"/>
-      <c r="F118" s="25"/>
+      <c r="F118" s="26"/>
       <c r="G118" s="25"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
-      <c r="D119" s="26"/>
+      <c r="D119" s="25"/>
       <c r="E119" s="26"/>
-      <c r="F119" s="25"/>
+      <c r="F119" s="26"/>
       <c r="G119" s="25"/>
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
-      <c r="D120" s="26"/>
+      <c r="D120" s="25"/>
       <c r="E120" s="26"/>
-      <c r="F120" s="25"/>
+      <c r="F120" s="26"/>
       <c r="G120" s="25"/>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="25"/>
-      <c r="D121" s="26"/>
+      <c r="D121" s="25"/>
       <c r="E121" s="26"/>
-      <c r="F121" s="25"/>
+      <c r="F121" s="26"/>
       <c r="G121" s="25"/>
       <c r="H121" s="13"/>
       <c r="I121" s="13"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
-      <c r="D122" s="26"/>
+      <c r="D122" s="25"/>
       <c r="E122" s="26"/>
-      <c r="F122" s="25"/>
+      <c r="F122" s="26"/>
       <c r="G122" s="25"/>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
-      <c r="D123" s="26"/>
+      <c r="D123" s="25"/>
       <c r="E123" s="26"/>
-      <c r="F123" s="25"/>
+      <c r="F123" s="26"/>
       <c r="G123" s="25"/>
       <c r="H123" s="13"/>
       <c r="I123" s="13"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
-      <c r="D124" s="26"/>
+      <c r="D124" s="25"/>
       <c r="E124" s="26"/>
-      <c r="F124" s="25"/>
+      <c r="F124" s="26"/>
       <c r="G124" s="25"/>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
-      <c r="D125" s="26"/>
+      <c r="D125" s="25"/>
       <c r="E125" s="26"/>
-      <c r="F125" s="25"/>
+      <c r="F125" s="26"/>
       <c r="G125" s="25"/>
       <c r="H125" s="13"/>
       <c r="I125" s="13"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
-      <c r="D126" s="26"/>
+      <c r="D126" s="25"/>
       <c r="E126" s="26"/>
-      <c r="F126" s="25"/>
+      <c r="F126" s="26"/>
       <c r="G126" s="25"/>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
-      <c r="D127" s="26"/>
+      <c r="D127" s="25"/>
       <c r="E127" s="26"/>
-      <c r="F127" s="25"/>
+      <c r="F127" s="26"/>
       <c r="G127" s="25"/>
       <c r="H127" s="13"/>
       <c r="I127" s="13"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
-      <c r="D128" s="26"/>
+      <c r="D128" s="25"/>
       <c r="E128" s="26"/>
-      <c r="F128" s="25"/>
+      <c r="F128" s="26"/>
       <c r="G128" s="25"/>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
-      <c r="D129" s="26"/>
+      <c r="D129" s="25"/>
       <c r="E129" s="26"/>
-      <c r="F129" s="25"/>
+      <c r="F129" s="26"/>
       <c r="G129" s="25"/>
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
-      <c r="D130" s="26"/>
+      <c r="D130" s="25"/>
       <c r="E130" s="26"/>
-      <c r="F130" s="25"/>
+      <c r="F130" s="26"/>
       <c r="G130" s="25"/>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
-      <c r="D131" s="26"/>
+      <c r="D131" s="25"/>
       <c r="E131" s="26"/>
-      <c r="F131" s="25"/>
+      <c r="F131" s="26"/>
       <c r="G131" s="25"/>
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
-      <c r="D132" s="26"/>
+      <c r="D132" s="25"/>
       <c r="E132" s="26"/>
-      <c r="F132" s="25"/>
+      <c r="F132" s="26"/>
       <c r="G132" s="25"/>
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
-      <c r="D133" s="26"/>
+      <c r="D133" s="25"/>
       <c r="E133" s="26"/>
-      <c r="F133" s="25"/>
+      <c r="F133" s="26"/>
       <c r="G133" s="25"/>
       <c r="H133" s="13"/>
       <c r="I133" s="13"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
-      <c r="D134" s="26"/>
+      <c r="D134" s="25"/>
       <c r="E134" s="26"/>
-      <c r="F134" s="25"/>
+      <c r="F134" s="26"/>
       <c r="G134" s="25"/>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
-      <c r="D135" s="26"/>
+      <c r="D135" s="25"/>
       <c r="E135" s="26"/>
-      <c r="F135" s="25"/>
+      <c r="F135" s="26"/>
       <c r="G135" s="25"/>
       <c r="H135" s="13"/>
       <c r="I135" s="13"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="25"/>
-      <c r="D136" s="26"/>
+      <c r="D136" s="25"/>
       <c r="E136" s="26"/>
-      <c r="F136" s="25"/>
+      <c r="F136" s="26"/>
       <c r="G136" s="25"/>
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
-      <c r="D137" s="26"/>
+      <c r="D137" s="25"/>
       <c r="E137" s="26"/>
-      <c r="F137" s="25"/>
+      <c r="F137" s="26"/>
       <c r="G137" s="25"/>
       <c r="H137" s="13"/>
       <c r="I137" s="13"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
-      <c r="D138" s="26"/>
+      <c r="D138" s="25"/>
       <c r="E138" s="26"/>
-      <c r="F138" s="25"/>
+      <c r="F138" s="26"/>
       <c r="G138" s="25"/>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
-      <c r="D139" s="26"/>
+      <c r="D139" s="25"/>
       <c r="E139" s="26"/>
-      <c r="F139" s="25"/>
+      <c r="F139" s="26"/>
       <c r="G139" s="25"/>
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
-      <c r="D140" s="26"/>
+      <c r="D140" s="25"/>
       <c r="E140" s="26"/>
-      <c r="F140" s="25"/>
+      <c r="F140" s="26"/>
       <c r="G140" s="25"/>
       <c r="H140" s="13"/>
       <c r="I140" s="13"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
-      <c r="D141" s="26"/>
+      <c r="D141" s="25"/>
       <c r="E141" s="26"/>
-      <c r="F141" s="25"/>
+      <c r="F141" s="26"/>
       <c r="G141" s="25"/>
       <c r="H141" s="13"/>
       <c r="I141" s="13"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
-      <c r="D142" s="26"/>
+      <c r="D142" s="25"/>
       <c r="E142" s="26"/>
-      <c r="F142" s="25"/>
+      <c r="F142" s="26"/>
       <c r="G142" s="25"/>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
-      <c r="D143" s="26"/>
+      <c r="D143" s="25"/>
       <c r="E143" s="26"/>
-      <c r="F143" s="25"/>
+      <c r="F143" s="26"/>
       <c r="G143" s="25"/>
       <c r="H143" s="13"/>
       <c r="I143" s="13"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="25"/>
-      <c r="D144" s="26"/>
+      <c r="D144" s="25"/>
       <c r="E144" s="26"/>
-      <c r="F144" s="25"/>
+      <c r="F144" s="26"/>
       <c r="G144" s="25"/>
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="25"/>
-      <c r="D145" s="26"/>
+      <c r="D145" s="25"/>
       <c r="E145" s="26"/>
-      <c r="F145" s="25"/>
+      <c r="F145" s="26"/>
       <c r="G145" s="25"/>
       <c r="H145" s="13"/>
       <c r="I145" s="13"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
-      <c r="D146" s="26"/>
+      <c r="D146" s="25"/>
       <c r="E146" s="26"/>
-      <c r="F146" s="25"/>
+      <c r="F146" s="26"/>
       <c r="G146" s="25"/>
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="25"/>
-      <c r="D147" s="26"/>
+      <c r="D147" s="25"/>
       <c r="E147" s="26"/>
-      <c r="F147" s="25"/>
+      <c r="F147" s="26"/>
       <c r="G147" s="25"/>
       <c r="H147" s="13"/>
       <c r="I147" s="13"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
-      <c r="D148" s="26"/>
+      <c r="D148" s="25"/>
       <c r="E148" s="26"/>
-      <c r="F148" s="25"/>
+      <c r="F148" s="26"/>
       <c r="G148" s="25"/>
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
-      <c r="D149" s="26"/>
+      <c r="D149" s="25"/>
       <c r="E149" s="26"/>
-      <c r="F149" s="25"/>
+      <c r="F149" s="26"/>
       <c r="G149" s="25"/>
       <c r="H149" s="13"/>
       <c r="I149" s="13"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="25"/>
-      <c r="D150" s="26"/>
+      <c r="D150" s="25"/>
       <c r="E150" s="26"/>
-      <c r="F150" s="25"/>
+      <c r="F150" s="26"/>
       <c r="G150" s="25"/>
       <c r="H150" s="13"/>
       <c r="I150" s="13"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="25"/>
-      <c r="D151" s="26"/>
+      <c r="D151" s="25"/>
       <c r="E151" s="26"/>
-      <c r="F151" s="25"/>
+      <c r="F151" s="26"/>
       <c r="G151" s="25"/>
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="25"/>
-      <c r="D152" s="26"/>
+      <c r="D152" s="25"/>
       <c r="E152" s="26"/>
-      <c r="F152" s="25"/>
+      <c r="F152" s="26"/>
       <c r="G152" s="25"/>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
-      <c r="D153" s="26"/>
+      <c r="D153" s="25"/>
       <c r="E153" s="26"/>
-      <c r="F153" s="25"/>
+      <c r="F153" s="26"/>
       <c r="G153" s="25"/>
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
-      <c r="D154" s="26"/>
+      <c r="D154" s="25"/>
       <c r="E154" s="26"/>
-      <c r="F154" s="25"/>
+      <c r="F154" s="26"/>
       <c r="G154" s="25"/>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="25"/>
-      <c r="D155" s="26"/>
+      <c r="D155" s="25"/>
       <c r="E155" s="26"/>
-      <c r="F155" s="25"/>
+      <c r="F155" s="26"/>
       <c r="G155" s="25"/>
       <c r="H155" s="13"/>
       <c r="I155" s="13"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="25"/>
-      <c r="D156" s="26"/>
+      <c r="D156" s="25"/>
       <c r="E156" s="26"/>
-      <c r="F156" s="25"/>
+      <c r="F156" s="26"/>
       <c r="G156" s="25"/>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="25"/>
-      <c r="D157" s="26"/>
+      <c r="D157" s="25"/>
       <c r="E157" s="26"/>
-      <c r="F157" s="25"/>
+      <c r="F157" s="26"/>
       <c r="G157" s="25"/>
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
-      <c r="D158" s="26"/>
+      <c r="D158" s="25"/>
       <c r="E158" s="26"/>
-      <c r="F158" s="25"/>
+      <c r="F158" s="26"/>
       <c r="G158" s="25"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="25"/>
-      <c r="D159" s="26"/>
+      <c r="D159" s="25"/>
       <c r="E159" s="26"/>
-      <c r="F159" s="25"/>
+      <c r="F159" s="26"/>
       <c r="G159" s="25"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
-      <c r="D160" s="26"/>
+      <c r="D160" s="25"/>
       <c r="E160" s="26"/>
-      <c r="F160" s="25"/>
+      <c r="F160" s="26"/>
       <c r="G160" s="25"/>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="25"/>
-      <c r="D161" s="26"/>
+      <c r="D161" s="25"/>
       <c r="E161" s="26"/>
-      <c r="F161" s="25"/>
+      <c r="F161" s="26"/>
       <c r="G161" s="25"/>
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
-      <c r="D162" s="26"/>
+      <c r="D162" s="25"/>
       <c r="E162" s="26"/>
-      <c r="F162" s="25"/>
+      <c r="F162" s="26"/>
       <c r="G162" s="25"/>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
-      <c r="D163" s="26"/>
+      <c r="D163" s="25"/>
       <c r="E163" s="26"/>
-      <c r="F163" s="25"/>
+      <c r="F163" s="26"/>
       <c r="G163" s="25"/>
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
-      <c r="D164" s="26"/>
+      <c r="D164" s="25"/>
       <c r="E164" s="26"/>
-      <c r="F164" s="25"/>
+      <c r="F164" s="26"/>
       <c r="G164" s="25"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="25"/>
-      <c r="D165" s="26"/>
+      <c r="D165" s="25"/>
       <c r="E165" s="26"/>
-      <c r="F165" s="25"/>
+      <c r="F165" s="26"/>
       <c r="G165" s="25"/>
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="25"/>
-      <c r="D166" s="26"/>
+      <c r="D166" s="25"/>
       <c r="E166" s="26"/>
-      <c r="F166" s="25"/>
+      <c r="F166" s="26"/>
       <c r="G166" s="25"/>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
-      <c r="D167" s="26"/>
+      <c r="D167" s="25"/>
       <c r="E167" s="26"/>
-      <c r="F167" s="25"/>
+      <c r="F167" s="26"/>
       <c r="G167" s="25"/>
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
-      <c r="D168" s="26"/>
+      <c r="D168" s="25"/>
       <c r="E168" s="26"/>
-      <c r="F168" s="25"/>
+      <c r="F168" s="26"/>
       <c r="G168" s="25"/>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="25"/>
-      <c r="D169" s="26"/>
+      <c r="D169" s="25"/>
       <c r="E169" s="26"/>
-      <c r="F169" s="25"/>
+      <c r="F169" s="26"/>
       <c r="G169" s="25"/>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="25"/>
-      <c r="D170" s="26"/>
+      <c r="D170" s="25"/>
       <c r="E170" s="26"/>
-      <c r="F170" s="25"/>
+      <c r="F170" s="26"/>
       <c r="G170" s="25"/>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="25"/>
-      <c r="D171" s="26"/>
+      <c r="D171" s="25"/>
       <c r="E171" s="26"/>
-      <c r="F171" s="25"/>
+      <c r="F171" s="26"/>
       <c r="G171" s="25"/>
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="25"/>
-      <c r="D172" s="26"/>
+      <c r="D172" s="25"/>
       <c r="E172" s="26"/>
-      <c r="F172" s="25"/>
+      <c r="F172" s="26"/>
       <c r="G172" s="25"/>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="25"/>
-      <c r="D173" s="26"/>
+      <c r="D173" s="25"/>
       <c r="E173" s="26"/>
-      <c r="F173" s="25"/>
+      <c r="F173" s="26"/>
       <c r="G173" s="25"/>
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
-      <c r="D174" s="26"/>
+      <c r="D174" s="25"/>
       <c r="E174" s="26"/>
-      <c r="F174" s="25"/>
+      <c r="F174" s="26"/>
       <c r="G174" s="25"/>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
-      <c r="D175" s="26"/>
+      <c r="D175" s="25"/>
       <c r="E175" s="26"/>
-      <c r="F175" s="25"/>
+      <c r="F175" s="26"/>
       <c r="G175" s="25"/>
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
-      <c r="D176" s="26"/>
+      <c r="D176" s="25"/>
       <c r="E176" s="26"/>
-      <c r="F176" s="25"/>
+      <c r="F176" s="26"/>
       <c r="G176" s="25"/>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="25"/>
-      <c r="D177" s="26"/>
+      <c r="D177" s="25"/>
       <c r="E177" s="26"/>
-      <c r="F177" s="25"/>
+      <c r="F177" s="26"/>
       <c r="G177" s="25"/>
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
-      <c r="D178" s="26"/>
+      <c r="D178" s="25"/>
       <c r="E178" s="26"/>
-      <c r="F178" s="25"/>
+      <c r="F178" s="26"/>
       <c r="G178" s="25"/>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="25"/>
-      <c r="D179" s="26"/>
+      <c r="D179" s="25"/>
       <c r="E179" s="26"/>
-      <c r="F179" s="25"/>
+      <c r="F179" s="26"/>
       <c r="G179" s="25"/>
       <c r="H179" s="13"/>
       <c r="I179" s="13"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="25"/>
-      <c r="D180" s="26"/>
+      <c r="D180" s="25"/>
       <c r="E180" s="26"/>
-      <c r="F180" s="25"/>
+      <c r="F180" s="26"/>
       <c r="G180" s="25"/>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="25"/>
-      <c r="D181" s="26"/>
+      <c r="D181" s="25"/>
       <c r="E181" s="26"/>
-      <c r="F181" s="25"/>
+      <c r="F181" s="26"/>
       <c r="G181" s="25"/>
       <c r="H181" s="13"/>
       <c r="I181" s="13"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
-      <c r="D182" s="26"/>
+      <c r="D182" s="25"/>
       <c r="E182" s="26"/>
-      <c r="F182" s="25"/>
+      <c r="F182" s="26"/>
       <c r="G182" s="25"/>
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
-      <c r="D183" s="26"/>
+      <c r="D183" s="25"/>
       <c r="E183" s="26"/>
-      <c r="F183" s="25"/>
+      <c r="F183" s="26"/>
       <c r="G183" s="25"/>
       <c r="H183" s="13"/>
       <c r="I183" s="13"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="25"/>
-      <c r="D184" s="26"/>
+      <c r="D184" s="25"/>
       <c r="E184" s="26"/>
-      <c r="F184" s="25"/>
+      <c r="F184" s="26"/>
       <c r="G184" s="25"/>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="25"/>
-      <c r="D185" s="26"/>
+      <c r="D185" s="25"/>
       <c r="E185" s="26"/>
-      <c r="F185" s="25"/>
+      <c r="F185" s="26"/>
       <c r="G185" s="25"/>
       <c r="H185" s="13"/>
       <c r="I185" s="13"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="25"/>
-      <c r="D186" s="26"/>
+      <c r="D186" s="25"/>
       <c r="E186" s="26"/>
-      <c r="F186" s="25"/>
+      <c r="F186" s="26"/>
       <c r="G186" s="25"/>
       <c r="H186" s="13"/>
       <c r="I186" s="13"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
-      <c r="D187" s="26"/>
+      <c r="D187" s="25"/>
       <c r="E187" s="26"/>
-      <c r="F187" s="25"/>
+      <c r="F187" s="26"/>
       <c r="G187" s="25"/>
       <c r="H187" s="13"/>
       <c r="I187" s="13"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="25"/>
-      <c r="D188" s="26"/>
+      <c r="D188" s="25"/>
       <c r="E188" s="26"/>
-      <c r="F188" s="25"/>
+      <c r="F188" s="26"/>
       <c r="G188" s="25"/>
       <c r="H188" s="13"/>
       <c r="I188" s="13"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="25"/>
-      <c r="D189" s="26"/>
+      <c r="D189" s="25"/>
       <c r="E189" s="26"/>
-      <c r="F189" s="25"/>
+      <c r="F189" s="26"/>
       <c r="G189" s="25"/>
       <c r="H189" s="13"/>
       <c r="I189" s="13"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25"/>
-      <c r="D190" s="26"/>
+      <c r="D190" s="25"/>
       <c r="E190" s="26"/>
-      <c r="F190" s="25"/>
+      <c r="F190" s="26"/>
       <c r="G190" s="25"/>
       <c r="H190" s="13"/>
       <c r="I190" s="13"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="25"/>
-      <c r="D191" s="26"/>
+      <c r="D191" s="25"/>
       <c r="E191" s="26"/>
-      <c r="F191" s="25"/>
+      <c r="F191" s="26"/>
       <c r="G191" s="25"/>
       <c r="H191" s="13"/>
       <c r="I191" s="13"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="25"/>
-      <c r="D192" s="26"/>
+      <c r="D192" s="25"/>
       <c r="E192" s="26"/>
-      <c r="F192" s="25"/>
+      <c r="F192" s="26"/>
       <c r="G192" s="25"/>
       <c r="H192" s="13"/>
       <c r="I192" s="13"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="25"/>
-      <c r="D193" s="26"/>
+      <c r="D193" s="25"/>
       <c r="E193" s="26"/>
-      <c r="F193" s="25"/>
+      <c r="F193" s="26"/>
       <c r="G193" s="25"/>
       <c r="H193" s="13"/>
       <c r="I193" s="13"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="25"/>
-      <c r="D194" s="26"/>
+      <c r="D194" s="25"/>
       <c r="E194" s="26"/>
-      <c r="F194" s="25"/>
+      <c r="F194" s="26"/>
       <c r="G194" s="25"/>
       <c r="H194" s="13"/>
       <c r="I194" s="13"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="25"/>
-      <c r="D195" s="26"/>
+      <c r="D195" s="25"/>
       <c r="E195" s="26"/>
-      <c r="F195" s="25"/>
+      <c r="F195" s="26"/>
       <c r="G195" s="25"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="25"/>
-      <c r="D196" s="26"/>
+      <c r="D196" s="25"/>
       <c r="E196" s="26"/>
-      <c r="F196" s="25"/>
+      <c r="F196" s="26"/>
       <c r="G196" s="25"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="25"/>
-      <c r="D197" s="26"/>
+      <c r="D197" s="25"/>
       <c r="E197" s="26"/>
-      <c r="F197" s="25"/>
+      <c r="F197" s="26"/>
       <c r="G197" s="25"/>
       <c r="H197" s="13"/>
       <c r="I197" s="13"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="25"/>
-      <c r="D198" s="26"/>
+      <c r="D198" s="25"/>
       <c r="E198" s="26"/>
-      <c r="F198" s="25"/>
+      <c r="F198" s="26"/>
       <c r="G198" s="25"/>
       <c r="H198" s="13"/>
       <c r="I198" s="13"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="25"/>
-      <c r="D199" s="26"/>
+      <c r="D199" s="25"/>
       <c r="E199" s="26"/>
-      <c r="F199" s="25"/>
+      <c r="F199" s="26"/>
       <c r="G199" s="25"/>
       <c r="H199" s="13"/>
       <c r="I199" s="13"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="25"/>
-      <c r="D200" s="26"/>
+      <c r="D200" s="25"/>
       <c r="E200" s="26"/>
-      <c r="F200" s="25"/>
+      <c r="F200" s="26"/>
       <c r="G200" s="25"/>
       <c r="H200" s="21"/>
       <c r="I200" s="21"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A201" s="31"/>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="32"/>
       <c r="B201" s="31"/>
       <c r="C201" s="31"/>
-      <c r="D201" s="30"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="25"/>
-      <c r="G201" s="32"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="30"/>
+      <c r="F201" s="26"/>
+      <c r="G201" s="25"/>
       <c r="H201" s="13"/>
       <c r="I201" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94:B1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C94:C1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
       <formula1>"Text,Bool,Integer,Credential"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なホスティングの種類" error="サポートされているホスティングの種類を選択してください。" sqref="A2:A1048576" xr:uid="{E3619614-7534-4D5F-979C-97EE39014C39}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なホスティングの種類" error="サポートされているホスティングの種類を選択してください。" sqref="B2:B1048576" xr:uid="{E3619614-7534-4D5F-979C-97EE39014C39}">
       <formula1>"Standard,Floating"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットID" error="ロボットIDは0より大きい整数である必要があります。" sqref="H2:H1048576" xr:uid="{621A17E7-1DFD-4B40-8043-F0257897F21C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットの種類" error="サポートされているロボットの種類を選択してください。" sqref="E2:E1048576" xr:uid="{852D0D24-A4D8-42AD-9AC4-BB779071A5CF}">
+      <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットID" error="ロボットIDは0より大きい整数である必要があります。" sqref="I202:I1048576 H2:H201" xr:uid="{621A17E7-1DFD-4B40-8043-F0257897F21C}">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なロボットの種類" error="サポートされているロボットの種類を選択してください。" sqref="D2:D1048576" xr:uid="{852D0D24-A4D8-42AD-9AC4-BB779071A5CF}">
-      <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6386,20 +6387,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="25.6328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.6328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="3"/>
+    <col min="10" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
@@ -6425,7 +6426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="25"/>
@@ -6435,7 +6436,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="25"/>
@@ -6445,7 +6446,7 @@
       <c r="G3" s="27"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="25"/>
@@ -6455,7 +6456,7 @@
       <c r="G4" s="27"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="25"/>
@@ -6465,7 +6466,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
@@ -6475,7 +6476,7 @@
       <c r="G6" s="27"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="25"/>
@@ -6485,7 +6486,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="25"/>
@@ -6495,7 +6496,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="25"/>
@@ -6505,7 +6506,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="25"/>
@@ -6515,7 +6516,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="25"/>
@@ -6525,7 +6526,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="25"/>
@@ -6535,7 +6536,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="25"/>
@@ -6545,7 +6546,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
@@ -6555,7 +6556,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
@@ -6565,7 +6566,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
@@ -6575,7 +6576,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
@@ -6585,7 +6586,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
@@ -6595,7 +6596,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
@@ -6605,7 +6606,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
@@ -6615,7 +6616,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
@@ -6625,7 +6626,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
@@ -6635,7 +6636,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
@@ -6645,7 +6646,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
@@ -6655,7 +6656,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
@@ -6665,7 +6666,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
@@ -6675,7 +6676,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
@@ -6685,7 +6686,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
@@ -6695,7 +6696,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
@@ -6705,7 +6706,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
@@ -6715,7 +6716,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
@@ -6725,7 +6726,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
@@ -6735,7 +6736,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
@@ -6745,7 +6746,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
@@ -6755,7 +6756,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
@@ -6765,7 +6766,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
@@ -6775,7 +6776,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
@@ -6785,7 +6786,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
@@ -6795,7 +6796,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
@@ -6805,7 +6806,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
@@ -6815,7 +6816,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
@@ -6825,7 +6826,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
@@ -6835,7 +6836,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
@@ -6845,7 +6846,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
@@ -6855,7 +6856,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
@@ -6865,7 +6866,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
@@ -6875,7 +6876,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
@@ -6885,7 +6886,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
@@ -6895,7 +6896,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
@@ -6905,7 +6906,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
@@ -6915,7 +6916,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
@@ -6925,7 +6926,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
@@ -6935,7 +6936,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
@@ -6945,7 +6946,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
@@ -6955,7 +6956,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
@@ -6965,7 +6966,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
@@ -6975,7 +6976,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
@@ -6985,7 +6986,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
@@ -6995,7 +6996,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
@@ -7005,7 +7006,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
@@ -7015,7 +7016,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
@@ -7025,7 +7026,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
@@ -7035,7 +7036,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
@@ -7045,7 +7046,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
@@ -7055,7 +7056,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
@@ -7065,7 +7066,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
@@ -7075,7 +7076,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
@@ -7085,7 +7086,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
@@ -7095,7 +7096,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
@@ -7105,7 +7106,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
@@ -7115,7 +7116,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
@@ -7125,7 +7126,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
@@ -7135,7 +7136,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
@@ -7145,7 +7146,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
@@ -7155,7 +7156,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="26"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
@@ -7165,7 +7166,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
@@ -7175,7 +7176,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
@@ -7185,7 +7186,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="11"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="26"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
@@ -7195,7 +7196,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
@@ -7205,7 +7206,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
@@ -7215,7 +7216,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
@@ -7225,7 +7226,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
@@ -7235,7 +7236,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="26"/>
       <c r="B83" s="26"/>
       <c r="C83" s="25"/>
@@ -7245,7 +7246,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="26"/>
       <c r="B84" s="26"/>
       <c r="C84" s="25"/>
@@ -7255,7 +7256,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="26"/>
       <c r="B85" s="26"/>
       <c r="C85" s="25"/>
@@ -7265,7 +7266,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
       <c r="B86" s="26"/>
       <c r="C86" s="25"/>
@@ -7275,7 +7276,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="26"/>
       <c r="B87" s="26"/>
       <c r="C87" s="25"/>
@@ -7285,7 +7286,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="26"/>
       <c r="B88" s="26"/>
       <c r="C88" s="25"/>
@@ -7295,7 +7296,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="26"/>
       <c r="B89" s="26"/>
       <c r="C89" s="25"/>
@@ -7305,7 +7306,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="26"/>
       <c r="B90" s="26"/>
       <c r="C90" s="25"/>
@@ -7315,7 +7316,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="26"/>
       <c r="B91" s="26"/>
       <c r="C91" s="25"/>
@@ -7325,7 +7326,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="26"/>
       <c r="B92" s="26"/>
       <c r="C92" s="25"/>
@@ -7335,7 +7336,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="26"/>
       <c r="B93" s="26"/>
       <c r="C93" s="25"/>
@@ -7345,7 +7346,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="26"/>
       <c r="B94" s="26"/>
       <c r="C94" s="25"/>
@@ -7355,7 +7356,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="26"/>
       <c r="B95" s="26"/>
       <c r="C95" s="25"/>
@@ -7365,7 +7366,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="26"/>
       <c r="B96" s="26"/>
       <c r="C96" s="25"/>
@@ -7375,7 +7376,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
       <c r="C97" s="25"/>
@@ -7385,7 +7386,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" s="26"/>
       <c r="C98" s="25"/>
@@ -7395,7 +7396,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
       <c r="C99" s="25"/>
@@ -7405,7 +7406,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
       <c r="C100" s="25"/>
@@ -7415,7 +7416,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" s="26"/>
       <c r="C101" s="25"/>
@@ -7425,7 +7426,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" s="26"/>
       <c r="C102" s="25"/>
@@ -7435,7 +7436,7 @@
       <c r="G102" s="25"/>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="26"/>
       <c r="B103" s="26"/>
       <c r="C103" s="25"/>
@@ -7445,7 +7446,7 @@
       <c r="G103" s="25"/>
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="26"/>
       <c r="B104" s="26"/>
       <c r="C104" s="25"/>
@@ -7455,7 +7456,7 @@
       <c r="G104" s="25"/>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="26"/>
       <c r="B105" s="26"/>
       <c r="C105" s="25"/>
@@ -7465,7 +7466,7 @@
       <c r="G105" s="25"/>
       <c r="H105" s="11"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="26"/>
       <c r="B106" s="26"/>
       <c r="C106" s="25"/>
@@ -7475,7 +7476,7 @@
       <c r="G106" s="25"/>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="26"/>
       <c r="B107" s="26"/>
       <c r="C107" s="25"/>
@@ -7485,7 +7486,7 @@
       <c r="G107" s="25"/>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="26"/>
       <c r="B108" s="26"/>
       <c r="C108" s="25"/>
@@ -7495,7 +7496,7 @@
       <c r="G108" s="25"/>
       <c r="H108" s="11"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="26"/>
       <c r="C109" s="25"/>
@@ -7505,7 +7506,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="11"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="26"/>
       <c r="C110" s="25"/>
@@ -7515,7 +7516,7 @@
       <c r="G110" s="25"/>
       <c r="H110" s="11"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="26"/>
       <c r="C111" s="25"/>
@@ -7525,7 +7526,7 @@
       <c r="G111" s="25"/>
       <c r="H111" s="11"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="26"/>
       <c r="B112" s="26"/>
       <c r="C112" s="25"/>
@@ -7535,7 +7536,7 @@
       <c r="G112" s="25"/>
       <c r="H112" s="11"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="26"/>
       <c r="B113" s="26"/>
       <c r="C113" s="25"/>
@@ -7545,7 +7546,7 @@
       <c r="G113" s="25"/>
       <c r="H113" s="11"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="26"/>
       <c r="B114" s="26"/>
       <c r="C114" s="25"/>
@@ -7555,7 +7556,7 @@
       <c r="G114" s="25"/>
       <c r="H114" s="11"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="26"/>
       <c r="B115" s="26"/>
       <c r="C115" s="25"/>
@@ -7565,7 +7566,7 @@
       <c r="G115" s="25"/>
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="26"/>
       <c r="B116" s="26"/>
       <c r="C116" s="25"/>
@@ -7575,7 +7576,7 @@
       <c r="G116" s="25"/>
       <c r="H116" s="11"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="26"/>
       <c r="B117" s="26"/>
       <c r="C117" s="25"/>
@@ -7585,7 +7586,7 @@
       <c r="G117" s="25"/>
       <c r="H117" s="11"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="26"/>
       <c r="B118" s="26"/>
       <c r="C118" s="25"/>
@@ -7595,7 +7596,7 @@
       <c r="G118" s="25"/>
       <c r="H118" s="11"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="26"/>
       <c r="B119" s="26"/>
       <c r="C119" s="25"/>
@@ -7605,7 +7606,7 @@
       <c r="G119" s="25"/>
       <c r="H119" s="11"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
       <c r="B120" s="26"/>
       <c r="C120" s="25"/>
@@ -7615,7 +7616,7 @@
       <c r="G120" s="25"/>
       <c r="H120" s="11"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="26"/>
       <c r="C121" s="25"/>
@@ -7625,7 +7626,7 @@
       <c r="G121" s="25"/>
       <c r="H121" s="11"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="26"/>
       <c r="C122" s="25"/>
@@ -7635,7 +7636,7 @@
       <c r="G122" s="25"/>
       <c r="H122" s="11"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="26"/>
       <c r="B123" s="26"/>
       <c r="C123" s="25"/>
@@ -7645,7 +7646,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="11"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
       <c r="B124" s="26"/>
       <c r="C124" s="25"/>
@@ -7655,7 +7656,7 @@
       <c r="G124" s="25"/>
       <c r="H124" s="11"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
       <c r="B125" s="26"/>
       <c r="C125" s="25"/>
@@ -7665,7 +7666,7 @@
       <c r="G125" s="25"/>
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="26"/>
       <c r="B126" s="26"/>
       <c r="C126" s="25"/>
@@ -7675,7 +7676,7 @@
       <c r="G126" s="25"/>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="26"/>
       <c r="B127" s="26"/>
       <c r="C127" s="25"/>
@@ -7685,7 +7686,7 @@
       <c r="G127" s="25"/>
       <c r="H127" s="11"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="26"/>
       <c r="B128" s="26"/>
       <c r="C128" s="25"/>
@@ -7695,7 +7696,7 @@
       <c r="G128" s="25"/>
       <c r="H128" s="11"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="26"/>
       <c r="B129" s="26"/>
       <c r="C129" s="25"/>
@@ -7705,7 +7706,7 @@
       <c r="G129" s="25"/>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="26"/>
       <c r="B130" s="26"/>
       <c r="C130" s="25"/>
@@ -7715,7 +7716,7 @@
       <c r="G130" s="25"/>
       <c r="H130" s="11"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="26"/>
       <c r="B131" s="26"/>
       <c r="C131" s="25"/>
@@ -7725,7 +7726,7 @@
       <c r="G131" s="25"/>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="26"/>
       <c r="B132" s="26"/>
       <c r="C132" s="25"/>
@@ -7735,7 +7736,7 @@
       <c r="G132" s="25"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="26"/>
       <c r="B133" s="26"/>
       <c r="C133" s="25"/>
@@ -7745,7 +7746,7 @@
       <c r="G133" s="25"/>
       <c r="H133" s="11"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="26"/>
       <c r="B134" s="26"/>
       <c r="C134" s="25"/>
@@ -7755,7 +7756,7 @@
       <c r="G134" s="25"/>
       <c r="H134" s="11"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="26"/>
       <c r="C135" s="25"/>
@@ -7765,7 +7766,7 @@
       <c r="G135" s="25"/>
       <c r="H135" s="11"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
       <c r="B136" s="26"/>
       <c r="C136" s="25"/>
@@ -7775,7 +7776,7 @@
       <c r="G136" s="25"/>
       <c r="H136" s="11"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
       <c r="B137" s="26"/>
       <c r="C137" s="25"/>
@@ -7785,7 +7786,7 @@
       <c r="G137" s="25"/>
       <c r="H137" s="11"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="26"/>
       <c r="B138" s="26"/>
       <c r="C138" s="25"/>
@@ -7795,7 +7796,7 @@
       <c r="G138" s="25"/>
       <c r="H138" s="11"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="26"/>
       <c r="B139" s="26"/>
       <c r="C139" s="25"/>
@@ -7805,7 +7806,7 @@
       <c r="G139" s="25"/>
       <c r="H139" s="11"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="26"/>
       <c r="B140" s="26"/>
       <c r="C140" s="25"/>
@@ -7815,7 +7816,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="11"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="26"/>
       <c r="B141" s="26"/>
       <c r="C141" s="25"/>
@@ -7825,7 +7826,7 @@
       <c r="G141" s="25"/>
       <c r="H141" s="11"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="26"/>
       <c r="B142" s="26"/>
       <c r="C142" s="25"/>
@@ -7835,7 +7836,7 @@
       <c r="G142" s="25"/>
       <c r="H142" s="11"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="26"/>
       <c r="B143" s="26"/>
       <c r="C143" s="25"/>
@@ -7845,7 +7846,7 @@
       <c r="G143" s="25"/>
       <c r="H143" s="11"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="26"/>
       <c r="B144" s="26"/>
       <c r="C144" s="25"/>
@@ -7855,7 +7856,7 @@
       <c r="G144" s="25"/>
       <c r="H144" s="11"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="26"/>
       <c r="B145" s="26"/>
       <c r="C145" s="25"/>
@@ -7865,7 +7866,7 @@
       <c r="G145" s="25"/>
       <c r="H145" s="11"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="26"/>
       <c r="B146" s="26"/>
       <c r="C146" s="25"/>
@@ -7875,7 +7876,7 @@
       <c r="G146" s="25"/>
       <c r="H146" s="11"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="26"/>
       <c r="B147" s="26"/>
       <c r="C147" s="25"/>
@@ -7885,7 +7886,7 @@
       <c r="G147" s="25"/>
       <c r="H147" s="11"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="26"/>
       <c r="B148" s="26"/>
       <c r="C148" s="25"/>
@@ -7895,7 +7896,7 @@
       <c r="G148" s="25"/>
       <c r="H148" s="11"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="26"/>
       <c r="B149" s="26"/>
       <c r="C149" s="25"/>
@@ -7905,7 +7906,7 @@
       <c r="G149" s="25"/>
       <c r="H149" s="11"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="26"/>
       <c r="B150" s="26"/>
       <c r="C150" s="25"/>
@@ -7915,7 +7916,7 @@
       <c r="G150" s="25"/>
       <c r="H150" s="11"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="26"/>
       <c r="B151" s="26"/>
       <c r="C151" s="25"/>
@@ -7925,7 +7926,7 @@
       <c r="G151" s="25"/>
       <c r="H151" s="11"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="26"/>
       <c r="B152" s="26"/>
       <c r="C152" s="25"/>
@@ -7935,7 +7936,7 @@
       <c r="G152" s="25"/>
       <c r="H152" s="11"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="26"/>
       <c r="B153" s="26"/>
       <c r="C153" s="25"/>
@@ -7945,7 +7946,7 @@
       <c r="G153" s="25"/>
       <c r="H153" s="11"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="26"/>
       <c r="B154" s="26"/>
       <c r="C154" s="25"/>
@@ -7955,7 +7956,7 @@
       <c r="G154" s="25"/>
       <c r="H154" s="11"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="26"/>
       <c r="B155" s="26"/>
       <c r="C155" s="25"/>
@@ -7965,7 +7966,7 @@
       <c r="G155" s="25"/>
       <c r="H155" s="11"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="26"/>
       <c r="B156" s="26"/>
       <c r="C156" s="25"/>
@@ -7975,7 +7976,7 @@
       <c r="G156" s="25"/>
       <c r="H156" s="11"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="26"/>
       <c r="B157" s="26"/>
       <c r="C157" s="25"/>
@@ -7985,7 +7986,7 @@
       <c r="G157" s="25"/>
       <c r="H157" s="11"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="26"/>
       <c r="B158" s="26"/>
       <c r="C158" s="25"/>
@@ -7995,7 +7996,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="11"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="26"/>
       <c r="B159" s="26"/>
       <c r="C159" s="25"/>
@@ -8005,7 +8006,7 @@
       <c r="G159" s="25"/>
       <c r="H159" s="11"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="26"/>
       <c r="B160" s="26"/>
       <c r="C160" s="25"/>
@@ -8015,7 +8016,7 @@
       <c r="G160" s="25"/>
       <c r="H160" s="11"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="26"/>
       <c r="B161" s="26"/>
       <c r="C161" s="25"/>
@@ -8025,7 +8026,7 @@
       <c r="G161" s="25"/>
       <c r="H161" s="11"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="26"/>
       <c r="B162" s="26"/>
       <c r="C162" s="25"/>
@@ -8035,7 +8036,7 @@
       <c r="G162" s="25"/>
       <c r="H162" s="11"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="26"/>
       <c r="B163" s="26"/>
       <c r="C163" s="25"/>
@@ -8045,7 +8046,7 @@
       <c r="G163" s="25"/>
       <c r="H163" s="11"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="26"/>
       <c r="B164" s="26"/>
       <c r="C164" s="25"/>
@@ -8055,7 +8056,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="11"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="26"/>
       <c r="B165" s="26"/>
       <c r="C165" s="25"/>
@@ -8065,7 +8066,7 @@
       <c r="G165" s="25"/>
       <c r="H165" s="11"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="26"/>
       <c r="B166" s="26"/>
       <c r="C166" s="25"/>
@@ -8075,7 +8076,7 @@
       <c r="G166" s="25"/>
       <c r="H166" s="11"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="26"/>
       <c r="B167" s="26"/>
       <c r="C167" s="25"/>
@@ -8085,7 +8086,7 @@
       <c r="G167" s="25"/>
       <c r="H167" s="11"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="26"/>
       <c r="B168" s="26"/>
       <c r="C168" s="25"/>
@@ -8095,7 +8096,7 @@
       <c r="G168" s="25"/>
       <c r="H168" s="11"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="26"/>
       <c r="B169" s="26"/>
       <c r="C169" s="25"/>
@@ -8105,7 +8106,7 @@
       <c r="G169" s="25"/>
       <c r="H169" s="11"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="26"/>
       <c r="B170" s="26"/>
       <c r="C170" s="25"/>
@@ -8115,7 +8116,7 @@
       <c r="G170" s="25"/>
       <c r="H170" s="11"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="26"/>
       <c r="B171" s="26"/>
       <c r="C171" s="25"/>
@@ -8125,7 +8126,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="11"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="26"/>
       <c r="B172" s="26"/>
       <c r="C172" s="25"/>
@@ -8135,7 +8136,7 @@
       <c r="G172" s="25"/>
       <c r="H172" s="11"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="26"/>
       <c r="B173" s="26"/>
       <c r="C173" s="25"/>
@@ -8145,7 +8146,7 @@
       <c r="G173" s="25"/>
       <c r="H173" s="11"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="26"/>
       <c r="B174" s="26"/>
       <c r="C174" s="25"/>
@@ -8155,7 +8156,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="11"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="26"/>
       <c r="B175" s="26"/>
       <c r="C175" s="25"/>
@@ -8165,7 +8166,7 @@
       <c r="G175" s="25"/>
       <c r="H175" s="11"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="26"/>
       <c r="B176" s="26"/>
       <c r="C176" s="25"/>
@@ -8175,7 +8176,7 @@
       <c r="G176" s="25"/>
       <c r="H176" s="11"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="26"/>
       <c r="B177" s="26"/>
       <c r="C177" s="25"/>
@@ -8185,7 +8186,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="11"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="26"/>
       <c r="B178" s="26"/>
       <c r="C178" s="25"/>
@@ -8195,7 +8196,7 @@
       <c r="G178" s="25"/>
       <c r="H178" s="11"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="26"/>
       <c r="B179" s="26"/>
       <c r="C179" s="25"/>
@@ -8205,7 +8206,7 @@
       <c r="G179" s="25"/>
       <c r="H179" s="11"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="26"/>
       <c r="B180" s="26"/>
       <c r="C180" s="25"/>
@@ -8215,7 +8216,7 @@
       <c r="G180" s="25"/>
       <c r="H180" s="11"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="26"/>
       <c r="B181" s="26"/>
       <c r="C181" s="25"/>
@@ -8225,7 +8226,7 @@
       <c r="G181" s="25"/>
       <c r="H181" s="11"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="26"/>
       <c r="B182" s="26"/>
       <c r="C182" s="25"/>
@@ -8235,7 +8236,7 @@
       <c r="G182" s="25"/>
       <c r="H182" s="11"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="26"/>
       <c r="B183" s="26"/>
       <c r="C183" s="25"/>
@@ -8245,7 +8246,7 @@
       <c r="G183" s="25"/>
       <c r="H183" s="11"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="26"/>
       <c r="B184" s="26"/>
       <c r="C184" s="25"/>
@@ -8255,7 +8256,7 @@
       <c r="G184" s="25"/>
       <c r="H184" s="11"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="26"/>
       <c r="B185" s="26"/>
       <c r="C185" s="25"/>
@@ -8265,7 +8266,7 @@
       <c r="G185" s="25"/>
       <c r="H185" s="11"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="26"/>
       <c r="B186" s="26"/>
       <c r="C186" s="25"/>
@@ -8275,7 +8276,7 @@
       <c r="G186" s="25"/>
       <c r="H186" s="11"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="26"/>
       <c r="B187" s="26"/>
       <c r="C187" s="25"/>
@@ -8285,7 +8286,7 @@
       <c r="G187" s="25"/>
       <c r="H187" s="11"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="26"/>
       <c r="B188" s="26"/>
       <c r="C188" s="25"/>
@@ -8295,7 +8296,7 @@
       <c r="G188" s="25"/>
       <c r="H188" s="11"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="26"/>
       <c r="B189" s="26"/>
       <c r="C189" s="25"/>
@@ -8305,7 +8306,7 @@
       <c r="G189" s="25"/>
       <c r="H189" s="11"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="26"/>
       <c r="B190" s="26"/>
       <c r="C190" s="25"/>
@@ -8315,7 +8316,7 @@
       <c r="G190" s="25"/>
       <c r="H190" s="11"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="26"/>
       <c r="B191" s="26"/>
       <c r="C191" s="25"/>
@@ -8325,7 +8326,7 @@
       <c r="G191" s="25"/>
       <c r="H191" s="11"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="26"/>
       <c r="B192" s="26"/>
       <c r="C192" s="25"/>
@@ -8335,7 +8336,7 @@
       <c r="G192" s="25"/>
       <c r="H192" s="11"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="26"/>
       <c r="B193" s="26"/>
       <c r="C193" s="25"/>
@@ -8345,7 +8346,7 @@
       <c r="G193" s="25"/>
       <c r="H193" s="11"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="26"/>
       <c r="B194" s="26"/>
       <c r="C194" s="25"/>
@@ -8355,7 +8356,7 @@
       <c r="G194" s="25"/>
       <c r="H194" s="11"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="26"/>
       <c r="B195" s="26"/>
       <c r="C195" s="25"/>
@@ -8365,7 +8366,7 @@
       <c r="G195" s="25"/>
       <c r="H195" s="11"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="26"/>
       <c r="B196" s="26"/>
       <c r="C196" s="25"/>
@@ -8375,7 +8376,7 @@
       <c r="G196" s="25"/>
       <c r="H196" s="11"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="26"/>
       <c r="B197" s="26"/>
       <c r="C197" s="25"/>
@@ -8385,7 +8386,7 @@
       <c r="G197" s="25"/>
       <c r="H197" s="11"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="26"/>
       <c r="B198" s="26"/>
       <c r="C198" s="25"/>
@@ -8395,7 +8396,7 @@
       <c r="G198" s="25"/>
       <c r="H198" s="11"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="26"/>
       <c r="B199" s="26"/>
       <c r="C199" s="25"/>
@@ -8405,7 +8406,7 @@
       <c r="G199" s="25"/>
       <c r="H199" s="11"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="26"/>
       <c r="B200" s="26"/>
       <c r="C200" s="25"/>
@@ -8415,7 +8416,7 @@
       <c r="G200" s="25"/>
       <c r="H200" s="11"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="30"/>
       <c r="B201" s="30"/>
       <c r="C201" s="31"/>
@@ -8453,17 +8454,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="45.6328125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
@@ -8480,1400 +8481,1400 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="27"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="27"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="27"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="27"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="27"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="27"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="27"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="27"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="27"/>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="27"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="27"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="27"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="27"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="27"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="27"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="27"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="27"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="27"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="27"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="27"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="27"/>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="27"/>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="27"/>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="27"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
       <c r="D34" s="27"/>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="27"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="27"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="27"/>
       <c r="E37" s="13"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="27"/>
       <c r="E38" s="13"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
       <c r="D39" s="27"/>
       <c r="E39" s="13"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
       <c r="D40" s="27"/>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
       <c r="D41" s="27"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
       <c r="D42" s="27"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
       <c r="D43" s="27"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
       <c r="D44" s="27"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="27"/>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="27"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="27"/>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
       <c r="D48" s="27"/>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="D49" s="27"/>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
       <c r="D50" s="27"/>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
       <c r="D51" s="27"/>
       <c r="E51" s="13"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
       <c r="D52" s="27"/>
       <c r="E52" s="13"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
       <c r="D53" s="27"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
       <c r="D54" s="27"/>
       <c r="E54" s="13"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
       <c r="D55" s="27"/>
       <c r="E55" s="13"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
       <c r="D56" s="27"/>
       <c r="E56" s="13"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
       <c r="D57" s="27"/>
       <c r="E57" s="13"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
       <c r="D58" s="27"/>
       <c r="E58" s="13"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="27"/>
       <c r="E59" s="13"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="27"/>
       <c r="E60" s="13"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="27"/>
       <c r="E61" s="13"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="27"/>
       <c r="E62" s="13"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="27"/>
       <c r="E63" s="13"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
       <c r="D64" s="27"/>
       <c r="E64" s="13"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="27"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
       <c r="D66" s="27"/>
       <c r="E66" s="13"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="27"/>
       <c r="E67" s="13"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="27"/>
       <c r="E68" s="13"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="27"/>
       <c r="E69" s="13"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="27"/>
       <c r="E70" s="13"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
       <c r="D71" s="27"/>
       <c r="E71" s="13"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
       <c r="D72" s="27"/>
       <c r="E72" s="13"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="27"/>
       <c r="E73" s="13"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="27"/>
       <c r="E74" s="13"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="27"/>
       <c r="E75" s="13"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
       <c r="D76" s="27"/>
       <c r="E76" s="13"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="27"/>
       <c r="E77" s="13"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="27"/>
       <c r="E78" s="13"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
       <c r="D79" s="27"/>
       <c r="E79" s="13"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
       <c r="D80" s="27"/>
       <c r="E80" s="13"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
       <c r="D81" s="27"/>
       <c r="E81" s="13"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
       <c r="D82" s="27"/>
       <c r="E82" s="13"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
       <c r="D83" s="27"/>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
       <c r="D84" s="27"/>
       <c r="E84" s="13"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
       <c r="D85" s="27"/>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
       <c r="D86" s="27"/>
       <c r="E86" s="13"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
       <c r="D87" s="27"/>
       <c r="E87" s="13"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
       <c r="D88" s="27"/>
       <c r="E88" s="13"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
       <c r="D89" s="27"/>
       <c r="E89" s="13"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
       <c r="D90" s="27"/>
       <c r="E90" s="13"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
       <c r="D91" s="27"/>
       <c r="E91" s="13"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
       <c r="D92" s="27"/>
       <c r="E92" s="13"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="27"/>
       <c r="E93" s="13"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
       <c r="D94" s="27"/>
       <c r="E94" s="13"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
       <c r="D95" s="27"/>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
       <c r="D96" s="27"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
       <c r="D97" s="27"/>
       <c r="E97" s="13"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
       <c r="D98" s="27"/>
       <c r="E98" s="13"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
       <c r="D99" s="27"/>
       <c r="E99" s="13"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
       <c r="D100" s="27"/>
       <c r="E100" s="13"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
       <c r="D101" s="27"/>
       <c r="E101" s="13"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
       <c r="E102" s="13"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
       <c r="E103" s="13"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
       <c r="E104" s="13"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
       <c r="E105" s="13"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
       <c r="E106" s="13"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
       <c r="E107" s="13"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
       <c r="E108" s="13"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
       <c r="D109" s="25"/>
       <c r="E109" s="13"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
       <c r="D110" s="25"/>
       <c r="E110" s="13"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
       <c r="E111" s="13"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
       <c r="E112" s="13"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
       <c r="E113" s="13"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="25"/>
       <c r="D114" s="25"/>
       <c r="E114" s="13"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="25"/>
       <c r="D115" s="25"/>
       <c r="E115" s="13"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="25"/>
       <c r="D116" s="25"/>
       <c r="E116" s="13"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="25"/>
       <c r="D117" s="25"/>
       <c r="E117" s="13"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
       <c r="E118" s="13"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
       <c r="D119" s="25"/>
       <c r="E119" s="13"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
       <c r="D120" s="25"/>
       <c r="E120" s="13"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="25"/>
       <c r="D121" s="25"/>
       <c r="E121" s="13"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
       <c r="D122" s="25"/>
       <c r="E122" s="13"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
       <c r="D123" s="25"/>
       <c r="E123" s="13"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
       <c r="D124" s="25"/>
       <c r="E124" s="13"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
       <c r="D125" s="25"/>
       <c r="E125" s="13"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
       <c r="D126" s="25"/>
       <c r="E126" s="13"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
       <c r="D127" s="25"/>
       <c r="E127" s="13"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
       <c r="D128" s="25"/>
       <c r="E128" s="13"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
       <c r="E129" s="13"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
       <c r="E130" s="13"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
       <c r="E131" s="13"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
       <c r="D132" s="25"/>
       <c r="E132" s="13"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
       <c r="D133" s="25"/>
       <c r="E133" s="13"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
       <c r="D134" s="25"/>
       <c r="E134" s="13"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
       <c r="D135" s="25"/>
       <c r="E135" s="13"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="25"/>
       <c r="D136" s="25"/>
       <c r="E136" s="13"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
       <c r="D137" s="25"/>
       <c r="E137" s="13"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
       <c r="D138" s="25"/>
       <c r="E138" s="13"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
       <c r="D139" s="25"/>
       <c r="E139" s="13"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
       <c r="E140" s="13"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
       <c r="E141" s="13"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
       <c r="E142" s="13"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
       <c r="E143" s="13"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="25"/>
       <c r="D144" s="25"/>
       <c r="E144" s="13"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="25"/>
       <c r="D145" s="25"/>
       <c r="E145" s="13"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
       <c r="D146" s="25"/>
       <c r="E146" s="13"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="25"/>
       <c r="D147" s="25"/>
       <c r="E147" s="13"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
       <c r="D148" s="25"/>
       <c r="E148" s="13"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
       <c r="D149" s="25"/>
       <c r="E149" s="13"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
       <c r="E150" s="13"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="25"/>
       <c r="D151" s="25"/>
       <c r="E151" s="13"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="25"/>
       <c r="D152" s="25"/>
       <c r="E152" s="13"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
       <c r="D153" s="25"/>
       <c r="E153" s="13"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
       <c r="D154" s="25"/>
       <c r="E154" s="13"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="25"/>
       <c r="D155" s="25"/>
       <c r="E155" s="13"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="25"/>
       <c r="D156" s="25"/>
       <c r="E156" s="13"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="25"/>
       <c r="D157" s="25"/>
       <c r="E157" s="13"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
       <c r="D158" s="25"/>
       <c r="E158" s="13"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="25"/>
       <c r="D159" s="25"/>
       <c r="E159" s="13"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
       <c r="D160" s="25"/>
       <c r="E160" s="13"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="25"/>
       <c r="D161" s="25"/>
       <c r="E161" s="13"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
       <c r="D162" s="25"/>
       <c r="E162" s="13"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
       <c r="D163" s="25"/>
       <c r="E163" s="13"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
       <c r="D164" s="25"/>
       <c r="E164" s="13"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="25"/>
       <c r="D165" s="25"/>
       <c r="E165" s="13"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="25"/>
       <c r="D166" s="25"/>
       <c r="E166" s="13"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
       <c r="D167" s="25"/>
       <c r="E167" s="13"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
       <c r="D168" s="25"/>
       <c r="E168" s="13"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="25"/>
       <c r="D169" s="25"/>
       <c r="E169" s="13"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="25"/>
       <c r="D170" s="25"/>
       <c r="E170" s="13"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="25"/>
       <c r="D171" s="25"/>
       <c r="E171" s="13"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="25"/>
       <c r="D172" s="25"/>
       <c r="E172" s="13"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="25"/>
       <c r="D173" s="25"/>
       <c r="E173" s="13"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
       <c r="D174" s="25"/>
       <c r="E174" s="13"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
       <c r="D175" s="25"/>
       <c r="E175" s="13"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
       <c r="D176" s="25"/>
       <c r="E176" s="13"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="25"/>
       <c r="D177" s="25"/>
       <c r="E177" s="13"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
       <c r="D178" s="25"/>
       <c r="E178" s="13"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="25"/>
       <c r="D179" s="25"/>
       <c r="E179" s="13"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="25"/>
       <c r="D180" s="25"/>
       <c r="E180" s="13"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="25"/>
       <c r="D181" s="25"/>
       <c r="E181" s="13"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
       <c r="D182" s="25"/>
       <c r="E182" s="13"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
       <c r="D183" s="25"/>
       <c r="E183" s="13"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="25"/>
       <c r="D184" s="25"/>
       <c r="E184" s="13"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="25"/>
       <c r="D185" s="25"/>
       <c r="E185" s="13"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="25"/>
       <c r="D186" s="25"/>
       <c r="E186" s="13"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
       <c r="D187" s="25"/>
       <c r="E187" s="13"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="25"/>
       <c r="D188" s="25"/>
       <c r="E188" s="13"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="25"/>
       <c r="D189" s="25"/>
       <c r="E189" s="13"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25"/>
       <c r="D190" s="25"/>
       <c r="E190" s="13"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="25"/>
       <c r="D191" s="25"/>
       <c r="E191" s="13"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="25"/>
       <c r="D192" s="25"/>
       <c r="E192" s="13"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="25"/>
       <c r="D193" s="25"/>
       <c r="E193" s="13"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="25"/>
       <c r="D194" s="25"/>
       <c r="E194" s="13"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="25"/>
       <c r="D195" s="25"/>
       <c r="E195" s="13"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="25"/>
       <c r="D196" s="25"/>
       <c r="E196" s="13"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="25"/>
       <c r="D197" s="25"/>
       <c r="E197" s="13"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="25"/>
       <c r="D198" s="25"/>
       <c r="E198" s="13"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="25"/>
       <c r="D199" s="25"/>
       <c r="E199" s="13"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="25"/>
       <c r="D200" s="25"/>
       <c r="E200" s="13"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="31"/>
       <c r="B201" s="31"/>
       <c r="C201" s="31"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7230EFD3-9328-40F0-B42A-5AE1F6DBCC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52897588-C709-4309-8B5E-4F206FC822DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1880" windowWidth="29640" windowHeight="15630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52897588-C709-4309-8B5E-4F206FC822DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987AC174-9FA6-4B24-8E3A-CCE7CF29F4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1611,6 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6375,6 +6376,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF20293-3040-451C-BEA0-1DF5FCF14B01}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8443,6 +8445,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987AC174-9FA6-4B24-8E3A-CCE7CF29F4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3269FB77-2D7E-4CD7-8B54-1A753B2DB70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3269FB77-2D7E-4CD7-8B54-1A753B2DB70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DEDBA2-39F2-48F8-8CA4-83CB15065DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DEDBA2-39F2-48F8-8CA4-83CB15065DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B352EF58-7012-4708-A99C-382B3D0F90EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B352EF58-7012-4708-A99C-382B3D0F90EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9DF409-B1F9-49A8-B232-EF7C56EAE913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9DF409-B1F9-49A8-B232-EF7C56EAE913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F698FB-151F-4550-ACAA-5E4B4D4C7387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F698FB-151F-4550-ACAA-5E4B4D4C7387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9E6896-581D-4334-B1BE-7681A4DE9CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9E6896-581D-4334-B1BE-7681A4DE9CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F4D718-B781-4E77-A737-1C42A351174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F4D718-B781-4E77-A737-1C42A351174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F712B09E-81AA-4894-A616-3D8DBDD4F8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -36,10 +36,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>クラシックフォルダーID</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>クラシックフォルダー名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロボットID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロボット名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マシンID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マシン名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロボットグループ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホスティングの種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロボットの種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ログレベル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開発ログを許可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コンソールへログイン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解像度の幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解像度の高さ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解像度の階調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フォントスムージング</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プロセスを自動ダウンロード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>クラシックフォルダー名</t>
@@ -54,19 +130,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マシンID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>マシン名</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ロボットグループ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ホスティングの種類</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -78,52 +142,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クラシックフォルダー名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ホスティングの種類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ロボット名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>マシン名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ロボットの種類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ユーザー名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ロボットID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>結果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>結果</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クラシックフォルダーID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -349,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -408,9 +432,6 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -426,11 +447,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="51">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -974,7 +1016,255 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -985,6 +1275,8 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1281,19 +1573,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:J201" headerRowDxfId="42" dataDxfId="40" totalsRowDxfId="38" headerRowBorderDxfId="41" tableBorderDxfId="39">
-  <autoFilter ref="A1:J201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="クラシックフォルダーID" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="クラシックフォルダー名" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="ロボットID" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボット名" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="マシンID" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="マシン名" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロボットグループ" dataDxfId="31"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ホスティングの種類" totalsRowLabel="Total" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ロボットの種類" totalsRowFunction="count" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="ユーザー名" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:R201" headerRowDxfId="50" dataDxfId="48" totalsRowDxfId="46" headerRowBorderDxfId="49" tableBorderDxfId="47">
+  <autoFilter ref="A1:R201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="11" xr3:uid="{6682E416-485C-448C-AA69-910005390FF9}" name="クラシックフォルダーID" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{AF43A41A-0260-428F-BE16-89102CFB2DC2}" name="クラシックフォルダー名" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{FA065946-08F0-44EA-88E1-5F43671144BF}" name="ロボットID" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボット名" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{177430C7-2F9E-409D-BC49-7629DE8EEA9B}" name="マシンID" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="マシン名" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロボットグループ" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ホスティングの種類" totalsRowLabel="Total" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ロボットの種類" totalsRowFunction="count" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{5EFC1BB3-6990-460F-ABD6-81FDFAC25684}" name="ユーザー名" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{182D5CAA-95B1-44EF-92D3-4FCFEBA71873}" name="ログレベル" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{D79BC773-A07E-4D39-B484-BFC0DDA92820}" name="開発ログを許可" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{B7F99414-218A-4082-A039-64D598227125}" name="コンソールへログイン" dataDxfId="33"/>
+    <tableColumn id="16" xr3:uid="{50EDC573-78B0-41C2-A34C-82BE7FF0D627}" name="解像度の幅" dataDxfId="32"/>
+    <tableColumn id="17" xr3:uid="{3D7EC743-9A17-4D0F-843F-909806FBF633}" name="解像度の高さ" dataDxfId="31"/>
+    <tableColumn id="18" xr3:uid="{6AE6A811-DF60-4BB7-AAD8-42BD4E625BFD}" name="解像度の階調" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{086E792E-DBEF-4A10-8BB2-E8F27DBFD2DB}" name="フォントスムージング" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="プロセスを自動ダウンロード" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1612,7 +1912,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1620,28 +1920,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="2" customWidth="1"/>
-    <col min="6" max="7" width="25.75" style="2" customWidth="1"/>
-    <col min="8" max="9" width="15.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="2"/>
-    <col min="14" max="14" width="20.58203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="2"/>
-    <col min="16" max="16" width="18" style="2" customWidth="1"/>
-    <col min="17" max="17" width="26.4140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.75" style="2"/>
-    <col min="19" max="19" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="17.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="29" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="25" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="25" customWidth="1"/>
+    <col min="6" max="7" width="25.75" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="29" customWidth="1"/>
+    <col min="9" max="10" width="15.75" style="30" customWidth="1"/>
+    <col min="11" max="18" width="25.75" style="5" customWidth="1"/>
+    <col min="19" max="19" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.83203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.75" style="2"/>
+    <col min="22" max="22" width="20.58203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.75" style="2"/>
+    <col min="24" max="24" width="18" style="2" customWidth="1"/>
+    <col min="25" max="25" width="26.4140625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="8.75" style="2"/>
+    <col min="27" max="27" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1672,8 +1973,32 @@
       <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1685,7 +2010,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1697,7 +2022,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1709,7 +2034,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1721,7 +2046,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1733,7 +2058,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="15"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1745,7 +2070,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="15"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1757,7 +2082,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1769,7 +2094,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1781,7 +2106,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1793,7 +2118,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="15"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1805,7 +2130,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="15"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1817,7 +2142,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1829,7 +2154,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1839,9 +2164,9 @@
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1851,7 +2176,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15"/>
@@ -1863,7 +2188,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15"/>
@@ -1875,7 +2200,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15"/>
@@ -1887,7 +2212,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15"/>
@@ -1899,7 +2224,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="15"/>
@@ -1911,7 +2236,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="15"/>
@@ -1923,7 +2248,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="15"/>
@@ -1935,7 +2260,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="7"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="15"/>
@@ -1947,7 +2272,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="15"/>
@@ -1959,7 +2284,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="7"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="15"/>
@@ -1971,7 +2296,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="15"/>
@@ -1983,7 +2308,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="7"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="15"/>
@@ -1995,7 +2320,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
       <c r="I28" s="16"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="15"/>
@@ -2007,7 +2332,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
       <c r="I29" s="16"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="15"/>
@@ -2019,7 +2344,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
       <c r="I30" s="16"/>
-      <c r="J30" s="7"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="15"/>
@@ -2031,7 +2356,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
       <c r="I31" s="16"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="15"/>
@@ -2043,7 +2368,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
       <c r="I32" s="16"/>
-      <c r="J32" s="7"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="15"/>
@@ -2055,7 +2380,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
       <c r="I33" s="16"/>
-      <c r="J33" s="7"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="15"/>
@@ -2067,7 +2392,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="7"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="15"/>
@@ -2079,7 +2404,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
       <c r="I35" s="16"/>
-      <c r="J35" s="7"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="15"/>
@@ -2091,7 +2416,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="6"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="7"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="15"/>
@@ -2103,7 +2428,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
       <c r="I37" s="16"/>
-      <c r="J37" s="7"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="15"/>
@@ -2115,7 +2440,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
       <c r="I38" s="16"/>
-      <c r="J38" s="7"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="15"/>
@@ -2127,7 +2452,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="6"/>
       <c r="I39" s="16"/>
-      <c r="J39" s="7"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="15"/>
@@ -2139,7 +2464,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
       <c r="I40" s="16"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="15"/>
@@ -2151,7 +2476,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
       <c r="I41" s="16"/>
-      <c r="J41" s="7"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="15"/>
@@ -2163,7 +2488,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="6"/>
       <c r="I42" s="16"/>
-      <c r="J42" s="7"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="15"/>
@@ -2175,7 +2500,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="6"/>
       <c r="I43" s="16"/>
-      <c r="J43" s="7"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="15"/>
@@ -2187,7 +2512,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="6"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="7"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="15"/>
@@ -2199,7 +2524,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="7"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="15"/>
@@ -2211,7 +2536,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
       <c r="I46" s="16"/>
-      <c r="J46" s="7"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="15"/>
@@ -2223,7 +2548,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="6"/>
       <c r="I47" s="16"/>
-      <c r="J47" s="7"/>
+      <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="15"/>
@@ -2235,7 +2560,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="6"/>
       <c r="I48" s="16"/>
-      <c r="J48" s="7"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="15"/>
@@ -2247,7 +2572,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="6"/>
       <c r="I49" s="16"/>
-      <c r="J49" s="7"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="15"/>
@@ -2259,7 +2584,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="6"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="7"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="15"/>
@@ -2271,7 +2596,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="6"/>
       <c r="I51" s="16"/>
-      <c r="J51" s="7"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="15"/>
@@ -2283,7 +2608,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="6"/>
       <c r="I52" s="16"/>
-      <c r="J52" s="7"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="15"/>
@@ -2295,7 +2620,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="6"/>
       <c r="I53" s="16"/>
-      <c r="J53" s="7"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="15"/>
@@ -2307,7 +2632,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="6"/>
       <c r="I54" s="16"/>
-      <c r="J54" s="7"/>
+      <c r="J54" s="26"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="15"/>
@@ -2319,7 +2644,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="6"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="7"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="15"/>
@@ -2331,7 +2656,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="6"/>
       <c r="I56" s="16"/>
-      <c r="J56" s="7"/>
+      <c r="J56" s="26"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="15"/>
@@ -2343,7 +2668,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="6"/>
       <c r="I57" s="16"/>
-      <c r="J57" s="7"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="15"/>
@@ -2355,7 +2680,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="6"/>
       <c r="I58" s="16"/>
-      <c r="J58" s="7"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="15"/>
@@ -2367,7 +2692,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
       <c r="I59" s="16"/>
-      <c r="J59" s="7"/>
+      <c r="J59" s="26"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="15"/>
@@ -2379,7 +2704,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="6"/>
       <c r="I60" s="16"/>
-      <c r="J60" s="7"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="15"/>
@@ -2391,7 +2716,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="6"/>
       <c r="I61" s="16"/>
-      <c r="J61" s="7"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="15"/>
@@ -2403,7 +2728,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="6"/>
       <c r="I62" s="16"/>
-      <c r="J62" s="7"/>
+      <c r="J62" s="26"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="15"/>
@@ -2415,7 +2740,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="6"/>
       <c r="I63" s="16"/>
-      <c r="J63" s="7"/>
+      <c r="J63" s="26"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="15"/>
@@ -2427,7 +2752,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="6"/>
       <c r="I64" s="16"/>
-      <c r="J64" s="7"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="15"/>
@@ -2439,7 +2764,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="6"/>
       <c r="I65" s="16"/>
-      <c r="J65" s="7"/>
+      <c r="J65" s="26"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="15"/>
@@ -2451,7 +2776,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="6"/>
       <c r="I66" s="16"/>
-      <c r="J66" s="7"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="15"/>
@@ -2463,7 +2788,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="6"/>
       <c r="I67" s="16"/>
-      <c r="J67" s="7"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="15"/>
@@ -2475,7 +2800,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="6"/>
       <c r="I68" s="16"/>
-      <c r="J68" s="7"/>
+      <c r="J68" s="26"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="15"/>
@@ -2487,7 +2812,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="6"/>
       <c r="I69" s="16"/>
-      <c r="J69" s="7"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="15"/>
@@ -2499,7 +2824,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="6"/>
       <c r="I70" s="16"/>
-      <c r="J70" s="7"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="15"/>
@@ -2511,7 +2836,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="6"/>
       <c r="I71" s="16"/>
-      <c r="J71" s="7"/>
+      <c r="J71" s="26"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="15"/>
@@ -2523,7 +2848,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="6"/>
       <c r="I72" s="16"/>
-      <c r="J72" s="7"/>
+      <c r="J72" s="26"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="15"/>
@@ -2535,7 +2860,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="6"/>
       <c r="I73" s="16"/>
-      <c r="J73" s="7"/>
+      <c r="J73" s="26"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="15"/>
@@ -2547,7 +2872,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="6"/>
       <c r="I74" s="16"/>
-      <c r="J74" s="7"/>
+      <c r="J74" s="26"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="15"/>
@@ -2559,7 +2884,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="6"/>
       <c r="I75" s="16"/>
-      <c r="J75" s="7"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="15"/>
@@ -2571,7 +2896,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="6"/>
       <c r="I76" s="16"/>
-      <c r="J76" s="7"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="15"/>
@@ -2583,7 +2908,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="6"/>
       <c r="I77" s="16"/>
-      <c r="J77" s="7"/>
+      <c r="J77" s="26"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="15"/>
@@ -2595,7 +2920,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="6"/>
       <c r="I78" s="16"/>
-      <c r="J78" s="7"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="15"/>
@@ -2607,7 +2932,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="6"/>
       <c r="I79" s="16"/>
-      <c r="J79" s="7"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="15"/>
@@ -2619,7 +2944,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="6"/>
       <c r="I80" s="16"/>
-      <c r="J80" s="7"/>
+      <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="15"/>
@@ -2631,7 +2956,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="6"/>
       <c r="I81" s="16"/>
-      <c r="J81" s="7"/>
+      <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="15"/>
@@ -2643,7 +2968,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="6"/>
       <c r="I82" s="16"/>
-      <c r="J82" s="7"/>
+      <c r="J82" s="26"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="15"/>
@@ -2655,7 +2980,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="6"/>
       <c r="I83" s="16"/>
-      <c r="J83" s="7"/>
+      <c r="J83" s="26"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="15"/>
@@ -2667,7 +2992,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="6"/>
       <c r="I84" s="16"/>
-      <c r="J84" s="7"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="15"/>
@@ -2679,7 +3004,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="6"/>
       <c r="I85" s="16"/>
-      <c r="J85" s="7"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="15"/>
@@ -2691,7 +3016,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="6"/>
       <c r="I86" s="16"/>
-      <c r="J86" s="7"/>
+      <c r="J86" s="26"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="15"/>
@@ -2703,7 +3028,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="6"/>
       <c r="I87" s="16"/>
-      <c r="J87" s="7"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="15"/>
@@ -2715,7 +3040,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="6"/>
       <c r="I88" s="16"/>
-      <c r="J88" s="7"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="15"/>
@@ -2727,7 +3052,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="6"/>
       <c r="I89" s="16"/>
-      <c r="J89" s="7"/>
+      <c r="J89" s="26"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="15"/>
@@ -2739,7 +3064,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="6"/>
       <c r="I90" s="16"/>
-      <c r="J90" s="7"/>
+      <c r="J90" s="26"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="15"/>
@@ -2751,7 +3076,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="6"/>
       <c r="I91" s="16"/>
-      <c r="J91" s="7"/>
+      <c r="J91" s="26"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="15"/>
@@ -2763,7 +3088,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="6"/>
       <c r="I92" s="16"/>
-      <c r="J92" s="7"/>
+      <c r="J92" s="26"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="15"/>
@@ -2775,7 +3100,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="6"/>
       <c r="I93" s="16"/>
-      <c r="J93" s="7"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="15"/>
@@ -2787,7 +3112,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="6"/>
       <c r="I94" s="16"/>
-      <c r="J94" s="7"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="15"/>
@@ -2799,7 +3124,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="6"/>
       <c r="I95" s="16"/>
-      <c r="J95" s="7"/>
+      <c r="J95" s="26"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="15"/>
@@ -2811,7 +3136,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="6"/>
       <c r="I96" s="16"/>
-      <c r="J96" s="7"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="15"/>
@@ -2823,7 +3148,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="6"/>
       <c r="I97" s="16"/>
-      <c r="J97" s="7"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="15"/>
@@ -2835,7 +3160,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="6"/>
       <c r="I98" s="16"/>
-      <c r="J98" s="7"/>
+      <c r="J98" s="26"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="15"/>
@@ -2847,7 +3172,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="6"/>
       <c r="I99" s="16"/>
-      <c r="J99" s="7"/>
+      <c r="J99" s="26"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="15"/>
@@ -2859,7 +3184,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="6"/>
       <c r="I100" s="16"/>
-      <c r="J100" s="7"/>
+      <c r="J100" s="26"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="15"/>
@@ -2871,7 +3196,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="6"/>
       <c r="I101" s="16"/>
-      <c r="J101" s="7"/>
+      <c r="J101" s="26"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="15"/>
@@ -2883,7 +3208,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="5"/>
       <c r="I102" s="17"/>
-      <c r="J102" s="7"/>
+      <c r="J102" s="27"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="15"/>
@@ -2895,7 +3220,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="5"/>
       <c r="I103" s="17"/>
-      <c r="J103" s="7"/>
+      <c r="J103" s="27"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="15"/>
@@ -2907,7 +3232,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="5"/>
       <c r="I104" s="17"/>
-      <c r="J104" s="7"/>
+      <c r="J104" s="27"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="15"/>
@@ -2919,7 +3244,7 @@
       <c r="G105" s="6"/>
       <c r="H105" s="5"/>
       <c r="I105" s="17"/>
-      <c r="J105" s="7"/>
+      <c r="J105" s="27"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="15"/>
@@ -2931,7 +3256,7 @@
       <c r="G106" s="6"/>
       <c r="H106" s="5"/>
       <c r="I106" s="17"/>
-      <c r="J106" s="7"/>
+      <c r="J106" s="27"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="15"/>
@@ -2943,7 +3268,7 @@
       <c r="G107" s="6"/>
       <c r="H107" s="5"/>
       <c r="I107" s="17"/>
-      <c r="J107" s="7"/>
+      <c r="J107" s="27"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="15"/>
@@ -2955,7 +3280,7 @@
       <c r="G108" s="6"/>
       <c r="H108" s="5"/>
       <c r="I108" s="17"/>
-      <c r="J108" s="7"/>
+      <c r="J108" s="27"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="15"/>
@@ -2967,7 +3292,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="5"/>
       <c r="I109" s="17"/>
-      <c r="J109" s="7"/>
+      <c r="J109" s="27"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="15"/>
@@ -2979,7 +3304,7 @@
       <c r="G110" s="6"/>
       <c r="H110" s="5"/>
       <c r="I110" s="17"/>
-      <c r="J110" s="7"/>
+      <c r="J110" s="27"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="15"/>
@@ -2991,7 +3316,7 @@
       <c r="G111" s="6"/>
       <c r="H111" s="5"/>
       <c r="I111" s="17"/>
-      <c r="J111" s="7"/>
+      <c r="J111" s="27"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="15"/>
@@ -3003,7 +3328,7 @@
       <c r="G112" s="6"/>
       <c r="H112" s="5"/>
       <c r="I112" s="17"/>
-      <c r="J112" s="7"/>
+      <c r="J112" s="27"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="15"/>
@@ -3015,7 +3340,7 @@
       <c r="G113" s="6"/>
       <c r="H113" s="5"/>
       <c r="I113" s="17"/>
-      <c r="J113" s="7"/>
+      <c r="J113" s="27"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="15"/>
@@ -3027,7 +3352,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="5"/>
       <c r="I114" s="17"/>
-      <c r="J114" s="7"/>
+      <c r="J114" s="27"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="15"/>
@@ -3039,7 +3364,7 @@
       <c r="G115" s="6"/>
       <c r="H115" s="5"/>
       <c r="I115" s="17"/>
-      <c r="J115" s="7"/>
+      <c r="J115" s="27"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="15"/>
@@ -3051,7 +3376,7 @@
       <c r="G116" s="6"/>
       <c r="H116" s="5"/>
       <c r="I116" s="17"/>
-      <c r="J116" s="7"/>
+      <c r="J116" s="27"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="15"/>
@@ -3063,7 +3388,7 @@
       <c r="G117" s="6"/>
       <c r="H117" s="5"/>
       <c r="I117" s="17"/>
-      <c r="J117" s="7"/>
+      <c r="J117" s="27"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="15"/>
@@ -3075,7 +3400,7 @@
       <c r="G118" s="6"/>
       <c r="H118" s="5"/>
       <c r="I118" s="17"/>
-      <c r="J118" s="7"/>
+      <c r="J118" s="27"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="15"/>
@@ -3087,7 +3412,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="5"/>
       <c r="I119" s="17"/>
-      <c r="J119" s="7"/>
+      <c r="J119" s="27"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="15"/>
@@ -3099,7 +3424,7 @@
       <c r="G120" s="6"/>
       <c r="H120" s="5"/>
       <c r="I120" s="17"/>
-      <c r="J120" s="7"/>
+      <c r="J120" s="27"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="15"/>
@@ -3111,7 +3436,7 @@
       <c r="G121" s="6"/>
       <c r="H121" s="5"/>
       <c r="I121" s="17"/>
-      <c r="J121" s="7"/>
+      <c r="J121" s="27"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="15"/>
@@ -3123,7 +3448,7 @@
       <c r="G122" s="6"/>
       <c r="H122" s="5"/>
       <c r="I122" s="17"/>
-      <c r="J122" s="7"/>
+      <c r="J122" s="27"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="15"/>
@@ -3135,7 +3460,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="5"/>
       <c r="I123" s="17"/>
-      <c r="J123" s="7"/>
+      <c r="J123" s="27"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="15"/>
@@ -3147,7 +3472,7 @@
       <c r="G124" s="6"/>
       <c r="H124" s="5"/>
       <c r="I124" s="17"/>
-      <c r="J124" s="7"/>
+      <c r="J124" s="27"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="15"/>
@@ -3159,7 +3484,7 @@
       <c r="G125" s="6"/>
       <c r="H125" s="5"/>
       <c r="I125" s="17"/>
-      <c r="J125" s="7"/>
+      <c r="J125" s="27"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="15"/>
@@ -3171,7 +3496,7 @@
       <c r="G126" s="6"/>
       <c r="H126" s="5"/>
       <c r="I126" s="17"/>
-      <c r="J126" s="7"/>
+      <c r="J126" s="27"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="15"/>
@@ -3183,7 +3508,7 @@
       <c r="G127" s="6"/>
       <c r="H127" s="5"/>
       <c r="I127" s="17"/>
-      <c r="J127" s="7"/>
+      <c r="J127" s="27"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="15"/>
@@ -3195,7 +3520,7 @@
       <c r="G128" s="6"/>
       <c r="H128" s="5"/>
       <c r="I128" s="17"/>
-      <c r="J128" s="7"/>
+      <c r="J128" s="27"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="15"/>
@@ -3207,7 +3532,7 @@
       <c r="G129" s="6"/>
       <c r="H129" s="5"/>
       <c r="I129" s="17"/>
-      <c r="J129" s="7"/>
+      <c r="J129" s="27"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="15"/>
@@ -3219,7 +3544,7 @@
       <c r="G130" s="6"/>
       <c r="H130" s="5"/>
       <c r="I130" s="17"/>
-      <c r="J130" s="7"/>
+      <c r="J130" s="27"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="15"/>
@@ -3231,7 +3556,7 @@
       <c r="G131" s="6"/>
       <c r="H131" s="5"/>
       <c r="I131" s="17"/>
-      <c r="J131" s="7"/>
+      <c r="J131" s="27"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="15"/>
@@ -3243,7 +3568,7 @@
       <c r="G132" s="6"/>
       <c r="H132" s="5"/>
       <c r="I132" s="17"/>
-      <c r="J132" s="7"/>
+      <c r="J132" s="27"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="15"/>
@@ -3255,7 +3580,7 @@
       <c r="G133" s="6"/>
       <c r="H133" s="5"/>
       <c r="I133" s="17"/>
-      <c r="J133" s="7"/>
+      <c r="J133" s="27"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="15"/>
@@ -3267,7 +3592,7 @@
       <c r="G134" s="6"/>
       <c r="H134" s="5"/>
       <c r="I134" s="17"/>
-      <c r="J134" s="7"/>
+      <c r="J134" s="27"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="15"/>
@@ -3279,7 +3604,7 @@
       <c r="G135" s="6"/>
       <c r="H135" s="5"/>
       <c r="I135" s="17"/>
-      <c r="J135" s="7"/>
+      <c r="J135" s="27"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="15"/>
@@ -3291,7 +3616,7 @@
       <c r="G136" s="6"/>
       <c r="H136" s="5"/>
       <c r="I136" s="17"/>
-      <c r="J136" s="7"/>
+      <c r="J136" s="27"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="15"/>
@@ -3303,7 +3628,7 @@
       <c r="G137" s="6"/>
       <c r="H137" s="5"/>
       <c r="I137" s="17"/>
-      <c r="J137" s="7"/>
+      <c r="J137" s="27"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="15"/>
@@ -3315,7 +3640,7 @@
       <c r="G138" s="6"/>
       <c r="H138" s="5"/>
       <c r="I138" s="17"/>
-      <c r="J138" s="7"/>
+      <c r="J138" s="27"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="15"/>
@@ -3327,7 +3652,7 @@
       <c r="G139" s="6"/>
       <c r="H139" s="5"/>
       <c r="I139" s="17"/>
-      <c r="J139" s="7"/>
+      <c r="J139" s="27"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="15"/>
@@ -3339,7 +3664,7 @@
       <c r="G140" s="6"/>
       <c r="H140" s="5"/>
       <c r="I140" s="17"/>
-      <c r="J140" s="7"/>
+      <c r="J140" s="27"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="15"/>
@@ -3351,7 +3676,7 @@
       <c r="G141" s="6"/>
       <c r="H141" s="5"/>
       <c r="I141" s="17"/>
-      <c r="J141" s="7"/>
+      <c r="J141" s="27"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="15"/>
@@ -3363,7 +3688,7 @@
       <c r="G142" s="6"/>
       <c r="H142" s="5"/>
       <c r="I142" s="17"/>
-      <c r="J142" s="7"/>
+      <c r="J142" s="27"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="15"/>
@@ -3375,7 +3700,7 @@
       <c r="G143" s="6"/>
       <c r="H143" s="5"/>
       <c r="I143" s="17"/>
-      <c r="J143" s="7"/>
+      <c r="J143" s="27"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="15"/>
@@ -3387,7 +3712,7 @@
       <c r="G144" s="6"/>
       <c r="H144" s="5"/>
       <c r="I144" s="17"/>
-      <c r="J144" s="7"/>
+      <c r="J144" s="27"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="15"/>
@@ -3399,7 +3724,7 @@
       <c r="G145" s="6"/>
       <c r="H145" s="5"/>
       <c r="I145" s="17"/>
-      <c r="J145" s="7"/>
+      <c r="J145" s="27"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="15"/>
@@ -3411,7 +3736,7 @@
       <c r="G146" s="6"/>
       <c r="H146" s="5"/>
       <c r="I146" s="17"/>
-      <c r="J146" s="7"/>
+      <c r="J146" s="27"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="15"/>
@@ -3423,7 +3748,7 @@
       <c r="G147" s="6"/>
       <c r="H147" s="5"/>
       <c r="I147" s="17"/>
-      <c r="J147" s="7"/>
+      <c r="J147" s="27"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="15"/>
@@ -3435,7 +3760,7 @@
       <c r="G148" s="6"/>
       <c r="H148" s="5"/>
       <c r="I148" s="17"/>
-      <c r="J148" s="7"/>
+      <c r="J148" s="27"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="15"/>
@@ -3447,7 +3772,7 @@
       <c r="G149" s="6"/>
       <c r="H149" s="5"/>
       <c r="I149" s="17"/>
-      <c r="J149" s="7"/>
+      <c r="J149" s="27"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="15"/>
@@ -3459,7 +3784,7 @@
       <c r="G150" s="6"/>
       <c r="H150" s="5"/>
       <c r="I150" s="17"/>
-      <c r="J150" s="7"/>
+      <c r="J150" s="27"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="15"/>
@@ -3471,7 +3796,7 @@
       <c r="G151" s="6"/>
       <c r="H151" s="5"/>
       <c r="I151" s="17"/>
-      <c r="J151" s="7"/>
+      <c r="J151" s="27"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="15"/>
@@ -3483,7 +3808,7 @@
       <c r="G152" s="6"/>
       <c r="H152" s="5"/>
       <c r="I152" s="17"/>
-      <c r="J152" s="7"/>
+      <c r="J152" s="27"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="15"/>
@@ -3495,7 +3820,7 @@
       <c r="G153" s="6"/>
       <c r="H153" s="5"/>
       <c r="I153" s="17"/>
-      <c r="J153" s="7"/>
+      <c r="J153" s="27"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="15"/>
@@ -3507,7 +3832,7 @@
       <c r="G154" s="6"/>
       <c r="H154" s="5"/>
       <c r="I154" s="17"/>
-      <c r="J154" s="7"/>
+      <c r="J154" s="27"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="15"/>
@@ -3519,7 +3844,7 @@
       <c r="G155" s="6"/>
       <c r="H155" s="5"/>
       <c r="I155" s="17"/>
-      <c r="J155" s="7"/>
+      <c r="J155" s="27"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="15"/>
@@ -3531,7 +3856,7 @@
       <c r="G156" s="6"/>
       <c r="H156" s="5"/>
       <c r="I156" s="17"/>
-      <c r="J156" s="7"/>
+      <c r="J156" s="27"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="15"/>
@@ -3543,7 +3868,7 @@
       <c r="G157" s="6"/>
       <c r="H157" s="5"/>
       <c r="I157" s="17"/>
-      <c r="J157" s="7"/>
+      <c r="J157" s="27"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="15"/>
@@ -3555,7 +3880,7 @@
       <c r="G158" s="6"/>
       <c r="H158" s="5"/>
       <c r="I158" s="17"/>
-      <c r="J158" s="7"/>
+      <c r="J158" s="27"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="15"/>
@@ -3567,7 +3892,7 @@
       <c r="G159" s="6"/>
       <c r="H159" s="5"/>
       <c r="I159" s="17"/>
-      <c r="J159" s="7"/>
+      <c r="J159" s="27"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="15"/>
@@ -3579,7 +3904,7 @@
       <c r="G160" s="6"/>
       <c r="H160" s="5"/>
       <c r="I160" s="17"/>
-      <c r="J160" s="7"/>
+      <c r="J160" s="27"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="15"/>
@@ -3591,7 +3916,7 @@
       <c r="G161" s="6"/>
       <c r="H161" s="5"/>
       <c r="I161" s="17"/>
-      <c r="J161" s="7"/>
+      <c r="J161" s="27"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="15"/>
@@ -3603,7 +3928,7 @@
       <c r="G162" s="6"/>
       <c r="H162" s="5"/>
       <c r="I162" s="17"/>
-      <c r="J162" s="7"/>
+      <c r="J162" s="27"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="15"/>
@@ -3615,7 +3940,7 @@
       <c r="G163" s="6"/>
       <c r="H163" s="5"/>
       <c r="I163" s="17"/>
-      <c r="J163" s="7"/>
+      <c r="J163" s="27"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="15"/>
@@ -3627,7 +3952,7 @@
       <c r="G164" s="6"/>
       <c r="H164" s="5"/>
       <c r="I164" s="17"/>
-      <c r="J164" s="7"/>
+      <c r="J164" s="27"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="15"/>
@@ -3639,7 +3964,7 @@
       <c r="G165" s="6"/>
       <c r="H165" s="5"/>
       <c r="I165" s="17"/>
-      <c r="J165" s="7"/>
+      <c r="J165" s="27"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="15"/>
@@ -3651,7 +3976,7 @@
       <c r="G166" s="6"/>
       <c r="H166" s="5"/>
       <c r="I166" s="17"/>
-      <c r="J166" s="7"/>
+      <c r="J166" s="27"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="15"/>
@@ -3663,7 +3988,7 @@
       <c r="G167" s="6"/>
       <c r="H167" s="5"/>
       <c r="I167" s="17"/>
-      <c r="J167" s="7"/>
+      <c r="J167" s="27"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="15"/>
@@ -3675,7 +4000,7 @@
       <c r="G168" s="6"/>
       <c r="H168" s="5"/>
       <c r="I168" s="17"/>
-      <c r="J168" s="7"/>
+      <c r="J168" s="27"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="15"/>
@@ -3687,7 +4012,7 @@
       <c r="G169" s="6"/>
       <c r="H169" s="5"/>
       <c r="I169" s="17"/>
-      <c r="J169" s="7"/>
+      <c r="J169" s="27"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="15"/>
@@ -3699,7 +4024,7 @@
       <c r="G170" s="6"/>
       <c r="H170" s="5"/>
       <c r="I170" s="17"/>
-      <c r="J170" s="7"/>
+      <c r="J170" s="27"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="15"/>
@@ -3711,7 +4036,7 @@
       <c r="G171" s="6"/>
       <c r="H171" s="5"/>
       <c r="I171" s="17"/>
-      <c r="J171" s="7"/>
+      <c r="J171" s="27"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="15"/>
@@ -3723,7 +4048,7 @@
       <c r="G172" s="6"/>
       <c r="H172" s="5"/>
       <c r="I172" s="17"/>
-      <c r="J172" s="7"/>
+      <c r="J172" s="27"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="15"/>
@@ -3735,7 +4060,7 @@
       <c r="G173" s="6"/>
       <c r="H173" s="5"/>
       <c r="I173" s="17"/>
-      <c r="J173" s="7"/>
+      <c r="J173" s="27"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="15"/>
@@ -3747,7 +4072,7 @@
       <c r="G174" s="6"/>
       <c r="H174" s="5"/>
       <c r="I174" s="17"/>
-      <c r="J174" s="7"/>
+      <c r="J174" s="27"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="15"/>
@@ -3759,7 +4084,7 @@
       <c r="G175" s="6"/>
       <c r="H175" s="5"/>
       <c r="I175" s="17"/>
-      <c r="J175" s="7"/>
+      <c r="J175" s="27"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="15"/>
@@ -3771,7 +4096,7 @@
       <c r="G176" s="6"/>
       <c r="H176" s="5"/>
       <c r="I176" s="17"/>
-      <c r="J176" s="7"/>
+      <c r="J176" s="27"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="15"/>
@@ -3783,7 +4108,7 @@
       <c r="G177" s="6"/>
       <c r="H177" s="5"/>
       <c r="I177" s="17"/>
-      <c r="J177" s="7"/>
+      <c r="J177" s="27"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="15"/>
@@ -3795,7 +4120,7 @@
       <c r="G178" s="6"/>
       <c r="H178" s="5"/>
       <c r="I178" s="17"/>
-      <c r="J178" s="7"/>
+      <c r="J178" s="27"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="15"/>
@@ -3807,7 +4132,7 @@
       <c r="G179" s="6"/>
       <c r="H179" s="5"/>
       <c r="I179" s="17"/>
-      <c r="J179" s="7"/>
+      <c r="J179" s="27"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="15"/>
@@ -3819,7 +4144,7 @@
       <c r="G180" s="6"/>
       <c r="H180" s="5"/>
       <c r="I180" s="17"/>
-      <c r="J180" s="7"/>
+      <c r="J180" s="27"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="15"/>
@@ -3831,7 +4156,7 @@
       <c r="G181" s="6"/>
       <c r="H181" s="5"/>
       <c r="I181" s="17"/>
-      <c r="J181" s="7"/>
+      <c r="J181" s="27"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="15"/>
@@ -3843,7 +4168,7 @@
       <c r="G182" s="6"/>
       <c r="H182" s="5"/>
       <c r="I182" s="17"/>
-      <c r="J182" s="7"/>
+      <c r="J182" s="27"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="15"/>
@@ -3855,7 +4180,7 @@
       <c r="G183" s="6"/>
       <c r="H183" s="5"/>
       <c r="I183" s="17"/>
-      <c r="J183" s="7"/>
+      <c r="J183" s="27"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="15"/>
@@ -3867,7 +4192,7 @@
       <c r="G184" s="6"/>
       <c r="H184" s="5"/>
       <c r="I184" s="17"/>
-      <c r="J184" s="7"/>
+      <c r="J184" s="27"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="15"/>
@@ -3879,7 +4204,7 @@
       <c r="G185" s="6"/>
       <c r="H185" s="5"/>
       <c r="I185" s="17"/>
-      <c r="J185" s="7"/>
+      <c r="J185" s="27"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="15"/>
@@ -3891,7 +4216,7 @@
       <c r="G186" s="6"/>
       <c r="H186" s="5"/>
       <c r="I186" s="17"/>
-      <c r="J186" s="7"/>
+      <c r="J186" s="27"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="15"/>
@@ -3903,7 +4228,7 @@
       <c r="G187" s="6"/>
       <c r="H187" s="5"/>
       <c r="I187" s="17"/>
-      <c r="J187" s="7"/>
+      <c r="J187" s="27"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="15"/>
@@ -3915,7 +4240,7 @@
       <c r="G188" s="6"/>
       <c r="H188" s="5"/>
       <c r="I188" s="17"/>
-      <c r="J188" s="7"/>
+      <c r="J188" s="27"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="15"/>
@@ -3927,7 +4252,7 @@
       <c r="G189" s="6"/>
       <c r="H189" s="5"/>
       <c r="I189" s="17"/>
-      <c r="J189" s="7"/>
+      <c r="J189" s="27"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="15"/>
@@ -3939,7 +4264,7 @@
       <c r="G190" s="6"/>
       <c r="H190" s="5"/>
       <c r="I190" s="17"/>
-      <c r="J190" s="7"/>
+      <c r="J190" s="27"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="15"/>
@@ -3951,7 +4276,7 @@
       <c r="G191" s="6"/>
       <c r="H191" s="5"/>
       <c r="I191" s="17"/>
-      <c r="J191" s="7"/>
+      <c r="J191" s="27"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="15"/>
@@ -3963,7 +4288,7 @@
       <c r="G192" s="6"/>
       <c r="H192" s="5"/>
       <c r="I192" s="17"/>
-      <c r="J192" s="7"/>
+      <c r="J192" s="27"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="15"/>
@@ -3975,7 +4300,7 @@
       <c r="G193" s="6"/>
       <c r="H193" s="5"/>
       <c r="I193" s="17"/>
-      <c r="J193" s="7"/>
+      <c r="J193" s="27"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="15"/>
@@ -3987,7 +4312,7 @@
       <c r="G194" s="6"/>
       <c r="H194" s="5"/>
       <c r="I194" s="17"/>
-      <c r="J194" s="7"/>
+      <c r="J194" s="27"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="15"/>
@@ -3999,7 +4324,7 @@
       <c r="G195" s="6"/>
       <c r="H195" s="5"/>
       <c r="I195" s="17"/>
-      <c r="J195" s="7"/>
+      <c r="J195" s="27"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="15"/>
@@ -4011,7 +4336,7 @@
       <c r="G196" s="6"/>
       <c r="H196" s="5"/>
       <c r="I196" s="17"/>
-      <c r="J196" s="7"/>
+      <c r="J196" s="27"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="15"/>
@@ -4023,7 +4348,7 @@
       <c r="G197" s="6"/>
       <c r="H197" s="5"/>
       <c r="I197" s="17"/>
-      <c r="J197" s="7"/>
+      <c r="J197" s="27"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="15"/>
@@ -4035,7 +4360,7 @@
       <c r="G198" s="6"/>
       <c r="H198" s="5"/>
       <c r="I198" s="17"/>
-      <c r="J198" s="7"/>
+      <c r="J198" s="27"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="15"/>
@@ -4047,7 +4372,7 @@
       <c r="G199" s="6"/>
       <c r="H199" s="5"/>
       <c r="I199" s="17"/>
-      <c r="J199" s="7"/>
+      <c r="J199" s="27"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="15"/>
@@ -4059,7 +4384,7 @@
       <c r="G200" s="6"/>
       <c r="H200" s="5"/>
       <c r="I200" s="17"/>
-      <c r="J200" s="7"/>
+      <c r="J200" s="27"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="18"/>
@@ -4071,14 +4396,11 @@
       <c r="G201" s="9"/>
       <c r="H201" s="8"/>
       <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
+      <c r="J201" s="28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J102:J1048576" xr:uid="{315666C5-0397-470F-A633-C919BAAA5B0E}">
-      <formula1>"Standard,Floating"</formula1>
-    </dataValidation>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="8">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Classic Folder ID" error="Classic Folder ID must be greater than 0." sqref="A2:A1048576" xr:uid="{EB4D44DE-701B-4DE0-8AA9-ED0F71004C11}">
       <formula1>0</formula1>
     </dataValidation>
@@ -4091,8 +4413,18 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Hosting Type" error="Please select a supported Hosting Type." sqref="H2:H1048576" xr:uid="{86919392-48EB-4711-B7E8-F09F11610940}">
       <formula1>"Standard,Floating"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot Type" error="Please select a supported Robot Type." sqref="I2:I1048576" xr:uid="{B29B73DC-4066-4F73-A06D-ECE1441D4F6E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Robot Type" error="Please select a supported Robot Type." sqref="I2:J1048576" xr:uid="{B29B73DC-4066-4F73-A06D-ECE1441D4F6E}">
       <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:P1048576" xr:uid="{641B6FE5-8E16-4CFB-AD1A-5D07ABC642F3}">
+      <formula1>0</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{B5A76EF8-DB8B-4508-8C7A-5C427AD1BE1E}">
+      <formula1>"Verbose, Trace, Information, Warning, Error, Critical, Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:R1048576 L2:M1048576" xr:uid="{1257FF10-EAA1-42F6-9E37-7B29A56AB11C}">
+      <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4123,35 +4455,35 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="H1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="24"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -6340,7 +6672,7 @@
       <c r="I200" s="6"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A201" s="25"/>
+      <c r="A201" s="24"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
@@ -6398,28 +6730,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>20</v>
+      <c r="H1" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -8463,19 +8795,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>12</v>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>18</v>
+      <c r="E1" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F712B09E-81AA-4894-A616-3D8DBDD4F8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE19419-E25E-4627-BB37-545FD4846648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1918,7 +1918,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.75" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="29" customWidth="1"/>
@@ -1930,19 +1930,19 @@
     <col min="9" max="10" width="15.75" style="30" customWidth="1"/>
     <col min="11" max="18" width="25.75" style="5" customWidth="1"/>
     <col min="19" max="19" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.875" style="2" customWidth="1"/>
     <col min="21" max="21" width="8.75" style="2"/>
-    <col min="22" max="22" width="20.58203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="20.625" style="2" customWidth="1"/>
     <col min="23" max="23" width="8.75" style="2"/>
     <col min="24" max="24" width="18" style="2" customWidth="1"/>
-    <col min="25" max="25" width="26.4140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="26.375" style="2" customWidth="1"/>
     <col min="26" max="26" width="8.75" style="2"/>
     <col min="27" max="27" width="12.25" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="36.75" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2010,7 +2010,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2022,7 +2022,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="15"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2034,7 +2034,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="15"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2046,7 +2046,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2058,7 +2058,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2070,7 +2070,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2082,7 +2082,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2094,7 +2094,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2106,7 +2106,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2118,7 +2118,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2130,7 +2130,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="15"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2142,7 +2142,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2154,7 +2154,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2166,7 +2166,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="15"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2178,7 +2178,7 @@
       <c r="I16" s="16"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2190,7 +2190,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2202,7 +2202,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="15"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2214,7 +2214,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2226,7 +2226,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="26"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="15"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2238,7 +2238,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2250,7 +2250,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="15"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2262,7 +2262,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="15"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2274,7 +2274,7 @@
       <c r="I24" s="16"/>
       <c r="J24" s="26"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2286,7 +2286,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="26"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2298,7 +2298,7 @@
       <c r="I26" s="16"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="15"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2310,7 +2310,7 @@
       <c r="I27" s="16"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="15"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2322,7 +2322,7 @@
       <c r="I28" s="16"/>
       <c r="J28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="15"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2334,7 +2334,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="15"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2346,7 +2346,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="15"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2358,7 +2358,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="26"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="15"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2370,7 +2370,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="26"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="15"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2382,7 +2382,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="15"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2394,7 +2394,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="26"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="15"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2406,7 +2406,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="26"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="15"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2418,7 +2418,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="26"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="15"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2430,7 +2430,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="26"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="15"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2442,7 +2442,7 @@
       <c r="I38" s="16"/>
       <c r="J38" s="26"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="15"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2454,7 +2454,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="26"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="15"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2466,7 +2466,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="15"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2478,7 +2478,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="26"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="15"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2490,7 +2490,7 @@
       <c r="I42" s="16"/>
       <c r="J42" s="26"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="15"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2502,7 +2502,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="26"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="15"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2514,7 +2514,7 @@
       <c r="I44" s="16"/>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="15"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2526,7 +2526,7 @@
       <c r="I45" s="16"/>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="15"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2538,7 +2538,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="26"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="15"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2550,7 +2550,7 @@
       <c r="I47" s="16"/>
       <c r="J47" s="26"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="15"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2562,7 +2562,7 @@
       <c r="I48" s="16"/>
       <c r="J48" s="26"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="15"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2574,7 +2574,7 @@
       <c r="I49" s="16"/>
       <c r="J49" s="26"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="15"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2586,7 +2586,7 @@
       <c r="I50" s="16"/>
       <c r="J50" s="26"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="15"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2598,7 +2598,7 @@
       <c r="I51" s="16"/>
       <c r="J51" s="26"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="15"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2610,7 +2610,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="26"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="15"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2622,7 +2622,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="26"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="15"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2634,7 +2634,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="26"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="15"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2646,7 +2646,7 @@
       <c r="I55" s="16"/>
       <c r="J55" s="26"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="15"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2658,7 +2658,7 @@
       <c r="I56" s="16"/>
       <c r="J56" s="26"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="15"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2670,7 +2670,7 @@
       <c r="I57" s="16"/>
       <c r="J57" s="26"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="15"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2682,7 +2682,7 @@
       <c r="I58" s="16"/>
       <c r="J58" s="26"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="15"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2694,7 +2694,7 @@
       <c r="I59" s="16"/>
       <c r="J59" s="26"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="15"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2706,7 +2706,7 @@
       <c r="I60" s="16"/>
       <c r="J60" s="26"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="15"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2718,7 +2718,7 @@
       <c r="I61" s="16"/>
       <c r="J61" s="26"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="15"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2730,7 +2730,7 @@
       <c r="I62" s="16"/>
       <c r="J62" s="26"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="15"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2742,7 +2742,7 @@
       <c r="I63" s="16"/>
       <c r="J63" s="26"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="15"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2754,7 +2754,7 @@
       <c r="I64" s="16"/>
       <c r="J64" s="26"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="15"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2766,7 +2766,7 @@
       <c r="I65" s="16"/>
       <c r="J65" s="26"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="15"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2778,7 +2778,7 @@
       <c r="I66" s="16"/>
       <c r="J66" s="26"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="15"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2790,7 +2790,7 @@
       <c r="I67" s="16"/>
       <c r="J67" s="26"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="15"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2802,7 +2802,7 @@
       <c r="I68" s="16"/>
       <c r="J68" s="26"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="15"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2814,7 +2814,7 @@
       <c r="I69" s="16"/>
       <c r="J69" s="26"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="15"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2826,7 +2826,7 @@
       <c r="I70" s="16"/>
       <c r="J70" s="26"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="15"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2838,7 +2838,7 @@
       <c r="I71" s="16"/>
       <c r="J71" s="26"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="15"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2850,7 +2850,7 @@
       <c r="I72" s="16"/>
       <c r="J72" s="26"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="15"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2862,7 +2862,7 @@
       <c r="I73" s="16"/>
       <c r="J73" s="26"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="15"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2874,7 +2874,7 @@
       <c r="I74" s="16"/>
       <c r="J74" s="26"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="15"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2886,7 +2886,7 @@
       <c r="I75" s="16"/>
       <c r="J75" s="26"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="15"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2898,7 +2898,7 @@
       <c r="I76" s="16"/>
       <c r="J76" s="26"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="15"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2910,7 +2910,7 @@
       <c r="I77" s="16"/>
       <c r="J77" s="26"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="15"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2922,7 +2922,7 @@
       <c r="I78" s="16"/>
       <c r="J78" s="26"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="15"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2934,7 +2934,7 @@
       <c r="I79" s="16"/>
       <c r="J79" s="26"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="15"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2946,7 +2946,7 @@
       <c r="I80" s="16"/>
       <c r="J80" s="26"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="15"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2958,7 +2958,7 @@
       <c r="I81" s="16"/>
       <c r="J81" s="26"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="15"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2970,7 +2970,7 @@
       <c r="I82" s="16"/>
       <c r="J82" s="26"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="15"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2982,7 +2982,7 @@
       <c r="I83" s="16"/>
       <c r="J83" s="26"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="15"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2994,7 +2994,7 @@
       <c r="I84" s="16"/>
       <c r="J84" s="26"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="15"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3006,7 +3006,7 @@
       <c r="I85" s="16"/>
       <c r="J85" s="26"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="15"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3018,7 +3018,7 @@
       <c r="I86" s="16"/>
       <c r="J86" s="26"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="15"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3030,7 +3030,7 @@
       <c r="I87" s="16"/>
       <c r="J87" s="26"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="15"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3042,7 +3042,7 @@
       <c r="I88" s="16"/>
       <c r="J88" s="26"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="15"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3054,7 +3054,7 @@
       <c r="I89" s="16"/>
       <c r="J89" s="26"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="15"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3066,7 +3066,7 @@
       <c r="I90" s="16"/>
       <c r="J90" s="26"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="15"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3078,7 +3078,7 @@
       <c r="I91" s="16"/>
       <c r="J91" s="26"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="15"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3090,7 +3090,7 @@
       <c r="I92" s="16"/>
       <c r="J92" s="26"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="15"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3102,7 +3102,7 @@
       <c r="I93" s="16"/>
       <c r="J93" s="26"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="15"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3114,7 +3114,7 @@
       <c r="I94" s="16"/>
       <c r="J94" s="26"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="15"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3126,7 +3126,7 @@
       <c r="I95" s="16"/>
       <c r="J95" s="26"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="15"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3138,7 +3138,7 @@
       <c r="I96" s="16"/>
       <c r="J96" s="26"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="15"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3150,7 +3150,7 @@
       <c r="I97" s="16"/>
       <c r="J97" s="26"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="15"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3162,7 +3162,7 @@
       <c r="I98" s="16"/>
       <c r="J98" s="26"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="15"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3174,7 +3174,7 @@
       <c r="I99" s="16"/>
       <c r="J99" s="26"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="15"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3186,7 +3186,7 @@
       <c r="I100" s="16"/>
       <c r="J100" s="26"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="15"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3198,7 +3198,7 @@
       <c r="I101" s="16"/>
       <c r="J101" s="26"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="15"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3210,7 +3210,7 @@
       <c r="I102" s="17"/>
       <c r="J102" s="27"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="15"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3222,7 +3222,7 @@
       <c r="I103" s="17"/>
       <c r="J103" s="27"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="15"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3234,7 +3234,7 @@
       <c r="I104" s="17"/>
       <c r="J104" s="27"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="15"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3246,7 +3246,7 @@
       <c r="I105" s="17"/>
       <c r="J105" s="27"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="15"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3258,7 +3258,7 @@
       <c r="I106" s="17"/>
       <c r="J106" s="27"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="15"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3270,7 +3270,7 @@
       <c r="I107" s="17"/>
       <c r="J107" s="27"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="15"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3282,7 +3282,7 @@
       <c r="I108" s="17"/>
       <c r="J108" s="27"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="15"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3294,7 +3294,7 @@
       <c r="I109" s="17"/>
       <c r="J109" s="27"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="15"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3306,7 +3306,7 @@
       <c r="I110" s="17"/>
       <c r="J110" s="27"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="15"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3318,7 +3318,7 @@
       <c r="I111" s="17"/>
       <c r="J111" s="27"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="15"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3330,7 +3330,7 @@
       <c r="I112" s="17"/>
       <c r="J112" s="27"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="15"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3342,7 +3342,7 @@
       <c r="I113" s="17"/>
       <c r="J113" s="27"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="15"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3354,7 +3354,7 @@
       <c r="I114" s="17"/>
       <c r="J114" s="27"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="15"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3366,7 +3366,7 @@
       <c r="I115" s="17"/>
       <c r="J115" s="27"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="15"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3378,7 +3378,7 @@
       <c r="I116" s="17"/>
       <c r="J116" s="27"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="15"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3390,7 +3390,7 @@
       <c r="I117" s="17"/>
       <c r="J117" s="27"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="15"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3402,7 +3402,7 @@
       <c r="I118" s="17"/>
       <c r="J118" s="27"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="15"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3414,7 +3414,7 @@
       <c r="I119" s="17"/>
       <c r="J119" s="27"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="15"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3426,7 +3426,7 @@
       <c r="I120" s="17"/>
       <c r="J120" s="27"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="15"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3438,7 +3438,7 @@
       <c r="I121" s="17"/>
       <c r="J121" s="27"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="15"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3450,7 +3450,7 @@
       <c r="I122" s="17"/>
       <c r="J122" s="27"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="15"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3462,7 +3462,7 @@
       <c r="I123" s="17"/>
       <c r="J123" s="27"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="15"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3474,7 +3474,7 @@
       <c r="I124" s="17"/>
       <c r="J124" s="27"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="15"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3486,7 +3486,7 @@
       <c r="I125" s="17"/>
       <c r="J125" s="27"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="15"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3498,7 +3498,7 @@
       <c r="I126" s="17"/>
       <c r="J126" s="27"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="15"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3510,7 +3510,7 @@
       <c r="I127" s="17"/>
       <c r="J127" s="27"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="15"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3522,7 +3522,7 @@
       <c r="I128" s="17"/>
       <c r="J128" s="27"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="15"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3534,7 +3534,7 @@
       <c r="I129" s="17"/>
       <c r="J129" s="27"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="15"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3546,7 +3546,7 @@
       <c r="I130" s="17"/>
       <c r="J130" s="27"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131" s="15"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3558,7 +3558,7 @@
       <c r="I131" s="17"/>
       <c r="J131" s="27"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" s="15"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3570,7 +3570,7 @@
       <c r="I132" s="17"/>
       <c r="J132" s="27"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" s="15"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3582,7 +3582,7 @@
       <c r="I133" s="17"/>
       <c r="J133" s="27"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="15"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3594,7 +3594,7 @@
       <c r="I134" s="17"/>
       <c r="J134" s="27"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" s="15"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -3606,7 +3606,7 @@
       <c r="I135" s="17"/>
       <c r="J135" s="27"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" s="15"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -3618,7 +3618,7 @@
       <c r="I136" s="17"/>
       <c r="J136" s="27"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" s="15"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -3630,7 +3630,7 @@
       <c r="I137" s="17"/>
       <c r="J137" s="27"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" s="15"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -3642,7 +3642,7 @@
       <c r="I138" s="17"/>
       <c r="J138" s="27"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" s="15"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -3654,7 +3654,7 @@
       <c r="I139" s="17"/>
       <c r="J139" s="27"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140" s="15"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -3666,7 +3666,7 @@
       <c r="I140" s="17"/>
       <c r="J140" s="27"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" s="15"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -3678,7 +3678,7 @@
       <c r="I141" s="17"/>
       <c r="J141" s="27"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" s="15"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -3690,7 +3690,7 @@
       <c r="I142" s="17"/>
       <c r="J142" s="27"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="15"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -3702,7 +3702,7 @@
       <c r="I143" s="17"/>
       <c r="J143" s="27"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144" s="15"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -3714,7 +3714,7 @@
       <c r="I144" s="17"/>
       <c r="J144" s="27"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145" s="15"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -3726,7 +3726,7 @@
       <c r="I145" s="17"/>
       <c r="J145" s="27"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" s="15"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -3738,7 +3738,7 @@
       <c r="I146" s="17"/>
       <c r="J146" s="27"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147" s="15"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -3750,7 +3750,7 @@
       <c r="I147" s="17"/>
       <c r="J147" s="27"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148" s="15"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -3762,7 +3762,7 @@
       <c r="I148" s="17"/>
       <c r="J148" s="27"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149" s="15"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -3774,7 +3774,7 @@
       <c r="I149" s="17"/>
       <c r="J149" s="27"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150" s="15"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -3786,7 +3786,7 @@
       <c r="I150" s="17"/>
       <c r="J150" s="27"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151" s="15"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -3798,7 +3798,7 @@
       <c r="I151" s="17"/>
       <c r="J151" s="27"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152" s="15"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -3810,7 +3810,7 @@
       <c r="I152" s="17"/>
       <c r="J152" s="27"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153" s="15"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -3822,7 +3822,7 @@
       <c r="I153" s="17"/>
       <c r="J153" s="27"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A154" s="15"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -3834,7 +3834,7 @@
       <c r="I154" s="17"/>
       <c r="J154" s="27"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155" s="15"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -3846,7 +3846,7 @@
       <c r="I155" s="17"/>
       <c r="J155" s="27"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156" s="15"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -3858,7 +3858,7 @@
       <c r="I156" s="17"/>
       <c r="J156" s="27"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157" s="15"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -3870,7 +3870,7 @@
       <c r="I157" s="17"/>
       <c r="J157" s="27"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158" s="15"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -3882,7 +3882,7 @@
       <c r="I158" s="17"/>
       <c r="J158" s="27"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159" s="15"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3894,7 +3894,7 @@
       <c r="I159" s="17"/>
       <c r="J159" s="27"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160" s="15"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -3906,7 +3906,7 @@
       <c r="I160" s="17"/>
       <c r="J160" s="27"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" s="15"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3918,7 +3918,7 @@
       <c r="I161" s="17"/>
       <c r="J161" s="27"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" s="15"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -3930,7 +3930,7 @@
       <c r="I162" s="17"/>
       <c r="J162" s="27"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163" s="15"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -3942,7 +3942,7 @@
       <c r="I163" s="17"/>
       <c r="J163" s="27"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" s="15"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -3954,7 +3954,7 @@
       <c r="I164" s="17"/>
       <c r="J164" s="27"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="15"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -3966,7 +3966,7 @@
       <c r="I165" s="17"/>
       <c r="J165" s="27"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="15"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -3978,7 +3978,7 @@
       <c r="I166" s="17"/>
       <c r="J166" s="27"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="15"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -3990,7 +3990,7 @@
       <c r="I167" s="17"/>
       <c r="J167" s="27"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168" s="15"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -4002,7 +4002,7 @@
       <c r="I168" s="17"/>
       <c r="J168" s="27"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169" s="15"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -4014,7 +4014,7 @@
       <c r="I169" s="17"/>
       <c r="J169" s="27"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170" s="15"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -4026,7 +4026,7 @@
       <c r="I170" s="17"/>
       <c r="J170" s="27"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171" s="15"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -4038,7 +4038,7 @@
       <c r="I171" s="17"/>
       <c r="J171" s="27"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172" s="15"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -4050,7 +4050,7 @@
       <c r="I172" s="17"/>
       <c r="J172" s="27"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173" s="15"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -4062,7 +4062,7 @@
       <c r="I173" s="17"/>
       <c r="J173" s="27"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174" s="15"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -4074,7 +4074,7 @@
       <c r="I174" s="17"/>
       <c r="J174" s="27"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A175" s="15"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -4086,7 +4086,7 @@
       <c r="I175" s="17"/>
       <c r="J175" s="27"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176" s="15"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -4098,7 +4098,7 @@
       <c r="I176" s="17"/>
       <c r="J176" s="27"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177" s="15"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -4110,7 +4110,7 @@
       <c r="I177" s="17"/>
       <c r="J177" s="27"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178" s="15"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -4122,7 +4122,7 @@
       <c r="I178" s="17"/>
       <c r="J178" s="27"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179" s="15"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -4134,7 +4134,7 @@
       <c r="I179" s="17"/>
       <c r="J179" s="27"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180" s="15"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -4146,7 +4146,7 @@
       <c r="I180" s="17"/>
       <c r="J180" s="27"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181" s="15"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -4158,7 +4158,7 @@
       <c r="I181" s="17"/>
       <c r="J181" s="27"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182" s="15"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -4170,7 +4170,7 @@
       <c r="I182" s="17"/>
       <c r="J182" s="27"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183" s="15"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -4182,7 +4182,7 @@
       <c r="I183" s="17"/>
       <c r="J183" s="27"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184" s="15"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -4194,7 +4194,7 @@
       <c r="I184" s="17"/>
       <c r="J184" s="27"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185" s="15"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -4206,7 +4206,7 @@
       <c r="I185" s="17"/>
       <c r="J185" s="27"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186" s="15"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -4218,7 +4218,7 @@
       <c r="I186" s="17"/>
       <c r="J186" s="27"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187" s="15"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -4230,7 +4230,7 @@
       <c r="I187" s="17"/>
       <c r="J187" s="27"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188" s="15"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -4242,7 +4242,7 @@
       <c r="I188" s="17"/>
       <c r="J188" s="27"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189" s="15"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -4254,7 +4254,7 @@
       <c r="I189" s="17"/>
       <c r="J189" s="27"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190" s="15"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -4266,7 +4266,7 @@
       <c r="I190" s="17"/>
       <c r="J190" s="27"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A191" s="15"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -4278,7 +4278,7 @@
       <c r="I191" s="17"/>
       <c r="J191" s="27"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A192" s="15"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -4290,7 +4290,7 @@
       <c r="I192" s="17"/>
       <c r="J192" s="27"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A193" s="15"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -4302,7 +4302,7 @@
       <c r="I193" s="17"/>
       <c r="J193" s="27"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A194" s="15"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -4314,7 +4314,7 @@
       <c r="I194" s="17"/>
       <c r="J194" s="27"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A195" s="15"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -4326,7 +4326,7 @@
       <c r="I195" s="17"/>
       <c r="J195" s="27"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A196" s="15"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -4338,7 +4338,7 @@
       <c r="I196" s="17"/>
       <c r="J196" s="27"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A197" s="15"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -4350,7 +4350,7 @@
       <c r="I197" s="17"/>
       <c r="J197" s="27"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A198" s="15"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -4362,7 +4362,7 @@
       <c r="I198" s="17"/>
       <c r="J198" s="27"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A199" s="15"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -4374,7 +4374,7 @@
       <c r="I199" s="17"/>
       <c r="J199" s="27"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A200" s="15"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -4386,7 +4386,7 @@
       <c r="I200" s="17"/>
       <c r="J200" s="27"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A201" s="18"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -4444,7 +4444,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="25.75" style="1" customWidth="1"/>
     <col min="4" max="7" width="25.75" style="2" customWidth="1"/>
@@ -4453,7 +4453,7 @@
     <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="23"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4493,7 +4493,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -4504,7 +4504,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4515,7 +4515,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4526,7 +4526,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -4537,7 +4537,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4548,7 +4548,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4559,7 +4559,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4570,7 +4570,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4581,7 +4581,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4592,7 +4592,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4603,7 +4603,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4614,7 +4614,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4625,7 +4625,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -4636,7 +4636,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -4647,7 +4647,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -4658,7 +4658,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4669,7 +4669,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4680,7 +4680,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4691,7 +4691,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4702,7 +4702,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4713,7 +4713,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4724,7 +4724,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4735,7 +4735,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4746,7 +4746,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4757,7 +4757,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4768,7 +4768,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4779,7 +4779,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4790,7 +4790,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4801,7 +4801,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -4812,7 +4812,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4823,7 +4823,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4834,7 +4834,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4845,7 +4845,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -4856,7 +4856,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4867,7 +4867,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4878,7 +4878,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4889,7 +4889,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4900,7 +4900,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4911,7 +4911,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4922,7 +4922,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4933,7 +4933,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4944,7 +4944,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4955,7 +4955,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4966,7 +4966,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4977,7 +4977,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -4988,7 +4988,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4999,7 +4999,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5010,7 +5010,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5021,7 +5021,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -5032,7 +5032,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5043,7 +5043,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5054,7 +5054,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -5065,7 +5065,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -5076,7 +5076,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -5087,7 +5087,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -5098,7 +5098,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -5109,7 +5109,7 @@
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -5120,7 +5120,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -5131,7 +5131,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -5142,7 +5142,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -5153,7 +5153,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -5164,7 +5164,7 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -5175,7 +5175,7 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -5186,7 +5186,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -5197,7 +5197,7 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -5208,7 +5208,7 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -5219,7 +5219,7 @@
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5230,7 +5230,7 @@
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -5241,7 +5241,7 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -5252,7 +5252,7 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5263,7 +5263,7 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5274,7 +5274,7 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5285,7 +5285,7 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5296,7 +5296,7 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5307,7 +5307,7 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -5318,7 +5318,7 @@
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -5329,7 +5329,7 @@
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -5340,7 +5340,7 @@
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -5351,7 +5351,7 @@
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -5362,7 +5362,7 @@
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -5373,7 +5373,7 @@
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5384,7 +5384,7 @@
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5395,7 +5395,7 @@
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -5406,7 +5406,7 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -5417,7 +5417,7 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -5428,7 +5428,7 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -5439,7 +5439,7 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -5450,7 +5450,7 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -5461,7 +5461,7 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -5472,7 +5472,7 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -5483,7 +5483,7 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -5494,7 +5494,7 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -5505,7 +5505,7 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -5516,7 +5516,7 @@
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -5527,7 +5527,7 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -5538,7 +5538,7 @@
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -5549,7 +5549,7 @@
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -5560,7 +5560,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -5571,7 +5571,7 @@
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -5582,7 +5582,7 @@
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -5593,7 +5593,7 @@
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -5604,7 +5604,7 @@
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -5615,7 +5615,7 @@
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -5626,7 +5626,7 @@
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -5637,7 +5637,7 @@
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -5648,7 +5648,7 @@
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -5659,7 +5659,7 @@
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -5670,7 +5670,7 @@
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -5681,7 +5681,7 @@
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -5692,7 +5692,7 @@
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -5703,7 +5703,7 @@
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -5714,7 +5714,7 @@
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -5725,7 +5725,7 @@
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -5736,7 +5736,7 @@
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -5747,7 +5747,7 @@
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -5758,7 +5758,7 @@
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -5769,7 +5769,7 @@
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -5780,7 +5780,7 @@
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -5791,7 +5791,7 @@
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -5802,7 +5802,7 @@
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -5813,7 +5813,7 @@
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -5824,7 +5824,7 @@
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -5835,7 +5835,7 @@
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -5846,7 +5846,7 @@
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -5857,7 +5857,7 @@
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -5868,7 +5868,7 @@
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -5879,7 +5879,7 @@
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -5890,7 +5890,7 @@
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -5901,7 +5901,7 @@
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -5912,7 +5912,7 @@
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -5923,7 +5923,7 @@
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -5934,7 +5934,7 @@
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -5945,7 +5945,7 @@
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -5956,7 +5956,7 @@
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -5967,7 +5967,7 @@
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -5978,7 +5978,7 @@
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -5989,7 +5989,7 @@
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -6000,7 +6000,7 @@
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -6011,7 +6011,7 @@
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -6022,7 +6022,7 @@
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -6033,7 +6033,7 @@
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -6044,7 +6044,7 @@
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -6055,7 +6055,7 @@
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -6066,7 +6066,7 @@
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -6077,7 +6077,7 @@
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -6088,7 +6088,7 @@
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -6099,7 +6099,7 @@
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -6110,7 +6110,7 @@
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -6121,7 +6121,7 @@
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -6132,7 +6132,7 @@
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -6143,7 +6143,7 @@
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -6154,7 +6154,7 @@
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -6165,7 +6165,7 @@
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -6176,7 +6176,7 @@
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -6187,7 +6187,7 @@
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -6198,7 +6198,7 @@
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -6209,7 +6209,7 @@
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -6220,7 +6220,7 @@
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -6231,7 +6231,7 @@
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -6242,7 +6242,7 @@
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -6253,7 +6253,7 @@
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -6264,7 +6264,7 @@
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -6275,7 +6275,7 @@
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -6286,7 +6286,7 @@
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -6297,7 +6297,7 @@
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -6308,7 +6308,7 @@
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -6319,7 +6319,7 @@
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -6330,7 +6330,7 @@
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -6341,7 +6341,7 @@
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -6352,7 +6352,7 @@
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -6363,7 +6363,7 @@
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -6374,7 +6374,7 @@
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -6385,7 +6385,7 @@
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -6396,7 +6396,7 @@
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -6407,7 +6407,7 @@
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -6418,7 +6418,7 @@
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -6429,7 +6429,7 @@
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -6440,7 +6440,7 @@
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -6451,7 +6451,7 @@
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -6462,7 +6462,7 @@
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -6473,7 +6473,7 @@
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -6484,7 +6484,7 @@
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -6495,7 +6495,7 @@
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -6506,7 +6506,7 @@
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -6517,7 +6517,7 @@
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -6528,7 +6528,7 @@
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -6539,7 +6539,7 @@
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -6550,7 +6550,7 @@
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -6561,7 +6561,7 @@
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -6572,7 +6572,7 @@
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -6583,7 +6583,7 @@
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -6594,7 +6594,7 @@
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -6605,7 +6605,7 @@
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -6616,7 +6616,7 @@
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -6627,7 +6627,7 @@
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -6638,7 +6638,7 @@
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -6649,7 +6649,7 @@
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -6660,7 +6660,7 @@
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -6671,7 +6671,7 @@
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" s="24"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -6715,7 +6715,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
@@ -6728,7 +6728,7 @@
     <col min="10" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="10"/>
@@ -6764,7 +6764,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="10"/>
@@ -6774,7 +6774,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="10"/>
@@ -6784,7 +6784,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="10"/>
@@ -6794,7 +6794,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="10"/>
@@ -6804,7 +6804,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="10"/>
@@ -6814,7 +6814,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
@@ -6824,7 +6824,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="10"/>
@@ -6834,7 +6834,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="10"/>
@@ -6844,7 +6844,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
@@ -6854,7 +6854,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="10"/>
@@ -6864,7 +6864,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
@@ -6874,7 +6874,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
@@ -6884,7 +6884,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
@@ -6894,7 +6894,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
@@ -6904,7 +6904,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
@@ -6914,7 +6914,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="10"/>
@@ -6924,7 +6924,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
@@ -6934,7 +6934,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="10"/>
@@ -6944,7 +6944,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="10"/>
@@ -6954,7 +6954,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="10"/>
@@ -6964,7 +6964,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="10"/>
@@ -6974,7 +6974,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="10"/>
@@ -6984,7 +6984,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="10"/>
@@ -6994,7 +6994,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
@@ -7004,7 +7004,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
@@ -7014,7 +7014,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
@@ -7024,7 +7024,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -7034,7 +7034,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
@@ -7044,7 +7044,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10"/>
@@ -7054,7 +7054,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
@@ -7064,7 +7064,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
@@ -7074,7 +7074,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
@@ -7084,7 +7084,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -7094,7 +7094,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -7104,7 +7104,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -7114,7 +7114,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -7124,7 +7124,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -7134,7 +7134,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -7144,7 +7144,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -7154,7 +7154,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
@@ -7164,7 +7164,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -7174,7 +7174,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
@@ -7184,7 +7184,7 @@
       <c r="G44" s="12"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="10"/>
@@ -7194,7 +7194,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="10"/>
@@ -7204,7 +7204,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="10"/>
@@ -7214,7 +7214,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="10"/>
@@ -7224,7 +7224,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="10"/>
@@ -7234,7 +7234,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="10"/>
@@ -7244,7 +7244,7 @@
       <c r="G50" s="12"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="10"/>
@@ -7254,7 +7254,7 @@
       <c r="G51" s="12"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="10"/>
@@ -7264,7 +7264,7 @@
       <c r="G52" s="12"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="10"/>
@@ -7274,7 +7274,7 @@
       <c r="G53" s="12"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="10"/>
@@ -7284,7 +7284,7 @@
       <c r="G54" s="12"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
@@ -7294,7 +7294,7 @@
       <c r="G55" s="12"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
@@ -7304,7 +7304,7 @@
       <c r="G56" s="12"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="10"/>
@@ -7314,7 +7314,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="10"/>
@@ -7324,7 +7324,7 @@
       <c r="G58" s="12"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="10"/>
@@ -7334,7 +7334,7 @@
       <c r="G59" s="12"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
@@ -7344,7 +7344,7 @@
       <c r="G60" s="12"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="10"/>
@@ -7354,7 +7354,7 @@
       <c r="G61" s="12"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="10"/>
@@ -7364,7 +7364,7 @@
       <c r="G62" s="12"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="10"/>
@@ -7374,7 +7374,7 @@
       <c r="G63" s="12"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="10"/>
@@ -7384,7 +7384,7 @@
       <c r="G64" s="12"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="10"/>
@@ -7394,7 +7394,7 @@
       <c r="G65" s="12"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
@@ -7404,7 +7404,7 @@
       <c r="G66" s="12"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="10"/>
@@ -7414,7 +7414,7 @@
       <c r="G67" s="12"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="10"/>
@@ -7424,7 +7424,7 @@
       <c r="G68" s="12"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="10"/>
@@ -7434,7 +7434,7 @@
       <c r="G69" s="12"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="10"/>
@@ -7444,7 +7444,7 @@
       <c r="G70" s="12"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="10"/>
@@ -7454,7 +7454,7 @@
       <c r="G71" s="12"/>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="10"/>
@@ -7464,7 +7464,7 @@
       <c r="G72" s="12"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="10"/>
@@ -7474,7 +7474,7 @@
       <c r="G73" s="12"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="10"/>
@@ -7484,7 +7484,7 @@
       <c r="G74" s="12"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="10"/>
@@ -7494,7 +7494,7 @@
       <c r="G75" s="12"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="10"/>
@@ -7504,7 +7504,7 @@
       <c r="G76" s="12"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="10"/>
@@ -7514,7 +7514,7 @@
       <c r="G77" s="12"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="10"/>
@@ -7524,7 +7524,7 @@
       <c r="G78" s="12"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="10"/>
@@ -7534,7 +7534,7 @@
       <c r="G79" s="12"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="10"/>
@@ -7544,7 +7544,7 @@
       <c r="G80" s="12"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="10"/>
@@ -7554,7 +7554,7 @@
       <c r="G81" s="12"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="10"/>
@@ -7564,7 +7564,7 @@
       <c r="G82" s="12"/>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="10"/>
@@ -7574,7 +7574,7 @@
       <c r="G83" s="12"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="10"/>
@@ -7584,7 +7584,7 @@
       <c r="G84" s="12"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="10"/>
@@ -7594,7 +7594,7 @@
       <c r="G85" s="12"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="10"/>
@@ -7604,7 +7604,7 @@
       <c r="G86" s="12"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="10"/>
@@ -7614,7 +7614,7 @@
       <c r="G87" s="12"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="10"/>
@@ -7624,7 +7624,7 @@
       <c r="G88" s="12"/>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="10"/>
@@ -7634,7 +7634,7 @@
       <c r="G89" s="12"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="10"/>
@@ -7644,7 +7644,7 @@
       <c r="G90" s="12"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="10"/>
@@ -7654,7 +7654,7 @@
       <c r="G91" s="12"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="10"/>
@@ -7664,7 +7664,7 @@
       <c r="G92" s="12"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="10"/>
@@ -7674,7 +7674,7 @@
       <c r="G93" s="12"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="10"/>
@@ -7684,7 +7684,7 @@
       <c r="G94" s="12"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="10"/>
@@ -7694,7 +7694,7 @@
       <c r="G95" s="12"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="10"/>
@@ -7704,7 +7704,7 @@
       <c r="G96" s="12"/>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="10"/>
@@ -7714,7 +7714,7 @@
       <c r="G97" s="12"/>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="10"/>
@@ -7724,7 +7724,7 @@
       <c r="G98" s="12"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="10"/>
@@ -7734,7 +7734,7 @@
       <c r="G99" s="12"/>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="10"/>
@@ -7744,7 +7744,7 @@
       <c r="G100" s="12"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="10"/>
@@ -7754,7 +7754,7 @@
       <c r="G101" s="12"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="10"/>
@@ -7764,7 +7764,7 @@
       <c r="G102" s="12"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="10"/>
@@ -7774,7 +7774,7 @@
       <c r="G103" s="12"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="10"/>
@@ -7784,7 +7784,7 @@
       <c r="G104" s="12"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="10"/>
@@ -7794,7 +7794,7 @@
       <c r="G105" s="12"/>
       <c r="H105" s="5"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="10"/>
@@ -7804,7 +7804,7 @@
       <c r="G106" s="12"/>
       <c r="H106" s="5"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="10"/>
@@ -7814,7 +7814,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="10"/>
@@ -7824,7 +7824,7 @@
       <c r="G108" s="12"/>
       <c r="H108" s="5"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="10"/>
@@ -7834,7 +7834,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="5"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="10"/>
@@ -7844,7 +7844,7 @@
       <c r="G110" s="12"/>
       <c r="H110" s="5"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="10"/>
@@ -7854,7 +7854,7 @@
       <c r="G111" s="12"/>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="10"/>
@@ -7864,7 +7864,7 @@
       <c r="G112" s="12"/>
       <c r="H112" s="5"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="10"/>
@@ -7874,7 +7874,7 @@
       <c r="G113" s="12"/>
       <c r="H113" s="5"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="10"/>
@@ -7884,7 +7884,7 @@
       <c r="G114" s="12"/>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="10"/>
@@ -7894,7 +7894,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="10"/>
@@ -7904,7 +7904,7 @@
       <c r="G116" s="12"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="10"/>
@@ -7914,7 +7914,7 @@
       <c r="G117" s="12"/>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="10"/>
@@ -7924,7 +7924,7 @@
       <c r="G118" s="12"/>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="10"/>
@@ -7934,7 +7934,7 @@
       <c r="G119" s="12"/>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="10"/>
@@ -7944,7 +7944,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="10"/>
@@ -7954,7 +7954,7 @@
       <c r="G121" s="12"/>
       <c r="H121" s="5"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="10"/>
@@ -7964,7 +7964,7 @@
       <c r="G122" s="12"/>
       <c r="H122" s="5"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="10"/>
@@ -7974,7 +7974,7 @@
       <c r="G123" s="12"/>
       <c r="H123" s="5"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="10"/>
@@ -7984,7 +7984,7 @@
       <c r="G124" s="12"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="10"/>
@@ -7994,7 +7994,7 @@
       <c r="G125" s="12"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="10"/>
@@ -8004,7 +8004,7 @@
       <c r="G126" s="12"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="10"/>
@@ -8014,7 +8014,7 @@
       <c r="G127" s="12"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="10"/>
@@ -8024,7 +8024,7 @@
       <c r="G128" s="12"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="10"/>
@@ -8034,7 +8034,7 @@
       <c r="G129" s="12"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="10"/>
@@ -8044,7 +8044,7 @@
       <c r="G130" s="12"/>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="10"/>
@@ -8054,7 +8054,7 @@
       <c r="G131" s="12"/>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="10"/>
@@ -8064,7 +8064,7 @@
       <c r="G132" s="12"/>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="10"/>
@@ -8074,7 +8074,7 @@
       <c r="G133" s="12"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="10"/>
@@ -8084,7 +8084,7 @@
       <c r="G134" s="12"/>
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="10"/>
@@ -8094,7 +8094,7 @@
       <c r="G135" s="12"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="10"/>
@@ -8104,7 +8104,7 @@
       <c r="G136" s="12"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="10"/>
@@ -8114,7 +8114,7 @@
       <c r="G137" s="12"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="10"/>
@@ -8124,7 +8124,7 @@
       <c r="G138" s="12"/>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="10"/>
@@ -8134,7 +8134,7 @@
       <c r="G139" s="12"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="10"/>
@@ -8144,7 +8144,7 @@
       <c r="G140" s="12"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="10"/>
@@ -8154,7 +8154,7 @@
       <c r="G141" s="12"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="10"/>
@@ -8164,7 +8164,7 @@
       <c r="G142" s="12"/>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="10"/>
@@ -8174,7 +8174,7 @@
       <c r="G143" s="12"/>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="10"/>
@@ -8184,7 +8184,7 @@
       <c r="G144" s="12"/>
       <c r="H144" s="5"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="10"/>
@@ -8194,7 +8194,7 @@
       <c r="G145" s="12"/>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="10"/>
@@ -8204,7 +8204,7 @@
       <c r="G146" s="12"/>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="10"/>
@@ -8214,7 +8214,7 @@
       <c r="G147" s="12"/>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="10"/>
@@ -8224,7 +8224,7 @@
       <c r="G148" s="12"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="10"/>
@@ -8234,7 +8234,7 @@
       <c r="G149" s="12"/>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="10"/>
@@ -8244,7 +8244,7 @@
       <c r="G150" s="12"/>
       <c r="H150" s="5"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="10"/>
@@ -8254,7 +8254,7 @@
       <c r="G151" s="12"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10"/>
@@ -8264,7 +8264,7 @@
       <c r="G152" s="12"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="10"/>
@@ -8274,7 +8274,7 @@
       <c r="G153" s="12"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="10"/>
@@ -8284,7 +8284,7 @@
       <c r="G154" s="12"/>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="10"/>
@@ -8294,7 +8294,7 @@
       <c r="G155" s="12"/>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="10"/>
@@ -8304,7 +8304,7 @@
       <c r="G156" s="12"/>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="10"/>
@@ -8314,7 +8314,7 @@
       <c r="G157" s="12"/>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="10"/>
@@ -8324,7 +8324,7 @@
       <c r="G158" s="12"/>
       <c r="H158" s="5"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="10"/>
@@ -8334,7 +8334,7 @@
       <c r="G159" s="12"/>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="10"/>
@@ -8344,7 +8344,7 @@
       <c r="G160" s="12"/>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="10"/>
@@ -8354,7 +8354,7 @@
       <c r="G161" s="12"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="10"/>
@@ -8364,7 +8364,7 @@
       <c r="G162" s="12"/>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="10"/>
@@ -8374,7 +8374,7 @@
       <c r="G163" s="12"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="10"/>
@@ -8384,7 +8384,7 @@
       <c r="G164" s="12"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="10"/>
@@ -8394,7 +8394,7 @@
       <c r="G165" s="12"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="10"/>
@@ -8404,7 +8404,7 @@
       <c r="G166" s="12"/>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="10"/>
@@ -8414,7 +8414,7 @@
       <c r="G167" s="12"/>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="10"/>
@@ -8424,7 +8424,7 @@
       <c r="G168" s="12"/>
       <c r="H168" s="5"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="10"/>
@@ -8434,7 +8434,7 @@
       <c r="G169" s="12"/>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="10"/>
@@ -8444,7 +8444,7 @@
       <c r="G170" s="12"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="10"/>
@@ -8454,7 +8454,7 @@
       <c r="G171" s="12"/>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="10"/>
@@ -8464,7 +8464,7 @@
       <c r="G172" s="12"/>
       <c r="H172" s="5"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="10"/>
@@ -8474,7 +8474,7 @@
       <c r="G173" s="12"/>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="10"/>
@@ -8484,7 +8484,7 @@
       <c r="G174" s="12"/>
       <c r="H174" s="5"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="10"/>
@@ -8494,7 +8494,7 @@
       <c r="G175" s="12"/>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="10"/>
@@ -8504,7 +8504,7 @@
       <c r="G176" s="12"/>
       <c r="H176" s="5"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="10"/>
@@ -8514,7 +8514,7 @@
       <c r="G177" s="12"/>
       <c r="H177" s="5"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="10"/>
@@ -8524,7 +8524,7 @@
       <c r="G178" s="12"/>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="10"/>
@@ -8534,7 +8534,7 @@
       <c r="G179" s="12"/>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="10"/>
@@ -8544,7 +8544,7 @@
       <c r="G180" s="12"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="10"/>
@@ -8554,7 +8554,7 @@
       <c r="G181" s="12"/>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="10"/>
@@ -8564,7 +8564,7 @@
       <c r="G182" s="12"/>
       <c r="H182" s="5"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="10"/>
@@ -8574,7 +8574,7 @@
       <c r="G183" s="12"/>
       <c r="H183" s="5"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="10"/>
@@ -8584,7 +8584,7 @@
       <c r="G184" s="12"/>
       <c r="H184" s="5"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="10"/>
@@ -8594,7 +8594,7 @@
       <c r="G185" s="12"/>
       <c r="H185" s="5"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="10"/>
@@ -8604,7 +8604,7 @@
       <c r="G186" s="12"/>
       <c r="H186" s="5"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="10"/>
@@ -8614,7 +8614,7 @@
       <c r="G187" s="12"/>
       <c r="H187" s="5"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="10"/>
@@ -8624,7 +8624,7 @@
       <c r="G188" s="12"/>
       <c r="H188" s="5"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="10"/>
@@ -8634,7 +8634,7 @@
       <c r="G189" s="12"/>
       <c r="H189" s="5"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="10"/>
@@ -8644,7 +8644,7 @@
       <c r="G190" s="12"/>
       <c r="H190" s="5"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="10"/>
@@ -8654,7 +8654,7 @@
       <c r="G191" s="12"/>
       <c r="H191" s="5"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="10"/>
@@ -8664,7 +8664,7 @@
       <c r="G192" s="12"/>
       <c r="H192" s="5"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="10"/>
@@ -8674,7 +8674,7 @@
       <c r="G193" s="12"/>
       <c r="H193" s="5"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="10"/>
@@ -8684,7 +8684,7 @@
       <c r="G194" s="12"/>
       <c r="H194" s="5"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="10"/>
@@ -8694,7 +8694,7 @@
       <c r="G195" s="12"/>
       <c r="H195" s="5"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="10"/>
@@ -8704,7 +8704,7 @@
       <c r="G196" s="12"/>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="10"/>
@@ -8714,7 +8714,7 @@
       <c r="G197" s="12"/>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="10"/>
@@ -8724,7 +8724,7 @@
       <c r="G198" s="12"/>
       <c r="H198" s="5"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="10"/>
@@ -8734,7 +8734,7 @@
       <c r="G199" s="12"/>
       <c r="H199" s="5"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="10"/>
@@ -8744,7 +8744,7 @@
       <c r="G200" s="12"/>
       <c r="H200" s="5"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="10"/>
@@ -8784,7 +8784,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="25.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
@@ -8793,7 +8793,7 @@
     <col min="6" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -8810,1400 +8810,1400 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="12"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="12"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="12"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="12"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="12"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="12"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="12"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="12"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="12"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="12"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="12"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="12"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="12"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="12"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="12"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="12"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="12"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="12"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="12"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="12"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="12"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="12"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="12"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="12"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="12"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="12"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="12"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="12"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="12"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="12"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="12"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="12"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="12"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="12"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="12"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="12"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="12"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="12"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="12"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="12"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="12"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="12"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="12"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="12"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="12"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="12"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="12"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="12"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="12"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="12"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="12"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="12"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="12"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="12"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="12"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="12"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="12"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="12"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="12"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="12"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="12"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="12"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="12"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="12"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="12"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="12"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="12"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="12"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="12"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="12"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="12"/>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="12"/>
       <c r="E102" s="6"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="12"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="12"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="12"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="12"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="12"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="12"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="12"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="12"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="12"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="12"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="12"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="12"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="12"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="12"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="12"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="12"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="12"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="12"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="12"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
       <c r="D125" s="12"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="12"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
       <c r="D127" s="12"/>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
       <c r="D128" s="12"/>
       <c r="E128" s="6"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
       <c r="D129" s="12"/>
       <c r="E129" s="6"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="12"/>
       <c r="E130" s="6"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="12"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="12"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
       <c r="D133" s="12"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
       <c r="D134" s="12"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
       <c r="D135" s="12"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
       <c r="D136" s="12"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
       <c r="D137" s="12"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
       <c r="D138" s="12"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
       <c r="D139" s="12"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
       <c r="D140" s="12"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
       <c r="D141" s="12"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
       <c r="D142" s="12"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
       <c r="D143" s="12"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
       <c r="D144" s="12"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
       <c r="D145" s="12"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="12"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
       <c r="D147" s="12"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
       <c r="D149" s="12"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
       <c r="D150" s="12"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
       <c r="D151" s="12"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
       <c r="D152" s="12"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="12"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
       <c r="D154" s="12"/>
       <c r="E154" s="6"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
       <c r="D155" s="12"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
       <c r="D156" s="12"/>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
       <c r="D157" s="12"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
       <c r="D158" s="12"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
       <c r="D159" s="12"/>
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="12"/>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
       <c r="D161" s="12"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
       <c r="D162" s="12"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
       <c r="D163" s="12"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
       <c r="D164" s="12"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
       <c r="D165" s="12"/>
       <c r="E165" s="6"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
       <c r="D166" s="12"/>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
       <c r="D167" s="12"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
       <c r="D168" s="12"/>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="12"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
       <c r="D170" s="12"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="12"/>
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
       <c r="D173" s="12"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
       <c r="D174" s="12"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
       <c r="D175" s="12"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
       <c r="D176" s="12"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
       <c r="D177" s="12"/>
       <c r="E177" s="6"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="12"/>
       <c r="E178" s="6"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
       <c r="D179" s="12"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
       <c r="D180" s="12"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="12"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
       <c r="D182" s="12"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="12"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="12"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="12"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="12"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="12"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="12"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="12"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="12"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
       <c r="D191" s="12"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
       <c r="D192" s="12"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
       <c r="D193" s="12"/>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="12"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
       <c r="D195" s="12"/>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="12"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="12"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
       <c r="D198" s="12"/>
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="12"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="12"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE19419-E25E-4627-BB37-545FD4846648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2110F8A3-461D-487C-A713-50D24AFE7142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2110F8A3-461D-487C-A713-50D24AFE7142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D4A86-8819-4E5F-8580-A4AA800772D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D4A86-8819-4E5F-8580-A4AA800772D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D997F9FA-137B-4ABD-B40F-1AA8769D589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D997F9FA-137B-4ABD-B40F-1AA8769D589F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9018E7-2CC3-497C-A30E-53CC8CA47917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9018E7-2CC3-497C-A30E-53CC8CA47917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F3EB90-6C17-45DC-B9BF-B3D0BCB5A51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F3EB90-6C17-45DC-B9BF-B3D0BCB5A51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822BC077-5EFE-4321-A00A-08C86B3965D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/ロボット.xlsx
+++ b/Workbooks/JA/ロボット.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822BC077-5EFE-4321-A00A-08C86B3965D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8DAF3D-48D0-4218-A5C0-94F3493E8E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="3600" windowWidth="21375" windowHeight="9990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
